--- a/Data_Normalized.xlsx
+++ b/Data_Normalized.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J801"/>
+  <dimension ref="A1:K801"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -484,6 +484,11 @@
           <t>x2_x3</t>
         </is>
       </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>y</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -516,6 +521,9 @@
       <c r="J2" t="n">
         <v>0.430418061391639</v>
       </c>
+      <c r="K2" t="n">
+        <v>77.3742960136108</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -548,6 +556,9 @@
       <c r="J3" t="n">
         <v>0.430418061391639</v>
       </c>
+      <c r="K3" t="n">
+        <v>30.8670294625265</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -580,6 +591,9 @@
       <c r="J4" t="n">
         <v>0.2926429741471411</v>
       </c>
+      <c r="K4" t="n">
+        <v>46.4222920288488</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -612,6 +626,9 @@
       <c r="J5" t="n">
         <v>0.5787337084253257</v>
       </c>
+      <c r="K5" t="n">
+        <v>77.7187960671733</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -644,6 +661,9 @@
       <c r="J6" t="n">
         <v>0.6957125560857484</v>
       </c>
+      <c r="K6" t="n">
+        <v>46.2281022792085</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -676,6 +696,9 @@
       <c r="J7" t="n">
         <v>0.5787337084253257</v>
       </c>
+      <c r="K7" t="n">
+        <v>33.445077277208</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -708,6 +731,9 @@
       <c r="J8" t="n">
         <v>0.2926429741471411</v>
       </c>
+      <c r="K8" t="n">
+        <v>20.4106309465145</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -740,6 +766,9 @@
       <c r="J9" t="n">
         <v>0.6957125560857484</v>
       </c>
+      <c r="K9" t="n">
+        <v>22.4499889579933</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -772,6 +801,9 @@
       <c r="J10" t="n">
         <v>0.7950644540987094</v>
       </c>
+      <c r="K10" t="n">
+        <v>42.7970075914114</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -804,6 +836,9 @@
       <c r="J11" t="n">
         <v>0.7950644540987094</v>
       </c>
+      <c r="K11" t="n">
+        <v>87.1117656219369</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -836,6 +871,9 @@
       <c r="J12" t="n">
         <v>0.6481732070365351</v>
       </c>
+      <c r="K12" t="n">
+        <v>21.6904699045036</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -868,6 +906,9 @@
       <c r="J13" t="n">
         <v>0.1958549960829002</v>
       </c>
+      <c r="K13" t="n">
+        <v>42.1868663359106</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -900,6 +941,9 @@
       <c r="J14" t="n">
         <v>0.3584146428317072</v>
       </c>
+      <c r="K14" t="n">
+        <v>20.4259794192248</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -932,6 +976,9 @@
       <c r="J15" t="n">
         <v>0.1958549960829002</v>
       </c>
+      <c r="K15" t="n">
+        <v>85.8550080326671</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
@@ -964,6 +1011,9 @@
       <c r="J16" t="n">
         <v>0.6481732070365351</v>
       </c>
+      <c r="K16" t="n">
+        <v>50.5633334037791</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
@@ -996,6 +1046,9 @@
       <c r="J17" t="n">
         <v>0.3584146428317072</v>
       </c>
+      <c r="K17" t="n">
+        <v>48.6522265847313</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
@@ -1028,6 +1081,9 @@
       <c r="J18" t="n">
         <v>0.4668827006623459</v>
       </c>
+      <c r="K18" t="n">
+        <v>35.2803894004708</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
@@ -1060,6 +1116,9 @@
       <c r="J19" t="n">
         <v>0.4668827006623459</v>
       </c>
+      <c r="K19" t="n">
+        <v>3.80429901811228</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
@@ -1092,6 +1151,9 @@
       <c r="J20" t="n">
         <v>0.4293853714122925</v>
       </c>
+      <c r="K20" t="n">
+        <v>42.9329249647204</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
@@ -1124,6 +1186,9 @@
       <c r="J21" t="n">
         <v>0.5035253899294921</v>
       </c>
+      <c r="K21" t="n">
+        <v>33.7953951702666</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
@@ -1156,6 +1221,9 @@
       <c r="J22" t="n">
         <v>0.4974360800512784</v>
       </c>
+      <c r="K22" t="n">
+        <v>40.3188959415022</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
@@ -1188,6 +1256,9 @@
       <c r="J23" t="n">
         <v>0.5035253899294921</v>
       </c>
+      <c r="K23" t="n">
+        <v>4.13366238762348</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
@@ -1220,6 +1291,9 @@
       <c r="J24" t="n">
         <v>0.4293853714122925</v>
       </c>
+      <c r="K24" t="n">
+        <v>6.9524400511119</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
@@ -1252,6 +1326,9 @@
       <c r="J25" t="n">
         <v>0.4974360800512784</v>
       </c>
+      <c r="K25" t="n">
+        <v>6.15276862760908</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
@@ -1284,6 +1361,9 @@
       <c r="J26" t="n">
         <v>0.5398119792037602</v>
       </c>
+      <c r="K26" t="n">
+        <v>18.8869263926845</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
@@ -1316,6 +1396,9 @@
       <c r="J27" t="n">
         <v>0.5398119792037602</v>
       </c>
+      <c r="K27" t="n">
+        <v>152.224952516318</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
@@ -1348,6 +1431,9 @@
       <c r="J28" t="n">
         <v>0.5433373691332525</v>
       </c>
+      <c r="K28" t="n">
+        <v>18.3588464053425</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
@@ -1380,6 +1466,9 @@
       <c r="J29" t="n">
         <v>0.7998005840039873</v>
       </c>
+      <c r="K29" t="n">
+        <v>28.0191611841069</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
@@ -1412,6 +1501,9 @@
       <c r="J30" t="n">
         <v>0.8347339933053191</v>
       </c>
+      <c r="K30" t="n">
+        <v>28.4872883670713</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
@@ -1444,6 +1536,9 @@
       <c r="J31" t="n">
         <v>0.7998005840039873</v>
       </c>
+      <c r="K31" t="n">
+        <v>161.435906335342</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
@@ -1476,6 +1571,9 @@
       <c r="J32" t="n">
         <v>0.5433373691332525</v>
       </c>
+      <c r="K32" t="n">
+        <v>161.254977997726</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
@@ -1508,6 +1606,9 @@
       <c r="J33" t="n">
         <v>0.8347339933053191</v>
       </c>
+      <c r="K33" t="n">
+        <v>171.462138987056</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
@@ -1540,6 +1641,9 @@
       <c r="J34" t="n">
         <v>0.6116017377679649</v>
       </c>
+      <c r="K34" t="n">
+        <v>13.0173393582925</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
@@ -1572,6 +1676,9 @@
       <c r="J35" t="n">
         <v>0.6116017377679649</v>
       </c>
+      <c r="K35" t="n">
+        <v>64.16310188058711</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
@@ -1604,6 +1711,9 @@
       <c r="J36" t="n">
         <v>0.7678228046435431</v>
       </c>
+      <c r="K36" t="n">
+        <v>22.9910190270156</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
@@ -1636,6 +1746,9 @@
       <c r="J37" t="n">
         <v>0.5228972295420553</v>
       </c>
+      <c r="K37" t="n">
+        <v>9.82948800227911</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
@@ -1668,6 +1781,9 @@
       <c r="J38" t="n">
         <v>0.5418773591624527</v>
       </c>
+      <c r="K38" t="n">
+        <v>15.4501263622026</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
@@ -1700,6 +1816,9 @@
       <c r="J39" t="n">
         <v>0.5228972295420553</v>
       </c>
+      <c r="K39" t="n">
+        <v>61.3500079758252</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
@@ -1732,6 +1851,9 @@
       <c r="J40" t="n">
         <v>0.7678228046435431</v>
       </c>
+      <c r="K40" t="n">
+        <v>101.66363701806</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
@@ -1764,6 +1886,9 @@
       <c r="J41" t="n">
         <v>0.5418773591624527</v>
       </c>
+      <c r="K41" t="n">
+        <v>94.4975018044987</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
@@ -1796,6 +1921,9 @@
       <c r="J42" t="n">
         <v>0.4429527811409444</v>
       </c>
+      <c r="K42" t="n">
+        <v>142.005158801052</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
@@ -1828,6 +1956,9 @@
       <c r="J43" t="n">
         <v>0.4429527811409444</v>
       </c>
+      <c r="K43" t="n">
+        <v>15.3691376493645</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
@@ -1860,6 +1991,9 @@
       <c r="J44" t="n">
         <v>0.5080122498397549</v>
       </c>
+      <c r="K44" t="n">
+        <v>61.8869536236919</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
@@ -1892,6 +2026,9 @@
       <c r="J45" t="n">
         <v>0.1400185171996295</v>
       </c>
+      <c r="K45" t="n">
+        <v>152.750789650042</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
@@ -1924,6 +2061,9 @@
       <c r="J46" t="n">
         <v>0.4962965600740687</v>
       </c>
+      <c r="K46" t="n">
+        <v>62.1640509837148</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
@@ -1956,6 +2096,9 @@
       <c r="J47" t="n">
         <v>0.1400185171996295</v>
       </c>
+      <c r="K47" t="n">
+        <v>26.1638148364426</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
@@ -1988,6 +2131,9 @@
       <c r="J48" t="n">
         <v>0.5080122498397549</v>
       </c>
+      <c r="K48" t="n">
+        <v>12.7777879407534</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
@@ -2020,6 +2166,9 @@
       <c r="J49" t="n">
         <v>0.4962965600740687</v>
       </c>
+      <c r="K49" t="n">
+        <v>13.1039316388647</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
@@ -2052,6 +2201,9 @@
       <c r="J50" t="n">
         <v>0.6002065379958691</v>
       </c>
+      <c r="K50" t="n">
+        <v>39.1757335735662</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
@@ -2084,6 +2236,9 @@
       <c r="J51" t="n">
         <v>0.6002065379958691</v>
       </c>
+      <c r="K51" t="n">
+        <v>28.1716207185469</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
@@ -2116,6 +2271,9 @@
       <c r="J52" t="n">
         <v>0.5649882487002349</v>
       </c>
+      <c r="K52" t="n">
+        <v>26.6746228611665</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
@@ -2148,6 +2306,9 @@
       <c r="J53" t="n">
         <v>0.4043871519122572</v>
       </c>
+      <c r="K53" t="n">
+        <v>37.7769012601629</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
@@ -2180,6 +2341,9 @@
       <c r="J54" t="n">
         <v>0.4461576810768465</v>
       </c>
+      <c r="K54" t="n">
+        <v>25.1129938809301</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
@@ -2212,6 +2376,9 @@
       <c r="J55" t="n">
         <v>0.4043871519122572</v>
       </c>
+      <c r="K55" t="n">
+        <v>26.5062319209238</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
@@ -2244,6 +2411,9 @@
       <c r="J56" t="n">
         <v>0.5649882487002349</v>
       </c>
+      <c r="K56" t="n">
+        <v>18.1973654748973</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
@@ -2276,6 +2446,9 @@
       <c r="J57" t="n">
         <v>0.4461576810768465</v>
       </c>
+      <c r="K57" t="n">
+        <v>16.3691800104411</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
@@ -2308,6 +2481,9 @@
       <c r="J58" t="n">
         <v>0.139840467203191</v>
       </c>
+      <c r="K58" t="n">
+        <v>28.1443602343672</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
@@ -2340,6 +2516,9 @@
       <c r="J59" t="n">
         <v>0.139840467203191</v>
       </c>
+      <c r="K59" t="n">
+        <v>38.6766726913016</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
@@ -2372,6 +2551,9 @@
       <c r="J60" t="n">
         <v>0.2094580158108399</v>
       </c>
+      <c r="K60" t="n">
+        <v>32.448176542054</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
@@ -2404,6 +2586,9 @@
       <c r="J61" t="n">
         <v>0.8465209030695801</v>
       </c>
+      <c r="K61" t="n">
+        <v>29.7170733724454</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
@@ -2436,6 +2621,9 @@
       <c r="J62" t="n">
         <v>0.7834555943308866</v>
       </c>
+      <c r="K62" t="n">
+        <v>34.3014541485042</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
@@ -2468,6 +2656,9 @@
       <c r="J63" t="n">
         <v>0.8465209030695801</v>
       </c>
+      <c r="K63" t="n">
+        <v>37.4987517162173</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
@@ -2500,6 +2691,9 @@
       <c r="J64" t="n">
         <v>0.2094580158108399</v>
       </c>
+      <c r="K64" t="n">
+        <v>45.5073444677384</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
@@ -2532,6 +2726,9 @@
       <c r="J65" t="n">
         <v>0.7834555943308866</v>
       </c>
+      <c r="K65" t="n">
+        <v>44.6099879610261</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
@@ -2564,6 +2761,9 @@
       <c r="J66" t="n">
         <v>0.5158820596823588</v>
       </c>
+      <c r="K66" t="n">
+        <v>36.1125032139725</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
@@ -2596,6 +2796,9 @@
       <c r="J67" t="n">
         <v>0.5158820596823588</v>
       </c>
+      <c r="K67" t="n">
+        <v>25.7836150676986</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
@@ -2628,6 +2831,9 @@
       <c r="J68" t="n">
         <v>0.6356384872872297</v>
       </c>
+      <c r="K68" t="n">
+        <v>29.0042509713605</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
@@ -2660,6 +2866,9 @@
       <c r="J69" t="n">
         <v>0.5217577095648457</v>
       </c>
+      <c r="K69" t="n">
+        <v>37.1587420110648</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
@@ -2692,6 +2901,9 @@
       <c r="J70" t="n">
         <v>0.7754789544904207</v>
       </c>
+      <c r="K70" t="n">
+        <v>36.5658202006478</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
@@ -2724,6 +2936,9 @@
       <c r="J71" t="n">
         <v>0.5217577095648457</v>
       </c>
+      <c r="K71" t="n">
+        <v>23.6651522205948</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
@@ -2756,6 +2971,9 @@
       <c r="J72" t="n">
         <v>0.6356384872872297</v>
       </c>
+      <c r="K72" t="n">
+        <v>23.5459682938366</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
@@ -2788,6 +3006,9 @@
       <c r="J73" t="n">
         <v>0.7754789544904207</v>
       </c>
+      <c r="K73" t="n">
+        <v>27.9428358789278</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
@@ -2820,6 +3041,9 @@
       <c r="J74" t="n">
         <v>0.3472331030553386</v>
       </c>
+      <c r="K74" t="n">
+        <v>60.2381959200144</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
@@ -2852,6 +3076,9 @@
       <c r="J75" t="n">
         <v>0.3472331030553386</v>
       </c>
+      <c r="K75" t="n">
+        <v>74.259961802288</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
@@ -2884,6 +3111,9 @@
       <c r="J76" t="n">
         <v>0.2071789758564218</v>
       </c>
+      <c r="K76" t="n">
+        <v>98.3479215226931</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
@@ -2916,6 +3146,9 @@
       <c r="J77" t="n">
         <v>0.5035253899294921</v>
       </c>
+      <c r="K77" t="n">
+        <v>58.2459098042544</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
@@ -2948,6 +3181,9 @@
       <c r="J78" t="n">
         <v>0.4974360800512783</v>
       </c>
+      <c r="K78" t="n">
+        <v>93.8061582812916</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
@@ -2980,6 +3216,9 @@
       <c r="J79" t="n">
         <v>0.5035253899294921</v>
       </c>
+      <c r="K79" t="n">
+        <v>73.8140256589046</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
@@ -3012,6 +3251,9 @@
       <c r="J80" t="n">
         <v>0.2071789758564218</v>
       </c>
+      <c r="K80" t="n">
+        <v>117.240292873716</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
@@ -3044,6 +3286,9 @@
       <c r="J81" t="n">
         <v>0.4974360800512783</v>
       </c>
+      <c r="K81" t="n">
+        <v>114.244879604691</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
@@ -3076,6 +3321,9 @@
       <c r="J82" t="n">
         <v>0.6617406167651875</v>
       </c>
+      <c r="K82" t="n">
+        <v>120.344160257863</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
@@ -3108,6 +3356,9 @@
       <c r="J83" t="n">
         <v>0.6617406167651875</v>
       </c>
+      <c r="K83" t="n">
+        <v>87.6250649264464</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
@@ -3140,6 +3391,9 @@
       <c r="J84" t="n">
         <v>0.9114023217719532</v>
       </c>
+      <c r="K84" t="n">
+        <v>186.282006407396</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
@@ -3172,6 +3426,9 @@
       <c r="J85" t="n">
         <v>0.4283170714336589</v>
       </c>
+      <c r="K85" t="n">
+        <v>115.581578365805</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
@@ -3204,6 +3461,9 @@
       <c r="J86" t="n">
         <v>0.2923224841535512</v>
       </c>
+      <c r="K86" t="n">
+        <v>175.810999301359</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
@@ -3236,6 +3496,9 @@
       <c r="J87" t="n">
         <v>0.4283170714336589</v>
       </c>
+      <c r="K87" t="n">
+        <v>82.12182705650361</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
@@ -3268,6 +3531,9 @@
       <c r="J88" t="n">
         <v>0.9114023217719532</v>
       </c>
+      <c r="K88" t="n">
+        <v>69.3710165447293</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
@@ -3300,6 +3566,9 @@
       <c r="J89" t="n">
         <v>0.2923224841535512</v>
       </c>
+      <c r="K89" t="n">
+        <v>58.1593534608081</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
@@ -3332,6 +3601,9 @@
       <c r="J90" t="n">
         <v>0.4930916601381668</v>
       </c>
+      <c r="K90" t="n">
+        <v>24.890202704312</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
@@ -3364,6 +3636,9 @@
       <c r="J91" t="n">
         <v>0.4930916601381668</v>
       </c>
+      <c r="K91" t="n">
+        <v>32.2892711769308</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
@@ -3396,6 +3671,9 @@
       <c r="J92" t="n">
         <v>0.5057332098853358</v>
       </c>
+      <c r="K92" t="n">
+        <v>8.319540637078029</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
@@ -3428,6 +3706,9 @@
       <c r="J93" t="n">
         <v>0.7245922655081538</v>
       </c>
+      <c r="K93" t="n">
+        <v>28.4945139964995</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
@@ -3460,6 +3741,9 @@
       <c r="J94" t="n">
         <v>0.5703653585926926</v>
       </c>
+      <c r="K94" t="n">
+        <v>9.453890659394521</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
@@ -3492,6 +3776,9 @@
       <c r="J95" t="n">
         <v>0.7245922655081538</v>
       </c>
+      <c r="K95" t="n">
+        <v>36.8288219455578</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
@@ -3524,6 +3811,9 @@
       <c r="J96" t="n">
         <v>0.5057332098853358</v>
       </c>
+      <c r="K96" t="n">
+        <v>9.651714578446819</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
@@ -3556,6 +3846,9 @@
       <c r="J97" t="n">
         <v>0.5703653585926926</v>
       </c>
+      <c r="K97" t="n">
+        <v>11.7213040772028</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
@@ -3588,6 +3881,9 @@
       <c r="J98" t="n">
         <v>0.3290007834199847</v>
       </c>
+      <c r="K98" t="n">
+        <v>17.7457348983616</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
@@ -3620,6 +3916,9 @@
       <c r="J99" t="n">
         <v>0.3290007834199847</v>
       </c>
+      <c r="K99" t="n">
+        <v>37.8272514934294</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
@@ -3652,6 +3951,9 @@
       <c r="J100" t="n">
         <v>0.4692685706146287</v>
       </c>
+      <c r="K100" t="n">
+        <v>12.5252896990389</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
@@ -3684,6 +3986,9 @@
       <c r="J101" t="n">
         <v>0.6778719464425608</v>
       </c>
+      <c r="K101" t="n">
+        <v>18.969101664326</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="n">
@@ -3716,6 +4021,9 @@
       <c r="J102" t="n">
         <v>0.5487144790257104</v>
       </c>
+      <c r="K102" t="n">
+        <v>14.3183694998135</v>
+      </c>
     </row>
     <row r="103">
       <c r="A103" t="n">
@@ -3748,6 +4056,9 @@
       <c r="J103" t="n">
         <v>0.6778719464425608</v>
       </c>
+      <c r="K103" t="n">
+        <v>38.3894502143724</v>
+      </c>
     </row>
     <row r="104">
       <c r="A104" t="n">
@@ -3780,6 +4091,9 @@
       <c r="J104" t="n">
         <v>0.4692685706146287</v>
       </c>
+      <c r="K104" t="n">
+        <v>14.0399117628567</v>
+      </c>
     </row>
     <row r="105">
       <c r="A105" t="n">
@@ -3812,6 +4126,9 @@
       <c r="J105" t="n">
         <v>0.5487144790257104</v>
       </c>
+      <c r="K105" t="n">
+        <v>15.1718235186099</v>
+      </c>
     </row>
     <row r="106">
       <c r="A106" t="n">
@@ -3844,6 +4161,9 @@
       <c r="J106" t="n">
         <v>0.620717897585642</v>
       </c>
+      <c r="K106" t="n">
+        <v>136.830530630329</v>
+      </c>
     </row>
     <row r="107">
       <c r="A107" t="n">
@@ -3876,6 +4196,9 @@
       <c r="J107" t="n">
         <v>0.620717897585642</v>
       </c>
+      <c r="K107" t="n">
+        <v>26.0798600200524</v>
+      </c>
     </row>
     <row r="108">
       <c r="A108" t="n">
@@ -3908,6 +4231,9 @@
       <c r="J108" t="n">
         <v>0.5832205683355886</v>
       </c>
+      <c r="K108" t="n">
+        <v>104.618346942426</v>
+      </c>
     </row>
     <row r="109">
       <c r="A109" t="n">
@@ -3940,6 +4266,9 @@
       <c r="J109" t="n">
         <v>0.3679225126415496</v>
       </c>
+      <c r="K109" t="n">
+        <v>137.152583020074</v>
+      </c>
     </row>
     <row r="110">
       <c r="A110" t="n">
@@ -3972,6 +4301,9 @@
       <c r="J110" t="n">
         <v>0.4165301616693967</v>
       </c>
+      <c r="K110" t="n">
+        <v>104.758326094241</v>
+      </c>
     </row>
     <row r="111">
       <c r="A111" t="n">
@@ -4004,6 +4336,9 @@
       <c r="J111" t="n">
         <v>0.3679225126415496</v>
       </c>
+      <c r="K111" t="n">
+        <v>26.0332156569508</v>
+      </c>
     </row>
     <row r="112">
       <c r="A112" t="n">
@@ -4036,6 +4371,9 @@
       <c r="J112" t="n">
         <v>0.5832205683355886</v>
       </c>
+      <c r="K112" t="n">
+        <v>36.2382818008986</v>
+      </c>
     </row>
     <row r="113">
       <c r="A113" t="n">
@@ -4068,6 +4406,9 @@
       <c r="J113" t="n">
         <v>0.4165301616693967</v>
       </c>
+      <c r="K113" t="n">
+        <v>36.009564199868</v>
+      </c>
     </row>
     <row r="114">
       <c r="A114" t="n">
@@ -4100,6 +4441,9 @@
       <c r="J114" t="n">
         <v>0.4862545402749091</v>
       </c>
+      <c r="K114" t="n">
+        <v>9.80101302733029</v>
+      </c>
     </row>
     <row r="115">
       <c r="A115" t="n">
@@ -4132,6 +4476,9 @@
       <c r="J115" t="n">
         <v>0.4862545402749091</v>
       </c>
+      <c r="K115" t="n">
+        <v>74.438128745423</v>
+      </c>
     </row>
     <row r="116">
       <c r="A116" t="n">
@@ -4164,6 +4511,9 @@
       <c r="J116" t="n">
         <v>0.3689908126201837</v>
       </c>
+      <c r="K116" t="n">
+        <v>49.0813727435865</v>
+      </c>
     </row>
     <row r="117">
       <c r="A117" t="n">
@@ -4196,6 +4546,9 @@
       <c r="J117" t="n">
         <v>0.4454098710918026</v>
       </c>
+      <c r="K117" t="n">
+        <v>10.2897311739198</v>
+      </c>
     </row>
     <row r="118">
       <c r="A118" t="n">
@@ -4228,6 +4581,9 @@
       <c r="J118" t="n">
         <v>0.1316501673669974</v>
       </c>
+      <c r="K118" t="n">
+        <v>56.6335988129101</v>
+      </c>
     </row>
     <row r="119">
       <c r="A119" t="n">
@@ -4260,6 +4616,9 @@
       <c r="J119" t="n">
         <v>0.4454098710918026</v>
       </c>
+      <c r="K119" t="n">
+        <v>76.1218883798651</v>
+      </c>
     </row>
     <row r="120">
       <c r="A120" t="n">
@@ -4292,6 +4651,9 @@
       <c r="J120" t="n">
         <v>0.3689908126201837</v>
       </c>
+      <c r="K120" t="n">
+        <v>156.089093930429</v>
+      </c>
     </row>
     <row r="121">
       <c r="A121" t="n">
@@ -4324,6 +4686,9 @@
       <c r="J121" t="n">
         <v>0.1316501673669974</v>
       </c>
+      <c r="K121" t="n">
+        <v>164.836361487605</v>
+      </c>
     </row>
     <row r="122">
       <c r="A122" t="n">
@@ -4356,6 +4721,9 @@
       <c r="J122" t="n">
         <v>0.7779716544405665</v>
       </c>
+      <c r="K122" t="n">
+        <v>51.615583878873</v>
+      </c>
     </row>
     <row r="123">
       <c r="A123" t="n">
@@ -4388,6 +4756,9 @@
       <c r="J123" t="n">
         <v>0.7779716544405665</v>
       </c>
+      <c r="K123" t="n">
+        <v>23.8974878142541</v>
+      </c>
     </row>
     <row r="124">
       <c r="A124" t="n">
@@ -4420,6 +4791,9 @@
       <c r="J124" t="n">
         <v>0.6515917669681645</v>
       </c>
+      <c r="K124" t="n">
+        <v>62.3343133102433</v>
+      </c>
     </row>
     <row r="125">
       <c r="A125" t="n">
@@ -4452,6 +4826,9 @@
       <c r="J125" t="n">
         <v>0.5958265080834697</v>
       </c>
+      <c r="K125" t="n">
+        <v>45.692932163709</v>
+      </c>
     </row>
     <row r="126">
       <c r="A126" t="n">
@@ -4484,6 +4861,9 @@
       <c r="J126" t="n">
         <v>0.5555515988889679</v>
       </c>
+      <c r="K126" t="n">
+        <v>59.1427601640148</v>
+      </c>
     </row>
     <row r="127">
       <c r="A127" t="n">
@@ -4516,6 +4896,9 @@
       <c r="J127" t="n">
         <v>0.5958265080834697</v>
       </c>
+      <c r="K127" t="n">
+        <v>17.1907969920363</v>
+      </c>
     </row>
     <row r="128">
       <c r="A128" t="n">
@@ -4548,6 +4931,9 @@
       <c r="J128" t="n">
         <v>0.6515917669681645</v>
       </c>
+      <c r="K128" t="n">
+        <v>16.0493227143745</v>
+      </c>
     </row>
     <row r="129">
       <c r="A129" t="n">
@@ -4580,6 +4966,9 @@
       <c r="J129" t="n">
         <v>0.5555515988889679</v>
       </c>
+      <c r="K129" t="n">
+        <v>12.0737304610921</v>
+      </c>
     </row>
     <row r="130">
       <c r="A130" t="n">
@@ -4612,6 +5001,9 @@
       <c r="J130" t="n">
         <v>0.4489352610212947</v>
       </c>
+      <c r="K130" t="n">
+        <v>55.029334211754</v>
+      </c>
     </row>
     <row r="131">
       <c r="A131" t="n">
@@ -4644,6 +5036,9 @@
       <c r="J131" t="n">
         <v>0.4489352610212947</v>
       </c>
+      <c r="K131" t="n">
+        <v>13.7325223778059</v>
+      </c>
     </row>
     <row r="132">
       <c r="A132" t="n">
@@ -4676,6 +5071,9 @@
       <c r="J132" t="n">
         <v>0.2707072145858556</v>
       </c>
+      <c r="K132" t="n">
+        <v>38.8996473718052</v>
+      </c>
     </row>
     <row r="133">
       <c r="A133" t="n">
@@ -4708,6 +5106,9 @@
       <c r="J133" t="n">
         <v>0.4761769104764617</v>
       </c>
+      <c r="K133" t="n">
+        <v>54.4883577889116</v>
+      </c>
     </row>
     <row r="134">
       <c r="A134" t="n">
@@ -4740,6 +5141,9 @@
       <c r="J134" t="n">
         <v>0.3766469624670608</v>
       </c>
+      <c r="K134" t="n">
+        <v>35.8625055902583</v>
+      </c>
     </row>
     <row r="135">
       <c r="A135" t="n">
@@ -4772,6 +5176,9 @@
       <c r="J135" t="n">
         <v>0.4761769104764617</v>
       </c>
+      <c r="K135" t="n">
+        <v>13.3296082053328</v>
+      </c>
     </row>
     <row r="136">
       <c r="A136" t="n">
@@ -4804,6 +5211,9 @@
       <c r="J136" t="n">
         <v>0.2707072145858556</v>
       </c>
+      <c r="K136" t="n">
+        <v>47.5906285066071</v>
+      </c>
     </row>
     <row r="137">
       <c r="A137" t="n">
@@ -4836,6 +5246,9 @@
       <c r="J137" t="n">
         <v>0.3766469624670608</v>
       </c>
+      <c r="K137" t="n">
+        <v>44.6915489754296</v>
+      </c>
     </row>
     <row r="138">
       <c r="A138" t="n">
@@ -4868,6 +5281,9 @@
       <c r="J138" t="n">
         <v>0.6677230966455376</v>
       </c>
+      <c r="K138" t="n">
+        <v>47.9256690391035</v>
+      </c>
     </row>
     <row r="139">
       <c r="A139" t="n">
@@ -4900,6 +5316,9 @@
       <c r="J139" t="n">
         <v>0.6677230966455376</v>
       </c>
+      <c r="K139" t="n">
+        <v>39.673903760734</v>
+      </c>
     </row>
     <row r="140">
       <c r="A140" t="n">
@@ -4932,6 +5351,9 @@
       <c r="J140" t="n">
         <v>0.5533081689338365</v>
       </c>
+      <c r="K140" t="n">
+        <v>16.313746788379</v>
+      </c>
     </row>
     <row r="141">
       <c r="A141" t="n">
@@ -4964,6 +5386,9 @@
       <c r="J141" t="n">
         <v>0.7724521045509576</v>
       </c>
+      <c r="K141" t="n">
+        <v>52.181195479105</v>
+      </c>
     </row>
     <row r="142">
       <c r="A142" t="n">
@@ -4996,6 +5421,9 @@
       <c r="J142" t="n">
         <v>0.5817605583647887</v>
       </c>
+      <c r="K142" t="n">
+        <v>17.8273315882035</v>
+      </c>
     </row>
     <row r="143">
       <c r="A143" t="n">
@@ -5028,6 +5456,9 @@
       <c r="J143" t="n">
         <v>0.7724521045509576</v>
       </c>
+      <c r="K143" t="n">
+        <v>43.6849165605203</v>
+      </c>
     </row>
     <row r="144">
       <c r="A144" t="n">
@@ -5060,6 +5491,9 @@
       <c r="J144" t="n">
         <v>0.5533081689338365</v>
       </c>
+      <c r="K144" t="n">
+        <v>58.0497744787594</v>
+      </c>
     </row>
     <row r="145">
       <c r="A145" t="n">
@@ -5092,6 +5526,9 @@
       <c r="J145" t="n">
         <v>0.5817605583647887</v>
       </c>
+      <c r="K145" t="n">
+        <v>59.3188456383689</v>
+      </c>
     </row>
     <row r="146">
       <c r="A146" t="n">
@@ -5124,6 +5561,9 @@
       <c r="J146" t="n">
         <v>0.4853999002920019</v>
       </c>
+      <c r="K146" t="n">
+        <v>96.975496523869</v>
+      </c>
     </row>
     <row r="147">
       <c r="A147" t="n">
@@ -5156,6 +5596,9 @@
       <c r="J147" t="n">
         <v>0.4853999002920019</v>
       </c>
+      <c r="K147" t="n">
+        <v>94.1519384012918</v>
+      </c>
     </row>
     <row r="148">
       <c r="A148" t="n">
@@ -5188,6 +5631,9 @@
       <c r="J148" t="n">
         <v>0.4849369703012605</v>
       </c>
+      <c r="K148" t="n">
+        <v>97.845007139355</v>
+      </c>
     </row>
     <row r="149">
       <c r="A149" t="n">
@@ -5220,6 +5666,9 @@
       <c r="J149" t="n">
         <v>0.5513852289722954</v>
       </c>
+      <c r="K149" t="n">
+        <v>97.6974964018943</v>
+      </c>
     </row>
     <row r="150">
       <c r="A150" t="n">
@@ -5252,6 +5701,9 @@
       <c r="J150" t="n">
         <v>0.5521330389573391</v>
       </c>
+      <c r="K150" t="n">
+        <v>98.5695671869789</v>
+      </c>
     </row>
     <row r="151">
       <c r="A151" t="n">
@@ -5284,6 +5736,9 @@
       <c r="J151" t="n">
         <v>0.5513852289722954</v>
       </c>
+      <c r="K151" t="n">
+        <v>94.7975947805125</v>
+      </c>
     </row>
     <row r="152">
       <c r="A152" t="n">
@@ -5316,6 +5771,9 @@
       <c r="J152" t="n">
         <v>0.4849369703012605</v>
       </c>
+      <c r="K152" t="n">
+        <v>95.00924198552769</v>
+      </c>
     </row>
     <row r="153">
       <c r="A153" t="n">
@@ -5348,6 +5806,9 @@
       <c r="J153" t="n">
         <v>0.5521330389573391</v>
       </c>
+      <c r="K153" t="n">
+        <v>95.6574585343471</v>
+      </c>
     </row>
     <row r="154">
       <c r="A154" t="n">
@@ -5380,6 +5841,9 @@
       <c r="J154" t="n">
         <v>0.9959048500819031</v>
       </c>
+      <c r="K154" t="n">
+        <v>33.3903447895435</v>
+      </c>
     </row>
     <row r="155">
       <c r="A155" t="n">
@@ -5412,6 +5876,9 @@
       <c r="J155" t="n">
         <v>0.9959048500819031</v>
       </c>
+      <c r="K155" t="n">
+        <v>32.493091653153</v>
+      </c>
     </row>
     <row r="156">
       <c r="A156" t="n">
@@ -5444,6 +5911,9 @@
       <c r="J156" t="n">
         <v>1</v>
       </c>
+      <c r="K156" t="n">
+        <v>33.6014935457657</v>
+      </c>
     </row>
     <row r="157">
       <c r="A157" t="n">
@@ -5476,6 +5946,9 @@
       <c r="J157" t="n">
         <v>0.05911259881774921</v>
       </c>
+      <c r="K157" t="n">
+        <v>31.1627320064719</v>
+      </c>
     </row>
     <row r="158">
       <c r="A158" t="n">
@@ -5508,6 +5981,9 @@
       <c r="J158" t="n">
         <v>0.05530232889395463</v>
       </c>
+      <c r="K158" t="n">
+        <v>31.3571643611968</v>
+      </c>
     </row>
     <row r="159">
       <c r="A159" t="n">
@@ -5540,6 +6016,9 @@
       <c r="J159" t="n">
         <v>0.05911259881774921</v>
       </c>
+      <c r="K159" t="n">
+        <v>30.2371400970802</v>
+      </c>
     </row>
     <row r="160">
       <c r="A160" t="n">
@@ -5572,6 +6051,9 @@
       <c r="J160" t="n">
         <v>1</v>
       </c>
+      <c r="K160" t="n">
+        <v>32.6920333781251</v>
+      </c>
     </row>
     <row r="161">
       <c r="A161" t="n">
@@ -5604,6 +6086,9 @@
       <c r="J161" t="n">
         <v>0.05530232889395463</v>
       </c>
+      <c r="K161" t="n">
+        <v>30.4193654205552</v>
+      </c>
     </row>
     <row r="162">
       <c r="A162" t="n">
@@ -5636,6 +6121,9 @@
       <c r="J162" t="n">
         <v>0.536678299266434</v>
       </c>
+      <c r="K162" t="n">
+        <v>12.5727951947946</v>
+      </c>
     </row>
     <row r="163">
       <c r="A163" t="n">
@@ -5668,6 +6156,9 @@
       <c r="J163" t="n">
         <v>0.536678299266434</v>
       </c>
+      <c r="K163" t="n">
+        <v>12.2335113764918</v>
+      </c>
     </row>
     <row r="164">
       <c r="A164" t="n">
@@ -5700,6 +6191,9 @@
       <c r="J164" t="n">
         <v>0.5806566483868669</v>
       </c>
+      <c r="K164" t="n">
+        <v>31.1225143064961</v>
+      </c>
     </row>
     <row r="165">
       <c r="A165" t="n">
@@ -5732,6 +6226,9 @@
       <c r="J165" t="n">
         <v>0.495548750089025</v>
       </c>
+      <c r="K165" t="n">
+        <v>11.7804901080189</v>
+      </c>
     </row>
     <row r="166">
       <c r="A166" t="n">
@@ -5764,6 +6261,9 @@
       <c r="J166" t="n">
         <v>0.4700876005982481</v>
       </c>
+      <c r="K166" t="n">
+        <v>30.183375963326</v>
+      </c>
     </row>
     <row r="167">
       <c r="A167" t="n">
@@ -5796,6 +6296,9 @@
       <c r="J167" t="n">
         <v>0.495548750089025</v>
       </c>
+      <c r="K167" t="n">
+        <v>11.4516798245795</v>
+      </c>
     </row>
     <row r="168">
       <c r="A168" t="n">
@@ -5828,6 +6331,9 @@
       <c r="J168" t="n">
         <v>0.5806566483868669</v>
       </c>
+      <c r="K168" t="n">
+        <v>29.9897734569433</v>
+      </c>
     </row>
     <row r="169">
       <c r="A169" t="n">
@@ -5860,6 +6366,9 @@
       <c r="J169" t="n">
         <v>0.4700876005982481</v>
       </c>
+      <c r="K169" t="n">
+        <v>29.0611086486367</v>
+      </c>
     </row>
     <row r="170">
       <c r="A170" t="n">
@@ -5892,6 +6401,9 @@
       <c r="J170" t="n">
         <v>0.1127768677444638</v>
       </c>
+      <c r="K170" t="n">
+        <v>213.173498532648</v>
+      </c>
     </row>
     <row r="171">
       <c r="A171" t="n">
@@ -5924,6 +6436,9 @@
       <c r="J171" t="n">
         <v>0.1127768677444638</v>
       </c>
+      <c r="K171" t="n">
+        <v>209.092217702563</v>
+      </c>
     </row>
     <row r="172">
       <c r="A172" t="n">
@@ -5956,6 +6471,9 @@
       <c r="J172" t="n">
         <v>0.3573107328537857</v>
       </c>
+      <c r="K172" t="n">
+        <v>139.144655126897</v>
+      </c>
     </row>
     <row r="173">
       <c r="A173" t="n">
@@ -5988,6 +6506,9 @@
       <c r="J173" t="n">
         <v>0.9376825012463498</v>
       </c>
+      <c r="K173" t="n">
+        <v>214.017245254026</v>
+      </c>
     </row>
     <row r="174">
       <c r="A174" t="n">
@@ -6020,6 +6541,9 @@
       <c r="J174" t="n">
         <v>0.675201196495976</v>
       </c>
+      <c r="K174" t="n">
+        <v>138.916293179278</v>
+      </c>
     </row>
     <row r="175">
       <c r="A175" t="n">
@@ -6052,6 +6576,9 @@
       <c r="J175" t="n">
         <v>0.9376825012463498</v>
       </c>
+      <c r="K175" t="n">
+        <v>210.13721952945</v>
+      </c>
     </row>
     <row r="176">
       <c r="A176" t="n">
@@ -6084,6 +6611,9 @@
       <c r="J176" t="n">
         <v>0.3573107328537857</v>
       </c>
+      <c r="K176" t="n">
+        <v>135.832417265562</v>
+      </c>
     </row>
     <row r="177">
       <c r="A177" t="n">
@@ -6116,6 +6646,9 @@
       <c r="J177" t="n">
         <v>0.675201196495976</v>
       </c>
+      <c r="K177" t="n">
+        <v>135.805310423453</v>
+      </c>
     </row>
     <row r="178">
       <c r="A178" t="n">
@@ -6148,6 +6681,9 @@
       <c r="J178" t="n">
         <v>0.5298411794031763</v>
       </c>
+      <c r="K178" t="n">
+        <v>25.933591935983</v>
+      </c>
     </row>
     <row r="179">
       <c r="A179" t="n">
@@ -6180,6 +6716,9 @@
       <c r="J179" t="n">
         <v>0.5298411794031763</v>
       </c>
+      <c r="K179" t="n">
+        <v>31.5964424784561</v>
+      </c>
     </row>
     <row r="180">
       <c r="A180" t="n">
@@ -6212,6 +6751,9 @@
       <c r="J180" t="n">
         <v>0.5327968093440637</v>
       </c>
+      <c r="K180" t="n">
+        <v>26.6710413003773</v>
+      </c>
     </row>
     <row r="181">
       <c r="A181" t="n">
@@ -6244,6 +6786,9 @@
       <c r="J181" t="n">
         <v>0.5228972295420553</v>
       </c>
+      <c r="K181" t="n">
+        <v>27.7129483362319</v>
+      </c>
     </row>
     <row r="182">
       <c r="A182" t="n">
@@ -6276,6 +6821,9 @@
       <c r="J182" t="n">
         <v>0.5247845595043087</v>
       </c>
+      <c r="K182" t="n">
+        <v>28.4119951566461</v>
+      </c>
     </row>
     <row r="183">
       <c r="A183" t="n">
@@ -6308,6 +6856,9 @@
       <c r="J183" t="n">
         <v>0.5228972295420553</v>
       </c>
+      <c r="K183" t="n">
+        <v>31.7139392478989</v>
+      </c>
     </row>
     <row r="184">
       <c r="A184" t="n">
@@ -6340,6 +6891,9 @@
       <c r="J184" t="n">
         <v>0.5327968093440637</v>
       </c>
+      <c r="K184" t="n">
+        <v>31.5404348116004</v>
+      </c>
     </row>
     <row r="185">
       <c r="A185" t="n">
@@ -6372,6 +6926,9 @@
       <c r="J185" t="n">
         <v>0.5247845595043087</v>
       </c>
+      <c r="K185" t="n">
+        <v>31.6195290370631</v>
+      </c>
     </row>
     <row r="186">
       <c r="A186" t="n">
@@ -6404,6 +6961,9 @@
       <c r="J186" t="n">
         <v>0.3976568620468628</v>
       </c>
+      <c r="K186" t="n">
+        <v>22.7962772676684</v>
+      </c>
     </row>
     <row r="187">
       <c r="A187" t="n">
@@ -6436,6 +6996,9 @@
       <c r="J187" t="n">
         <v>0.3976568620468628</v>
       </c>
+      <c r="K187" t="n">
+        <v>67.0435459512336</v>
+      </c>
     </row>
     <row r="188">
       <c r="A188" t="n">
@@ -6468,6 +7031,9 @@
       <c r="J188" t="n">
         <v>0.3960544120789119</v>
       </c>
+      <c r="K188" t="n">
+        <v>22.70669477571</v>
+      </c>
     </row>
     <row r="189">
       <c r="A189" t="n">
@@ -6500,6 +7066,9 @@
       <c r="J189" t="n">
         <v>0.3223417135531667</v>
       </c>
+      <c r="K189" t="n">
+        <v>23.2898971804706</v>
+      </c>
     </row>
     <row r="190">
       <c r="A190" t="n">
@@ -6532,6 +7101,9 @@
       <c r="J190" t="n">
         <v>0.3196709636065816</v>
       </c>
+      <c r="K190" t="n">
+        <v>23.2341992861417</v>
+      </c>
     </row>
     <row r="191">
       <c r="A191" t="n">
@@ -6564,6 +7136,9 @@
       <c r="J191" t="n">
         <v>0.3223417135531667</v>
       </c>
+      <c r="K191" t="n">
+        <v>68.82084519551221</v>
+      </c>
     </row>
     <row r="192">
       <c r="A192" t="n">
@@ -6596,6 +7171,9 @@
       <c r="J192" t="n">
         <v>0.3960544120789119</v>
       </c>
+      <c r="K192" t="n">
+        <v>67.7230064280252</v>
+      </c>
     </row>
     <row r="193">
       <c r="A193" t="n">
@@ -6628,6 +7206,9 @@
       <c r="J193" t="n">
         <v>0.3196709636065816</v>
       </c>
+      <c r="K193" t="n">
+        <v>69.5341902699333</v>
+      </c>
     </row>
     <row r="194">
       <c r="A194" t="n">
@@ -6660,6 +7241,9 @@
       <c r="J194" t="n">
         <v>0.6597464568050702</v>
       </c>
+      <c r="K194" t="n">
+        <v>34.7668005546947</v>
+      </c>
     </row>
     <row r="195">
       <c r="A195" t="n">
@@ -6692,6 +7276,9 @@
       <c r="J195" t="n">
         <v>0.6597464568050702</v>
       </c>
+      <c r="K195" t="n">
+        <v>131.118257149053</v>
+      </c>
     </row>
     <row r="196">
       <c r="A196" t="n">
@@ -6724,6 +7311,9 @@
       <c r="J196" t="n">
         <v>0.5857844882843098</v>
       </c>
+      <c r="K196" t="n">
+        <v>39.8522456928142</v>
+      </c>
     </row>
     <row r="197">
       <c r="A197" t="n">
@@ -6756,6 +7346,9 @@
       <c r="J197" t="n">
         <v>0.2368777152624458</v>
       </c>
+      <c r="K197" t="n">
+        <v>40.3463562258274</v>
+      </c>
     </row>
     <row r="198">
       <c r="A198" t="n">
@@ -6788,6 +7381,9 @@
       <c r="J198" t="n">
         <v>0.3726586425468272</v>
       </c>
+      <c r="K198" t="n">
+        <v>42.3272192300288</v>
+      </c>
     </row>
     <row r="199">
       <c r="A199" t="n">
@@ -6820,6 +7416,9 @@
       <c r="J199" t="n">
         <v>0.2368777152624458</v>
       </c>
+      <c r="K199" t="n">
+        <v>136.587276437817</v>
+      </c>
     </row>
     <row r="200">
       <c r="A200" t="n">
@@ -6852,6 +7451,9 @@
       <c r="J200" t="n">
         <v>0.5857844882843098</v>
       </c>
+      <c r="K200" t="n">
+        <v>100.253995255922</v>
+      </c>
     </row>
     <row r="201">
       <c r="A201" t="n">
@@ -6884,6 +7486,9 @@
       <c r="J201" t="n">
         <v>0.3726586425468272</v>
       </c>
+      <c r="K201" t="n">
+        <v>102.618432410769</v>
+      </c>
     </row>
     <row r="202">
       <c r="A202" t="n">
@@ -6916,6 +7521,9 @@
       <c r="J202" t="n">
         <v>0.2358450252831005</v>
       </c>
+      <c r="K202" t="n">
+        <v>87.7617659640833</v>
+      </c>
     </row>
     <row r="203">
       <c r="A203" t="n">
@@ -6948,6 +7556,9 @@
       <c r="J203" t="n">
         <v>0.2358450252831005</v>
       </c>
+      <c r="K203" t="n">
+        <v>27.5351642418443</v>
+      </c>
     </row>
     <row r="204">
       <c r="A204" t="n">
@@ -6980,6 +7591,9 @@
       <c r="J204" t="n">
         <v>0.3031835339363301</v>
       </c>
+      <c r="K204" t="n">
+        <v>68.8525512411924</v>
+      </c>
     </row>
     <row r="205">
       <c r="A205" t="n">
@@ -7012,6 +7626,9 @@
       <c r="J205" t="n">
         <v>0.5331529093369417</v>
       </c>
+      <c r="K205" t="n">
+        <v>85.08511967726309</v>
+      </c>
     </row>
     <row r="206">
       <c r="A206" t="n">
@@ -7044,6 +7661,9 @@
       <c r="J206" t="n">
         <v>0.5276333594473327</v>
       </c>
+      <c r="K206" t="n">
+        <v>67.2543387482596</v>
+      </c>
     </row>
     <row r="207">
       <c r="A207" t="n">
@@ -7076,6 +7696,9 @@
       <c r="J207" t="n">
         <v>0.5331529093369417</v>
       </c>
+      <c r="K207" t="n">
+        <v>26.1297944902275</v>
+      </c>
     </row>
     <row r="208">
       <c r="A208" t="n">
@@ -7108,6 +7731,9 @@
       <c r="J208" t="n">
         <v>0.3031835339363301</v>
       </c>
+      <c r="K208" t="n">
+        <v>21.1137424877033</v>
+      </c>
     </row>
     <row r="209">
       <c r="A209" t="n">
@@ -7140,6 +7766,9 @@
       <c r="J209" t="n">
         <v>0.5276333594473327</v>
       </c>
+      <c r="K209" t="n">
+        <v>20.7868065299739</v>
+      </c>
     </row>
     <row r="210">
       <c r="A210" t="n">
@@ -7172,6 +7801,9 @@
       <c r="J210" t="n">
         <v>0.513887899722242</v>
       </c>
+      <c r="K210" t="n">
+        <v>100.221851109418</v>
+      </c>
     </row>
     <row r="211">
       <c r="A211" t="n">
@@ -7204,6 +7836,9 @@
       <c r="J211" t="n">
         <v>0.513887899722242</v>
       </c>
+      <c r="K211" t="n">
+        <v>28.4721704984081</v>
+      </c>
     </row>
     <row r="212">
       <c r="A212" t="n">
@@ -7236,6 +7871,9 @@
       <c r="J212" t="n">
         <v>0.5242504095149918</v>
       </c>
+      <c r="K212" t="n">
+        <v>193.890956796218</v>
+      </c>
     </row>
     <row r="213">
       <c r="A213" t="n">
@@ -7268,6 +7906,9 @@
       <c r="J213" t="n">
         <v>0.585570828288583</v>
       </c>
+      <c r="K213" t="n">
+        <v>101.668923760394</v>
+      </c>
     </row>
     <row r="214">
       <c r="A214" t="n">
@@ -7300,6 +7941,9 @@
       <c r="J214" t="n">
         <v>0.8239085535218276</v>
       </c>
+      <c r="K214" t="n">
+        <v>199.676613327672</v>
+      </c>
     </row>
     <row r="215">
       <c r="A215" t="n">
@@ -7332,6 +7976,9 @@
       <c r="J215" t="n">
         <v>0.585570828288583</v>
       </c>
+      <c r="K215" t="n">
+        <v>30.4364263712898</v>
+      </c>
     </row>
     <row r="216">
       <c r="A216" t="n">
@@ -7364,6 +8011,9 @@
       <c r="J216" t="n">
         <v>0.5242504095149918</v>
       </c>
+      <c r="K216" t="n">
+        <v>83.0665691539583</v>
+      </c>
     </row>
     <row r="217">
       <c r="A217" t="n">
@@ -7396,6 +8046,9 @@
       <c r="J217" t="n">
         <v>0.8239085535218276</v>
       </c>
+      <c r="K217" t="n">
+        <v>89.36940890731761</v>
+      </c>
     </row>
     <row r="218">
       <c r="A218" t="n">
@@ -7428,6 +8081,9 @@
       <c r="J218" t="n">
         <v>0.08998646820027087</v>
       </c>
+      <c r="K218" t="n">
+        <v>34.2503904257836</v>
+      </c>
     </row>
     <row r="219">
       <c r="A219" t="n">
@@ -7460,6 +8116,9 @@
       <c r="J219" t="n">
         <v>0.08998646820027087</v>
       </c>
+      <c r="K219" t="n">
+        <v>38.9542522999712</v>
+      </c>
     </row>
     <row r="220">
       <c r="A220" t="n">
@@ -7492,6 +8151,9 @@
       <c r="J220" t="n">
         <v>0.2279752154404958</v>
       </c>
+      <c r="K220" t="n">
+        <v>23.9771535485543</v>
+      </c>
     </row>
     <row r="221">
       <c r="A221" t="n">
@@ -7524,6 +8186,9 @@
       <c r="J221" t="n">
         <v>0.3120860337582799</v>
       </c>
+      <c r="K221" t="n">
+        <v>21.4934411269061</v>
+      </c>
     </row>
     <row r="222">
       <c r="A222" t="n">
@@ -7556,6 +8221,9 @@
       <c r="J222" t="n">
         <v>0.377216722455666</v>
       </c>
+      <c r="K222" t="n">
+        <v>14.7636295724494</v>
+      </c>
     </row>
     <row r="223">
       <c r="A223" t="n">
@@ -7588,6 +8256,9 @@
       <c r="J223" t="n">
         <v>0.3120860337582799</v>
       </c>
+      <c r="K223" t="n">
+        <v>26.7384197038448</v>
+      </c>
     </row>
     <row r="224">
       <c r="A224" t="n">
@@ -7620,6 +8291,9 @@
       <c r="J224" t="n">
         <v>0.2279752154404958</v>
       </c>
+      <c r="K224" t="n">
+        <v>41.1688083914918</v>
+      </c>
     </row>
     <row r="225">
       <c r="A225" t="n">
@@ -7652,6 +8326,9 @@
       <c r="J225" t="n">
         <v>0.377216722455666</v>
       </c>
+      <c r="K225" t="n">
+        <v>32.4964011181381</v>
+      </c>
     </row>
     <row r="226">
       <c r="A226" t="n">
@@ -7684,6 +8361,9 @@
       <c r="J226" t="n">
         <v>0.4956555800868884</v>
       </c>
+      <c r="K226" t="n">
+        <v>15.4659225999861</v>
+      </c>
     </row>
     <row r="227">
       <c r="A227" t="n">
@@ -7716,6 +8396,9 @@
       <c r="J227" t="n">
         <v>0.4956555800868884</v>
       </c>
+      <c r="K227" t="n">
+        <v>80.8378557147056</v>
+      </c>
     </row>
     <row r="228">
       <c r="A228" t="n">
@@ -7748,6 +8431,9 @@
       <c r="J228" t="n">
         <v>0.4615768107684637</v>
       </c>
+      <c r="K228" t="n">
+        <v>15.3645957824196</v>
+      </c>
     </row>
     <row r="229">
       <c r="A229" t="n">
@@ -7780,6 +8466,9 @@
       <c r="J229" t="n">
         <v>0.4636421907271562</v>
       </c>
+      <c r="K229" t="n">
+        <v>16.3429019339695</v>
+      </c>
     </row>
     <row r="230">
       <c r="A230" t="n">
@@ -7812,6 +8501,9 @@
       <c r="J230" t="n">
         <v>0.3567053628658929</v>
       </c>
+      <c r="K230" t="n">
+        <v>18.5525046747331</v>
+      </c>
     </row>
     <row r="231">
       <c r="A231" t="n">
@@ -7844,6 +8536,9 @@
       <c r="J231" t="n">
         <v>0.4636421907271562</v>
       </c>
+      <c r="K231" t="n">
+        <v>80.436109031396</v>
+      </c>
     </row>
     <row r="232">
       <c r="A232" t="n">
@@ -7876,6 +8571,9 @@
       <c r="J232" t="n">
         <v>0.4615768107684637</v>
       </c>
+      <c r="K232" t="n">
+        <v>67.4430718658891</v>
+      </c>
     </row>
     <row r="233">
       <c r="A233" t="n">
@@ -7908,6 +8606,9 @@
       <c r="J233" t="n">
         <v>0.3567053628658929</v>
       </c>
+      <c r="K233" t="n">
+        <v>69.3522547409095</v>
+      </c>
     </row>
     <row r="234">
       <c r="A234" t="n">
@@ -7940,6 +8641,9 @@
       <c r="J234" t="n">
         <v>0.7873726942525455</v>
       </c>
+      <c r="K234" t="n">
+        <v>102.592910412112</v>
+      </c>
     </row>
     <row r="235">
       <c r="A235" t="n">
@@ -7972,6 +8676,9 @@
       <c r="J235" t="n">
         <v>0.7873726942525455</v>
       </c>
+      <c r="K235" t="n">
+        <v>37.0953902705675</v>
+      </c>
     </row>
     <row r="236">
       <c r="A236" t="n">
@@ -8004,6 +8711,9 @@
       <c r="J236" t="n">
         <v>0.9037105619257878</v>
       </c>
+      <c r="K236" t="n">
+        <v>131.055888546513</v>
+      </c>
     </row>
     <row r="237">
       <c r="A237" t="n">
@@ -8036,6 +8746,9 @@
       <c r="J237" t="n">
         <v>0.6140588277188234</v>
       </c>
+      <c r="K237" t="n">
+        <v>97.1695615147455</v>
+      </c>
     </row>
     <row r="238">
       <c r="A238" t="n">
@@ -8068,6 +8781,9 @@
       <c r="J238" t="n">
         <v>0.6575386368492271</v>
       </c>
+      <c r="K238" t="n">
+        <v>123.013486149705</v>
+      </c>
     </row>
     <row r="239">
       <c r="A239" t="n">
@@ -8100,6 +8816,9 @@
       <c r="J239" t="n">
         <v>0.6140588277188234</v>
       </c>
+      <c r="K239" t="n">
+        <v>31.9406104266782</v>
+      </c>
     </row>
     <row r="240">
       <c r="A240" t="n">
@@ -8132,6 +8851,9 @@
       <c r="J240" t="n">
         <v>0.9037105619257878</v>
       </c>
+      <c r="K240" t="n">
+        <v>52.2649113737183</v>
+      </c>
     </row>
     <row r="241">
       <c r="A241" t="n">
@@ -8164,6 +8886,9 @@
       <c r="J241" t="n">
         <v>0.6575386368492271</v>
       </c>
+      <c r="K241" t="n">
+        <v>44.4910780303883</v>
+      </c>
     </row>
     <row r="242">
       <c r="A242" t="n">
@@ -8196,6 +8921,9 @@
       <c r="J242" t="n">
         <v>0.3566341428673174</v>
       </c>
+      <c r="K242" t="n">
+        <v>21.0390637531039</v>
+      </c>
     </row>
     <row r="243">
       <c r="A243" t="n">
@@ -8228,6 +8956,9 @@
       <c r="J243" t="n">
         <v>0.3566341428673174</v>
       </c>
+      <c r="K243" t="n">
+        <v>19.4853889405295</v>
+      </c>
     </row>
     <row r="244">
       <c r="A244" t="n">
@@ -8260,6 +8991,9 @@
       <c r="J244" t="n">
         <v>0.2473470550530593</v>
       </c>
+      <c r="K244" t="n">
+        <v>36.2535955365376</v>
+      </c>
     </row>
     <row r="245">
       <c r="A245" t="n">
@@ -8292,6 +9026,9 @@
       <c r="J245" t="n">
         <v>0.6778719464425605</v>
       </c>
+      <c r="K245" t="n">
+        <v>22.9409096130502</v>
+      </c>
     </row>
     <row r="246">
       <c r="A246" t="n">
@@ -8324,6 +9061,9 @@
       <c r="J246" t="n">
         <v>0.7965600740687977</v>
       </c>
+      <c r="K246" t="n">
+        <v>38.6375062720925</v>
+      </c>
     </row>
     <row r="247">
       <c r="A247" t="n">
@@ -8356,6 +9096,9 @@
       <c r="J247" t="n">
         <v>0.6778719464425605</v>
       </c>
+      <c r="K247" t="n">
+        <v>22.1273576527666</v>
+      </c>
     </row>
     <row r="248">
       <c r="A248" t="n">
@@ -8388,6 +9131,9 @@
       <c r="J248" t="n">
         <v>0.2473470550530593</v>
       </c>
+      <c r="K248" t="n">
+        <v>21.4064636927132</v>
+      </c>
     </row>
     <row r="249">
       <c r="A249" t="n">
@@ -8420,6 +9166,9 @@
       <c r="J249" t="n">
         <v>0.7965600740687977</v>
       </c>
+      <c r="K249" t="n">
+        <v>24.5304972805589</v>
+      </c>
     </row>
     <row r="250">
       <c r="A250" t="n">
@@ -8452,6 +9201,9 @@
       <c r="J250" t="n">
         <v>0.6483512570329747</v>
       </c>
+      <c r="K250" t="n">
+        <v>41.2061843559675</v>
+      </c>
     </row>
     <row r="251">
       <c r="A251" t="n">
@@ -8484,6 +9236,9 @@
       <c r="J251" t="n">
         <v>0.6483512570329747</v>
       </c>
+      <c r="K251" t="n">
+        <v>118.50786514192</v>
+      </c>
     </row>
     <row r="252">
       <c r="A252" t="n">
@@ -8516,6 +9271,9 @@
       <c r="J252" t="n">
         <v>0.5299480094010397</v>
       </c>
+      <c r="K252" t="n">
+        <v>78.26389384752871</v>
+      </c>
     </row>
     <row r="253">
       <c r="A253" t="n">
@@ -8548,6 +9306,9 @@
       <c r="J253" t="n">
         <v>0.4043871519122569</v>
       </c>
+      <c r="K253" t="n">
+        <v>40.2905499636375</v>
+      </c>
     </row>
     <row r="254">
       <c r="A254" t="n">
@@ -8580,6 +9341,9 @@
       <c r="J254" t="n">
         <v>0.4957268000854639</v>
       </c>
+      <c r="K254" t="n">
+        <v>77.7917711886155</v>
+      </c>
     </row>
     <row r="255">
       <c r="A255" t="n">
@@ -8612,6 +9376,9 @@
       <c r="J255" t="n">
         <v>0.4043871519122569</v>
       </c>
+      <c r="K255" t="n">
+        <v>115.630436271579</v>
+      </c>
     </row>
     <row r="256">
       <c r="A256" t="n">
@@ -8644,6 +9411,9 @@
       <c r="J256" t="n">
         <v>0.5299480094010397</v>
       </c>
+      <c r="K256" t="n">
+        <v>45.3971176022318</v>
+      </c>
     </row>
     <row r="257">
       <c r="A257" t="n">
@@ -8676,6 +9446,9 @@
       <c r="J257" t="n">
         <v>0.4957268000854639</v>
       </c>
+      <c r="K257" t="n">
+        <v>42.9632004653075</v>
+      </c>
     </row>
     <row r="258">
       <c r="A258" t="n">
@@ -8708,6 +9481,9 @@
       <c r="J258" t="n">
         <v>0.5490705790185884</v>
       </c>
+      <c r="K258" t="n">
+        <v>75.31741154877029</v>
+      </c>
     </row>
     <row r="259">
       <c r="A259" t="n">
@@ -8740,6 +9516,9 @@
       <c r="J259" t="n">
         <v>0.5490705790185884</v>
       </c>
+      <c r="K259" t="n">
+        <v>29.1895334023277</v>
+      </c>
     </row>
     <row r="260">
       <c r="A260" t="n">
@@ -8772,6 +9551,9 @@
       <c r="J260" t="n">
         <v>0.9515704009685916</v>
       </c>
+      <c r="K260" t="n">
+        <v>55.258159377521</v>
+      </c>
     </row>
     <row r="261">
       <c r="A261" t="n">
@@ -8804,6 +9586,9 @@
       <c r="J261" t="n">
         <v>0.4915604301687914</v>
       </c>
+      <c r="K261" t="n">
+        <v>74.5151286899366</v>
+      </c>
     </row>
     <row r="262">
       <c r="A262" t="n">
@@ -8836,6 +9621,9 @@
       <c r="J262" t="n">
         <v>0.2918951641620975</v>
       </c>
+      <c r="K262" t="n">
+        <v>44.2694134802095</v>
+      </c>
     </row>
     <row r="263">
       <c r="A263" t="n">
@@ -8868,6 +9656,9 @@
       <c r="J263" t="n">
         <v>0.4915604301687914</v>
       </c>
+      <c r="K263" t="n">
+        <v>28.3162624859584</v>
+      </c>
     </row>
     <row r="264">
       <c r="A264" t="n">
@@ -8900,6 +9691,9 @@
       <c r="J264" t="n">
         <v>0.9515704009685916</v>
       </c>
+      <c r="K264" t="n">
+        <v>103.649324199828</v>
+      </c>
     </row>
     <row r="265">
       <c r="A265" t="n">
@@ -8932,6 +9726,9 @@
       <c r="J265" t="n">
         <v>0.2918951641620975</v>
       </c>
+      <c r="K265" t="n">
+        <v>92.5895902449813</v>
+      </c>
     </row>
     <row r="266">
       <c r="A266" t="n">
@@ -8964,6 +9761,9 @@
       <c r="J266" t="n">
         <v>0.5080478598390428</v>
       </c>
+      <c r="K266" t="n">
+        <v>31.6428418256083</v>
+      </c>
     </row>
     <row r="267">
       <c r="A267" t="n">
@@ -8996,6 +9796,9 @@
       <c r="J267" t="n">
         <v>0.5080478598390428</v>
       </c>
+      <c r="K267" t="n">
+        <v>21.3750046209628</v>
+      </c>
     </row>
     <row r="268">
       <c r="A268" t="n">
@@ -9028,6 +9831,9 @@
       <c r="J268" t="n">
         <v>0.509436649811267</v>
       </c>
+      <c r="K268" t="n">
+        <v>15.8844181018423</v>
+      </c>
     </row>
     <row r="269">
       <c r="A269" t="n">
@@ -9060,6 +9866,9 @@
       <c r="J269" t="n">
         <v>0.6784417064311651</v>
       </c>
+      <c r="K269" t="n">
+        <v>34.2556263616532</v>
+      </c>
     </row>
     <row r="270">
       <c r="A270" t="n">
@@ -9092,6 +9901,9 @@
       <c r="J270" t="n">
         <v>0.5881703582365925</v>
       </c>
+      <c r="K270" t="n">
+        <v>16.9466434503625</v>
+      </c>
     </row>
     <row r="271">
       <c r="A271" t="n">
@@ -9124,6 +9936,9 @@
       <c r="J271" t="n">
         <v>0.6784417064311651</v>
       </c>
+      <c r="K271" t="n">
+        <v>23.8134733826672</v>
+      </c>
     </row>
     <row r="272">
       <c r="A272" t="n">
@@ -9156,6 +9971,9 @@
       <c r="J272" t="n">
         <v>0.509436649811267</v>
       </c>
+      <c r="K272" t="n">
+        <v>25.1356238659468</v>
+      </c>
     </row>
     <row r="273">
       <c r="A273" t="n">
@@ -9188,6 +10006,9 @@
       <c r="J273" t="n">
         <v>0.5881703582365925</v>
       </c>
+      <c r="K273" t="n">
+        <v>26.0235334401266</v>
+      </c>
     </row>
     <row r="274">
       <c r="A274" t="n">
@@ -9220,6 +10041,9 @@
       <c r="J274" t="n">
         <v>0.6014884979702296</v>
       </c>
+      <c r="K274" t="n">
+        <v>71.79619063109919</v>
+      </c>
     </row>
     <row r="275">
       <c r="A275" t="n">
@@ -9252,6 +10076,9 @@
       <c r="J275" t="n">
         <v>0.6014884979702296</v>
       </c>
+      <c r="K275" t="n">
+        <v>140.614534387843</v>
+      </c>
     </row>
     <row r="276">
       <c r="A276" t="n">
@@ -9284,6 +10111,9 @@
       <c r="J276" t="n">
         <v>0.5139947297201053</v>
       </c>
+      <c r="K276" t="n">
+        <v>39.3468060039009</v>
+      </c>
     </row>
     <row r="277">
       <c r="A277" t="n">
@@ -9316,6 +10146,9 @@
       <c r="J277" t="n">
         <v>0.5120717897585642</v>
       </c>
+      <c r="K277" t="n">
+        <v>71.28996042377349</v>
+      </c>
     </row>
     <row r="278">
       <c r="A278" t="n">
@@ -9348,6 +10181,9 @@
       <c r="J278" t="n">
         <v>0.5106829997863399</v>
       </c>
+      <c r="K278" t="n">
+        <v>40.2971617000075</v>
+      </c>
     </row>
     <row r="279">
       <c r="A279" t="n">
@@ -9380,6 +10216,9 @@
       <c r="J279" t="n">
         <v>0.5120717897585642</v>
       </c>
+      <c r="K279" t="n">
+        <v>139.919064844568</v>
+      </c>
     </row>
     <row r="280">
       <c r="A280" t="n">
@@ -9412,6 +10251,9 @@
       <c r="J280" t="n">
         <v>0.5139947297201053</v>
       </c>
+      <c r="K280" t="n">
+        <v>97.2154427293957</v>
+      </c>
     </row>
     <row r="281">
       <c r="A281" t="n">
@@ -9444,6 +10286,9 @@
       <c r="J281" t="n">
         <v>0.5106829997863399</v>
       </c>
+      <c r="K281" t="n">
+        <v>97.97655908955289</v>
+      </c>
     </row>
     <row r="282">
       <c r="A282" t="n">
@@ -9476,6 +10321,9 @@
       <c r="J282" t="n">
         <v>0.2687486646250277</v>
       </c>
+      <c r="K282" t="n">
+        <v>20.1982751818865</v>
+      </c>
     </row>
     <row r="283">
       <c r="A283" t="n">
@@ -9508,6 +10356,9 @@
       <c r="J283" t="n">
         <v>0.2687486646250277</v>
       </c>
+      <c r="K283" t="n">
+        <v>34.8846248355306</v>
+      </c>
     </row>
     <row r="284">
       <c r="A284" t="n">
@@ -9540,6 +10391,9 @@
       <c r="J284" t="n">
         <v>0.3590200128196003</v>
       </c>
+      <c r="K284" t="n">
+        <v>18.1236672705958</v>
+      </c>
     </row>
     <row r="285">
       <c r="A285" t="n">
@@ -9572,6 +10426,9 @@
       <c r="J285" t="n">
         <v>0.03803147923937077</v>
       </c>
+      <c r="K285" t="n">
+        <v>32.7033081534968</v>
+      </c>
     </row>
     <row r="286">
       <c r="A286" t="n">
@@ -9604,6 +10461,9 @@
       <c r="J286" t="n">
         <v>0.2144078057118441</v>
       </c>
+      <c r="K286" t="n">
+        <v>26.2589425319094</v>
+      </c>
     </row>
     <row r="287">
       <c r="A287" t="n">
@@ -9636,6 +10496,9 @@
       <c r="J287" t="n">
         <v>0.03803147923937077</v>
       </c>
+      <c r="K287" t="n">
+        <v>47.3823870238423</v>
+      </c>
     </row>
     <row r="288">
       <c r="A288" t="n">
@@ -9668,6 +10531,9 @@
       <c r="J288" t="n">
         <v>0.3590200128196003</v>
       </c>
+      <c r="K288" t="n">
+        <v>21.8603098929899</v>
+      </c>
     </row>
     <row r="289">
       <c r="A289" t="n">
@@ -9700,6 +10566,9 @@
       <c r="J289" t="n">
         <v>0.2144078057118441</v>
       </c>
+      <c r="K289" t="n">
+        <v>29.9883143710049</v>
+      </c>
     </row>
     <row r="290">
       <c r="A290" t="n">
@@ -9732,6 +10601,9 @@
       <c r="J290" t="n">
         <v>0.4442347411153051</v>
       </c>
+      <c r="K290" t="n">
+        <v>13.8877351738303</v>
+      </c>
     </row>
     <row r="291">
       <c r="A291" t="n">
@@ -9764,6 +10636,9 @@
       <c r="J291" t="n">
         <v>0.4442347411153051</v>
       </c>
+      <c r="K291" t="n">
+        <v>12.3179277219477</v>
+      </c>
     </row>
     <row r="292">
       <c r="A292" t="n">
@@ -9796,6 +10671,9 @@
       <c r="J292" t="n">
         <v>0.4148564917028701</v>
       </c>
+      <c r="K292" t="n">
+        <v>19.3624933027782</v>
+      </c>
     </row>
     <row r="293">
       <c r="A293" t="n">
@@ -9828,6 +10706,9 @@
       <c r="J293" t="n">
         <v>0.4482586710348265</v>
       </c>
+      <c r="K293" t="n">
+        <v>13.910687350743</v>
+      </c>
     </row>
     <row r="294">
       <c r="A294" t="n">
@@ -9860,6 +10741,9 @@
       <c r="J294" t="n">
         <v>0.4206609215867815</v>
       </c>
+      <c r="K294" t="n">
+        <v>19.3553258373536</v>
+      </c>
     </row>
     <row r="295">
       <c r="A295" t="n">
@@ -9892,6 +10776,9 @@
       <c r="J295" t="n">
         <v>0.4482586710348265</v>
       </c>
+      <c r="K295" t="n">
+        <v>12.3969887329835</v>
+      </c>
     </row>
     <row r="296">
       <c r="A296" t="n">
@@ -9924,6 +10811,9 @@
       <c r="J296" t="n">
         <v>0.4148564917028701</v>
       </c>
+      <c r="K296" t="n">
+        <v>15.0461038196456</v>
+      </c>
     </row>
     <row r="297">
       <c r="A297" t="n">
@@ -9956,6 +10846,9 @@
       <c r="J297" t="n">
         <v>0.4206609215867815</v>
       </c>
+      <c r="K297" t="n">
+        <v>15.0950451883441</v>
+      </c>
     </row>
     <row r="298">
       <c r="A298" t="n">
@@ -9988,6 +10881,9 @@
       <c r="J298" t="n">
         <v>0.9182750516344983</v>
       </c>
+      <c r="K298" t="n">
+        <v>205.654802160976</v>
+      </c>
     </row>
     <row r="299">
       <c r="A299" t="n">
@@ -10020,6 +10916,9 @@
       <c r="J299" t="n">
         <v>0.9182750516344983</v>
       </c>
+      <c r="K299" t="n">
+        <v>169.473473285599</v>
+      </c>
     </row>
     <row r="300">
       <c r="A300" t="n">
@@ -10052,6 +10951,9 @@
       <c r="J300" t="n">
         <v>0.5698312086033757</v>
       </c>
+      <c r="K300" t="n">
+        <v>94.936287231069</v>
+      </c>
     </row>
     <row r="301">
       <c r="A301" t="n">
@@ -10084,6 +10986,9 @@
       <c r="J301" t="n">
         <v>0.9268570614628577</v>
       </c>
+      <c r="K301" t="n">
+        <v>205.633184459817</v>
+      </c>
     </row>
     <row r="302">
       <c r="A302" t="n">
@@ -10116,6 +11021,9 @@
       <c r="J302" t="n">
         <v>0.5710775585784487</v>
       </c>
+      <c r="K302" t="n">
+        <v>94.5423907506205</v>
+      </c>
     </row>
     <row r="303">
       <c r="A303" t="n">
@@ -10148,6 +11056,9 @@
       <c r="J303" t="n">
         <v>0.9268570614628577</v>
       </c>
+      <c r="K303" t="n">
+        <v>170.224555079313</v>
+      </c>
     </row>
     <row r="304">
       <c r="A304" t="n">
@@ -10180,6 +11091,9 @@
       <c r="J304" t="n">
         <v>0.5698312086033757</v>
       </c>
+      <c r="K304" t="n">
+        <v>70.0708763244417</v>
+      </c>
     </row>
     <row r="305">
       <c r="A305" t="n">
@@ -10212,6 +11126,9 @@
       <c r="J305" t="n">
         <v>0.5710775585784487</v>
       </c>
+      <c r="K305" t="n">
+        <v>70.4496793388669</v>
+      </c>
     </row>
     <row r="306">
       <c r="A306" t="n">
@@ -10244,6 +11161,9 @@
       <c r="J306" t="n">
         <v>0.4260024214799517</v>
       </c>
+      <c r="K306" t="n">
+        <v>28.8716424321306</v>
+      </c>
     </row>
     <row r="307">
       <c r="A307" t="n">
@@ -10276,6 +11196,9 @@
       <c r="J307" t="n">
         <v>0.4260024214799517</v>
       </c>
+      <c r="K307" t="n">
+        <v>55.0593711912944</v>
+      </c>
     </row>
     <row r="308">
       <c r="A308" t="n">
@@ -10308,6 +11231,9 @@
       <c r="J308" t="n">
         <v>0.3396481732070368</v>
       </c>
+      <c r="K308" t="n">
+        <v>46.0698023130035</v>
+      </c>
     </row>
     <row r="309">
       <c r="A309" t="n">
@@ -10340,6 +11266,9 @@
       <c r="J309" t="n">
         <v>0.5394202692115946</v>
       </c>
+      <c r="K309" t="n">
+        <v>28.156498497641</v>
+      </c>
     </row>
     <row r="310">
       <c r="A310" t="n">
@@ -10372,6 +11301,9 @@
       <c r="J310" t="n">
         <v>0.5687985186240295</v>
       </c>
+      <c r="K310" t="n">
+        <v>43.3968816265889</v>
+      </c>
     </row>
     <row r="311">
       <c r="A311" t="n">
@@ -10404,6 +11336,9 @@
       <c r="J311" t="n">
         <v>0.5394202692115946</v>
       </c>
+      <c r="K311" t="n">
+        <v>54.647927248702</v>
+      </c>
     </row>
     <row r="312">
       <c r="A312" t="n">
@@ -10436,6 +11371,9 @@
       <c r="J312" t="n">
         <v>0.3396481732070368</v>
       </c>
+      <c r="K312" t="n">
+        <v>49.9796990409174</v>
+      </c>
     </row>
     <row r="313">
       <c r="A313" t="n">
@@ -10468,6 +11406,9 @@
       <c r="J313" t="n">
         <v>0.5687985186240295</v>
       </c>
+      <c r="K313" t="n">
+        <v>47.6104783463999</v>
+      </c>
     </row>
     <row r="314">
       <c r="A314" t="n">
@@ -10500,6 +11441,9 @@
       <c r="J314" t="n">
         <v>0.6083256178334876</v>
       </c>
+      <c r="K314" t="n">
+        <v>25.5406286929117</v>
+      </c>
     </row>
     <row r="315">
       <c r="A315" t="n">
@@ -10532,6 +11476,9 @@
       <c r="J315" t="n">
         <v>0.6083256178334876</v>
       </c>
+      <c r="K315" t="n">
+        <v>49.7916113553371</v>
+      </c>
     </row>
     <row r="316">
       <c r="A316" t="n">
@@ -10564,6 +11511,9 @@
       <c r="J316" t="n">
         <v>0.6359233672815325</v>
       </c>
+      <c r="K316" t="n">
+        <v>21.2196421795223</v>
+      </c>
     </row>
     <row r="317">
       <c r="A317" t="n">
@@ -10596,6 +11546,9 @@
       <c r="J317" t="n">
         <v>0.2112385157752302</v>
       </c>
+      <c r="K317" t="n">
+        <v>30.1626573131454</v>
+      </c>
     </row>
     <row r="318">
       <c r="A318" t="n">
@@ -10628,6 +11581,9 @@
       <c r="J318" t="n">
         <v>0.1266647674667053</v>
       </c>
+      <c r="K318" t="n">
+        <v>27.7392082670065</v>
+      </c>
     </row>
     <row r="319">
       <c r="A319" t="n">
@@ -10660,6 +11616,9 @@
       <c r="J319" t="n">
         <v>0.2112385157752302</v>
       </c>
+      <c r="K319" t="n">
+        <v>55.7873732444414</v>
+      </c>
     </row>
     <row r="320">
       <c r="A320" t="n">
@@ -10692,6 +11651,9 @@
       <c r="J320" t="n">
         <v>0.6359233672815325</v>
       </c>
+      <c r="K320" t="n">
+        <v>62.2552928106977</v>
+      </c>
     </row>
     <row r="321">
       <c r="A321" t="n">
@@ -10724,6 +11686,9 @@
       <c r="J321" t="n">
         <v>0.1266647674667053</v>
       </c>
+      <c r="K321" t="n">
+        <v>70.1485921670524</v>
+      </c>
     </row>
     <row r="322">
       <c r="A322" t="n">
@@ -10756,6 +11721,9 @@
       <c r="J322" t="n">
         <v>0.3798518624029631</v>
       </c>
+      <c r="K322" t="n">
+        <v>26.6493828350926</v>
+      </c>
     </row>
     <row r="323">
       <c r="A323" t="n">
@@ -10788,6 +11756,9 @@
       <c r="J323" t="n">
         <v>0.3798518624029631</v>
       </c>
+      <c r="K323" t="n">
+        <v>64.6038734946809</v>
+      </c>
     </row>
     <row r="324">
       <c r="A324" t="n">
@@ -10820,6 +11791,9 @@
       <c r="J324" t="n">
         <v>0.3436364931272706</v>
       </c>
+      <c r="K324" t="n">
+        <v>26.9730072622945</v>
+      </c>
     </row>
     <row r="325">
       <c r="A325" t="n">
@@ -10852,6 +11826,9 @@
       <c r="J325" t="n">
         <v>0.3821665123566701</v>
       </c>
+      <c r="K325" t="n">
+        <v>26.7116933968235</v>
+      </c>
     </row>
     <row r="326">
       <c r="A326" t="n">
@@ -10884,6 +11861,9 @@
       <c r="J326" t="n">
         <v>0.346592123068158</v>
       </c>
+      <c r="K326" t="n">
+        <v>26.9973670746803</v>
+      </c>
     </row>
     <row r="327">
       <c r="A327" t="n">
@@ -10916,6 +11896,9 @@
       <c r="J327" t="n">
         <v>0.3821665123566701</v>
       </c>
+      <c r="K327" t="n">
+        <v>64.2046969564759</v>
+      </c>
     </row>
     <row r="328">
       <c r="A328" t="n">
@@ -10948,6 +11931,9 @@
       <c r="J328" t="n">
         <v>0.3436364931272706</v>
       </c>
+      <c r="K328" t="n">
+        <v>72.7277908906328</v>
+      </c>
     </row>
     <row r="329">
       <c r="A329" t="n">
@@ -10980,6 +11966,9 @@
       <c r="J329" t="n">
         <v>0.346592123068158</v>
       </c>
+      <c r="K329" t="n">
+        <v>72.29066360308271</v>
+      </c>
     </row>
     <row r="330">
       <c r="A330" t="n">
@@ -11012,6 +12001,9 @@
       <c r="J330" t="n">
         <v>0.5621750587564986</v>
       </c>
+      <c r="K330" t="n">
+        <v>91.8128022693011</v>
+      </c>
     </row>
     <row r="331">
       <c r="A331" t="n">
@@ -11044,6 +12036,9 @@
       <c r="J331" t="n">
         <v>0.5621750587564986</v>
       </c>
+      <c r="K331" t="n">
+        <v>16.6610437236641</v>
+      </c>
     </row>
     <row r="332">
       <c r="A332" t="n">
@@ -11076,6 +12071,9 @@
       <c r="J332" t="n">
         <v>0.5669824086603517</v>
       </c>
+      <c r="K332" t="n">
+        <v>98.10505571484271</v>
+      </c>
     </row>
     <row r="333">
       <c r="A333" t="n">
@@ -11108,6 +12106,9 @@
       <c r="J333" t="n">
         <v>0.5690477886190441</v>
       </c>
+      <c r="K333" t="n">
+        <v>91.6908863979922</v>
+      </c>
     </row>
     <row r="334">
       <c r="A334" t="n">
@@ -11140,6 +12141,9 @@
       <c r="J334" t="n">
         <v>0.5744961185100775</v>
       </c>
+      <c r="K334" t="n">
+        <v>97.9885613791545</v>
+      </c>
     </row>
     <row r="335">
       <c r="A335" t="n">
@@ -11172,6 +12176,9 @@
       <c r="J335" t="n">
         <v>0.5690477886190441</v>
       </c>
+      <c r="K335" t="n">
+        <v>16.5692536176289</v>
+      </c>
     </row>
     <row r="336">
       <c r="A336" t="n">
@@ -11204,6 +12211,9 @@
       <c r="J336" t="n">
         <v>0.5669824086603517</v>
       </c>
+      <c r="K336" t="n">
+        <v>16.6910901379557</v>
+      </c>
     </row>
     <row r="337">
       <c r="A337" t="n">
@@ -11236,6 +12246,9 @@
       <c r="J337" t="n">
         <v>0.5744961185100775</v>
       </c>
+      <c r="K337" t="n">
+        <v>16.6047215675412</v>
+      </c>
     </row>
     <row r="338">
       <c r="A338" t="n">
@@ -11268,6 +12281,9 @@
       <c r="J338" t="n">
         <v>0.5097571398048572</v>
       </c>
+      <c r="K338" t="n">
+        <v>98.8714468344717</v>
+      </c>
     </row>
     <row r="339">
       <c r="A339" t="n">
@@ -11300,6 +12316,9 @@
       <c r="J339" t="n">
         <v>0.5097571398048572</v>
       </c>
+      <c r="K339" t="n">
+        <v>0.64802417944688</v>
+      </c>
     </row>
     <row r="340">
       <c r="A340" t="n">
@@ -11332,6 +12351,9 @@
       <c r="J340" t="n">
         <v>0.3823801723523967</v>
       </c>
+      <c r="K340" t="n">
+        <v>179.919377716155</v>
+      </c>
     </row>
     <row r="341">
       <c r="A341" t="n">
@@ -11364,6 +12386,9 @@
       <c r="J341" t="n">
         <v>0.5120717897585642</v>
       </c>
+      <c r="K341" t="n">
+        <v>100.573111859307</v>
+      </c>
     </row>
     <row r="342">
       <c r="A342" t="n">
@@ -11396,6 +12421,9 @@
       <c r="J342" t="n">
         <v>0.7226337155473256</v>
       </c>
+      <c r="K342" t="n">
+        <v>184.479396798801</v>
+      </c>
     </row>
     <row r="343">
       <c r="A343" t="n">
@@ -11428,6 +12456,9 @@
       <c r="J343" t="n">
         <v>0.5120717897585642</v>
       </c>
+      <c r="K343" t="n">
+        <v>1.73906463752981</v>
+      </c>
     </row>
     <row r="344">
       <c r="A344" t="n">
@@ -11460,6 +12491,9 @@
       <c r="J344" t="n">
         <v>0.3823801723523967</v>
       </c>
+      <c r="K344" t="n">
+        <v>30.9024980298803</v>
+      </c>
     </row>
     <row r="345">
       <c r="A345" t="n">
@@ -11492,6 +12526,9 @@
       <c r="J345" t="n">
         <v>0.7226337155473256</v>
       </c>
+      <c r="K345" t="n">
+        <v>34.8518925457739</v>
+      </c>
     </row>
     <row r="346">
       <c r="A346" t="n">
@@ -11524,6 +12561,9 @@
       <c r="J346" t="n">
         <v>0.6920803361583933</v>
       </c>
+      <c r="K346" t="n">
+        <v>25.4791234063778</v>
+      </c>
     </row>
     <row r="347">
       <c r="A347" t="n">
@@ -11556,6 +12596,9 @@
       <c r="J347" t="n">
         <v>0.6920803361583933</v>
       </c>
+      <c r="K347" t="n">
+        <v>60.4653528165868</v>
+      </c>
     </row>
     <row r="348">
       <c r="A348" t="n">
@@ -11588,6 +12631,9 @@
       <c r="J348" t="n">
         <v>0.5373548892529022</v>
       </c>
+      <c r="K348" t="n">
+        <v>5.39646744372383</v>
+      </c>
     </row>
     <row r="349">
       <c r="A349" t="n">
@@ -11620,6 +12666,9 @@
       <c r="J349" t="n">
         <v>0.4026778719464427</v>
       </c>
+      <c r="K349" t="n">
+        <v>21.1914906003727</v>
+      </c>
     </row>
     <row r="350">
       <c r="A350" t="n">
@@ -11652,6 +12701,9 @@
       <c r="J350" t="n">
         <v>0.4947297201054056</v>
       </c>
+      <c r="K350" t="n">
+        <v>3.19612585169424</v>
+      </c>
     </row>
     <row r="351">
       <c r="A351" t="n">
@@ -11684,6 +12736,9 @@
       <c r="J351" t="n">
         <v>0.4026778719464427</v>
       </c>
+      <c r="K351" t="n">
+        <v>55.4388387814828</v>
+      </c>
     </row>
     <row r="352">
       <c r="A352" t="n">
@@ -11716,6 +12771,9 @@
       <c r="J352" t="n">
         <v>0.5373548892529022</v>
       </c>
+      <c r="K352" t="n">
+        <v>78.6517398226827</v>
+      </c>
     </row>
     <row r="353">
       <c r="A353" t="n">
@@ -11748,6 +12806,9 @@
       <c r="J353" t="n">
         <v>0.4947297201054056</v>
       </c>
+      <c r="K353" t="n">
+        <v>75.7125170015543</v>
+      </c>
     </row>
     <row r="354">
       <c r="A354" t="n">
@@ -11780,6 +12841,9 @@
       <c r="J354" t="n">
         <v>0.5382451392350971</v>
       </c>
+      <c r="K354" t="n">
+        <v>8.750901378627759</v>
+      </c>
     </row>
     <row r="355">
       <c r="A355" t="n">
@@ -11812,6 +12876,9 @@
       <c r="J355" t="n">
         <v>0.5382451392350971</v>
       </c>
+      <c r="K355" t="n">
+        <v>40.4671377065764</v>
+      </c>
     </row>
     <row r="356">
       <c r="A356" t="n">
@@ -11844,6 +12911,9 @@
       <c r="J356" t="n">
         <v>0.5533081689338365</v>
       </c>
+      <c r="K356" t="n">
+        <v>9.937784928411521</v>
+      </c>
     </row>
     <row r="357">
       <c r="A357" t="n">
@@ -11876,6 +12946,9 @@
       <c r="J357" t="n">
         <v>0.4642119507157609</v>
       </c>
+      <c r="K357" t="n">
+        <v>8.798444980192061</v>
+      </c>
     </row>
     <row r="358">
       <c r="A358" t="n">
@@ -11908,6 +12981,9 @@
       <c r="J358" t="n">
         <v>0.4388932412221351</v>
       </c>
+      <c r="K358" t="n">
+        <v>10.3268852740809</v>
+      </c>
     </row>
     <row r="359">
       <c r="A359" t="n">
@@ -11940,6 +13016,9 @@
       <c r="J359" t="n">
         <v>0.4642119507157609</v>
       </c>
+      <c r="K359" t="n">
+        <v>39.8808452386289</v>
+      </c>
     </row>
     <row r="360">
       <c r="A360" t="n">
@@ -11972,6 +13051,9 @@
       <c r="J360" t="n">
         <v>0.5533081689338365</v>
       </c>
+      <c r="K360" t="n">
+        <v>38.9074392251102</v>
+      </c>
     </row>
     <row r="361">
       <c r="A361" t="n">
@@ -12004,6 +13086,9 @@
       <c r="J361" t="n">
         <v>0.4388932412221351</v>
       </c>
+      <c r="K361" t="n">
+        <v>38.6627035012677</v>
+      </c>
     </row>
     <row r="362">
       <c r="A362" t="n">
@@ -12036,6 +13121,9 @@
       <c r="J362" t="n">
         <v>0.2784345844313084</v>
       </c>
+      <c r="K362" t="n">
+        <v>130.394904179879</v>
+      </c>
     </row>
     <row r="363">
       <c r="A363" t="n">
@@ -12068,6 +13156,9 @@
       <c r="J363" t="n">
         <v>0.2784345844313084</v>
       </c>
+      <c r="K363" t="n">
+        <v>64.4438500378088</v>
+      </c>
     </row>
     <row r="364">
       <c r="A364" t="n">
@@ -12100,6 +13191,9 @@
       <c r="J364" t="n">
         <v>0.2524748949505021</v>
       </c>
+      <c r="K364" t="n">
+        <v>138.981702151872</v>
+      </c>
     </row>
     <row r="365">
       <c r="A365" t="n">
@@ -12132,6 +13226,9 @@
       <c r="J365" t="n">
         <v>0.6510932269781351</v>
       </c>
+      <c r="K365" t="n">
+        <v>128.791241800037</v>
+      </c>
     </row>
     <row r="366">
       <c r="A366" t="n">
@@ -12164,6 +13261,9 @@
       <c r="J366" t="n">
         <v>0.6667972366640548</v>
       </c>
+      <c r="K366" t="n">
+        <v>137.025639956682</v>
+      </c>
     </row>
     <row r="367">
       <c r="A367" t="n">
@@ -12196,6 +13296,9 @@
       <c r="J367" t="n">
         <v>0.6510932269781351</v>
       </c>
+      <c r="K367" t="n">
+        <v>61.9124412483163</v>
+      </c>
     </row>
     <row r="368">
       <c r="A368" t="n">
@@ -12228,6 +13331,9 @@
       <c r="J368" t="n">
         <v>0.2524748949505021</v>
       </c>
+      <c r="K368" t="n">
+        <v>70.2840659785512</v>
+      </c>
     </row>
     <row r="369">
       <c r="A369" t="n">
@@ -12260,6 +13366,9 @@
       <c r="J369" t="n">
         <v>0.6667972366640548</v>
       </c>
+      <c r="K369" t="n">
+        <v>67.40025737371219</v>
+      </c>
     </row>
     <row r="370">
       <c r="A370" t="n">
@@ -12292,6 +13401,9 @@
       <c r="J370" t="n">
         <v>0.702336015953279</v>
       </c>
+      <c r="K370" t="n">
+        <v>37.1789952660428</v>
+      </c>
     </row>
     <row r="371">
       <c r="A371" t="n">
@@ -12324,6 +13436,9 @@
       <c r="J371" t="n">
         <v>0.702336015953279</v>
       </c>
+      <c r="K371" t="n">
+        <v>17.1452612299672</v>
+      </c>
     </row>
     <row r="372">
       <c r="A372" t="n">
@@ -12356,6 +13471,9 @@
       <c r="J372" t="n">
         <v>0.9908838401823217</v>
       </c>
+      <c r="K372" t="n">
+        <v>82.26956370865931</v>
+      </c>
     </row>
     <row r="373">
       <c r="A373" t="n">
@@ -12388,6 +13506,9 @@
       <c r="J373" t="n">
         <v>0.7057901858841955</v>
       </c>
+      <c r="K373" t="n">
+        <v>37.2947215948387</v>
+      </c>
     </row>
     <row r="374">
       <c r="A374" t="n">
@@ -12420,6 +13541,9 @@
       <c r="J374" t="n">
         <v>0.999537070009257</v>
       </c>
+      <c r="K374" t="n">
+        <v>82.69311278214251</v>
+      </c>
     </row>
     <row r="375">
       <c r="A375" t="n">
@@ -12452,6 +13576,9 @@
       <c r="J375" t="n">
         <v>0.7057901858841955</v>
       </c>
+      <c r="K375" t="n">
+        <v>17.3632045301965</v>
+      </c>
     </row>
     <row r="376">
       <c r="A376" t="n">
@@ -12484,6 +13611,9 @@
       <c r="J376" t="n">
         <v>0.9908838401823217</v>
       </c>
+      <c r="K376" t="n">
+        <v>39.9579976413336</v>
+      </c>
     </row>
     <row r="377">
       <c r="A377" t="n">
@@ -12516,6 +13646,9 @@
       <c r="J377" t="n">
         <v>0.999537070009257</v>
       </c>
+      <c r="K377" t="n">
+        <v>40.4837636862503</v>
+      </c>
     </row>
     <row r="378">
       <c r="A378" t="n">
@@ -12548,6 +13681,9 @@
       <c r="J378" t="n">
         <v>0.4425254611494908</v>
       </c>
+      <c r="K378" t="n">
+        <v>24.8805997668388</v>
+      </c>
     </row>
     <row r="379">
       <c r="A379" t="n">
@@ -12580,6 +13716,9 @@
       <c r="J379" t="n">
         <v>0.4425254611494908</v>
       </c>
+      <c r="K379" t="n">
+        <v>181.500732711967</v>
+      </c>
     </row>
     <row r="380">
       <c r="A380" t="n">
@@ -12612,6 +13751,9 @@
       <c r="J380" t="n">
         <v>0.4758208104835838</v>
       </c>
+      <c r="K380" t="n">
+        <v>40.1057457152914</v>
+      </c>
     </row>
     <row r="381">
       <c r="A381" t="n">
@@ -12644,6 +13786,9 @@
       <c r="J381" t="n">
         <v>0.4505377109892459</v>
       </c>
+      <c r="K381" t="n">
+        <v>24.9191698451123</v>
+      </c>
     </row>
     <row r="382">
       <c r="A382" t="n">
@@ -12676,6 +13821,9 @@
       <c r="J382" t="n">
         <v>0.4799159604016808</v>
       </c>
+      <c r="K382" t="n">
+        <v>40.1774474001359</v>
+      </c>
     </row>
     <row r="383">
       <c r="A383" t="n">
@@ -12708,6 +13856,9 @@
       <c r="J383" t="n">
         <v>0.4505377109892459</v>
       </c>
+      <c r="K383" t="n">
+        <v>181.394856784067</v>
+      </c>
     </row>
     <row r="384">
       <c r="A384" t="n">
@@ -12740,6 +13891,9 @@
       <c r="J384" t="n">
         <v>0.4758208104835838</v>
       </c>
+      <c r="K384" t="n">
+        <v>127.57304662917</v>
+      </c>
     </row>
     <row r="385">
       <c r="A385" t="n">
@@ -12772,6 +13926,9 @@
       <c r="J385" t="n">
         <v>0.4799159604016808</v>
       </c>
+      <c r="K385" t="n">
+        <v>127.50030230784</v>
+      </c>
     </row>
     <row r="386">
       <c r="A386" t="n">
@@ -12804,6 +13961,9 @@
       <c r="J386" t="n">
         <v>0.5237162595256747</v>
       </c>
+      <c r="K386" t="n">
+        <v>50.4078061171905</v>
+      </c>
     </row>
     <row r="387">
       <c r="A387" t="n">
@@ -12836,6 +13996,9 @@
       <c r="J387" t="n">
         <v>0.5237162595256747</v>
       </c>
+      <c r="K387" t="n">
+        <v>52.3282773168893</v>
+      </c>
     </row>
     <row r="388">
       <c r="A388" t="n">
@@ -12868,6 +14031,9 @@
       <c r="J388" t="n">
         <v>0.5279538494409228</v>
       </c>
+      <c r="K388" t="n">
+        <v>44.8333712459614</v>
+      </c>
     </row>
     <row r="389">
       <c r="A389" t="n">
@@ -12900,6 +14066,9 @@
       <c r="J389" t="n">
         <v>0.6171925076561494</v>
       </c>
+      <c r="K389" t="n">
+        <v>53.1048920075691</v>
+      </c>
     </row>
     <row r="390">
       <c r="A390" t="n">
@@ -12932,6 +14101,9 @@
       <c r="J390" t="n">
         <v>0.6516985969660275</v>
       </c>
+      <c r="K390" t="n">
+        <v>48.0424910560743</v>
+      </c>
     </row>
     <row r="391">
       <c r="A391" t="n">
@@ -12964,6 +14136,9 @@
       <c r="J391" t="n">
         <v>0.6171925076561494</v>
       </c>
+      <c r="K391" t="n">
+        <v>55.2332116585899</v>
+      </c>
     </row>
     <row r="392">
       <c r="A392" t="n">
@@ -12996,6 +14171,9 @@
       <c r="J392" t="n">
         <v>0.5279538494409228</v>
       </c>
+      <c r="K392" t="n">
+        <v>46.5463229144102</v>
+      </c>
     </row>
     <row r="393">
       <c r="A393" t="n">
@@ -13028,6 +14206,9 @@
       <c r="J393" t="n">
         <v>0.6516985969660275</v>
       </c>
+      <c r="K393" t="n">
+        <v>49.9632911758451</v>
+      </c>
     </row>
     <row r="394">
       <c r="A394" t="n">
@@ -13060,6 +14241,9 @@
       <c r="J394" t="n">
         <v>0.008653229826935534</v>
       </c>
+      <c r="K394" t="n">
+        <v>72.4571501568264</v>
+      </c>
     </row>
     <row r="395">
       <c r="A395" t="n">
@@ -13092,6 +14276,9 @@
       <c r="J395" t="n">
         <v>0.008653229826935534</v>
       </c>
+      <c r="K395" t="n">
+        <v>70.0729156489073</v>
+      </c>
     </row>
     <row r="396">
       <c r="A396" t="n">
@@ -13124,6 +14311,9 @@
       <c r="J396" t="n">
         <v>0.4869311302613774</v>
       </c>
+      <c r="K396" t="n">
+        <v>6.89082262116401</v>
+      </c>
     </row>
     <row r="397">
       <c r="A397" t="n">
@@ -13156,6 +14346,9 @@
       <c r="J397" t="n">
         <v>0.2160814756783718</v>
       </c>
+      <c r="K397" t="n">
+        <v>59.5318302630327</v>
+      </c>
     </row>
     <row r="398">
       <c r="A398" t="n">
@@ -13188,6 +14381,9 @@
       <c r="J398" t="n">
         <v>0.4967238800655224</v>
       </c>
+      <c r="K398" t="n">
+        <v>3.99534362569416</v>
+      </c>
     </row>
     <row r="399">
       <c r="A399" t="n">
@@ -13220,6 +14416,9 @@
       <c r="J399" t="n">
         <v>0.2160814756783718</v>
       </c>
+      <c r="K399" t="n">
+        <v>57.6122245035638</v>
+      </c>
     </row>
     <row r="400">
       <c r="A400" t="n">
@@ -13252,6 +14451,9 @@
       <c r="J400" t="n">
         <v>0.4869311302613774</v>
       </c>
+      <c r="K400" t="n">
+        <v>5.86156858199488</v>
+      </c>
     </row>
     <row r="401">
       <c r="A401" t="n">
@@ -13284,6 +14486,9 @@
       <c r="J401" t="n">
         <v>0.4967238800655224</v>
       </c>
+      <c r="K401" t="n">
+        <v>3.43071833497529</v>
+      </c>
     </row>
     <row r="402">
       <c r="A402" t="n">
@@ -13316,6 +14521,9 @@
       <c r="J402" t="n">
         <v>0.5624599387508009</v>
       </c>
+      <c r="K402" t="n">
+        <v>66.1977436140369</v>
+      </c>
     </row>
     <row r="403">
       <c r="A403" t="n">
@@ -13348,6 +14556,9 @@
       <c r="J403" t="n">
         <v>0.5624599387508009</v>
       </c>
+      <c r="K403" t="n">
+        <v>15.1786875304687</v>
+      </c>
     </row>
     <row r="404">
       <c r="A404" t="n">
@@ -13380,6 +14591,9 @@
       <c r="J404" t="n">
         <v>0.6054412078911753</v>
       </c>
+      <c r="K404" t="n">
+        <v>81.3439566575932</v>
+      </c>
     </row>
     <row r="405">
       <c r="A405" t="n">
@@ -13412,6 +14626,9 @@
       <c r="J405" t="n">
         <v>0.505519549889609</v>
       </c>
+      <c r="K405" t="n">
+        <v>63.7201016761348</v>
+      </c>
     </row>
     <row r="406">
       <c r="A406" t="n">
@@ -13444,6 +14661,9 @@
       <c r="J406" t="n">
         <v>0.5012819599743608</v>
       </c>
+      <c r="K406" t="n">
+        <v>78.0675418049057</v>
+      </c>
     </row>
     <row r="407">
       <c r="A407" t="n">
@@ -13476,6 +14696,9 @@
       <c r="J407" t="n">
         <v>0.505519549889609</v>
       </c>
+      <c r="K407" t="n">
+        <v>12.9879097368125</v>
+      </c>
     </row>
     <row r="408">
       <c r="A408" t="n">
@@ -13508,6 +14731,9 @@
       <c r="J408" t="n">
         <v>0.6054412078911753</v>
       </c>
+      <c r="K408" t="n">
+        <v>16.8361310427751</v>
+      </c>
     </row>
     <row r="409">
       <c r="A409" t="n">
@@ -13540,6 +14766,9 @@
       <c r="J409" t="n">
         <v>0.5012819599743608</v>
       </c>
+      <c r="K409" t="n">
+        <v>13.8465803343334</v>
+      </c>
     </row>
     <row r="410">
       <c r="A410" t="n">
@@ -13572,6 +14801,9 @@
       <c r="J410" t="n">
         <v>0.33911402321772</v>
       </c>
+      <c r="K410" t="n">
+        <v>16.8902419157305</v>
+      </c>
     </row>
     <row r="411">
       <c r="A411" t="n">
@@ -13604,6 +14836,9 @@
       <c r="J411" t="n">
         <v>0.33911402321772</v>
       </c>
+      <c r="K411" t="n">
+        <v>114.950501322152</v>
+      </c>
     </row>
     <row r="412">
       <c r="A412" t="n">
@@ -13636,6 +14871,9 @@
       <c r="J412" t="n">
         <v>0.304607933907842</v>
       </c>
+      <c r="K412" t="n">
+        <v>18.4684659642357</v>
+      </c>
     </row>
     <row r="413">
       <c r="A413" t="n">
@@ -13668,6 +14906,9 @@
       <c r="J413" t="n">
         <v>0.8747240225055194</v>
       </c>
+      <c r="K413" t="n">
+        <v>26.3401180840328</v>
+      </c>
     </row>
     <row r="414">
       <c r="A414" t="n">
@@ -13700,6 +14941,9 @@
       <c r="J414" t="n">
         <v>0.9479737910405239</v>
       </c>
+      <c r="K414" t="n">
+        <v>29.7411828867919</v>
+      </c>
     </row>
     <row r="415">
       <c r="A415" t="n">
@@ -13732,6 +14976,9 @@
       <c r="J415" t="n">
         <v>0.8747240225055194</v>
       </c>
+      <c r="K415" t="n">
+        <v>126.801823892409</v>
+      </c>
     </row>
     <row r="416">
       <c r="A416" t="n">
@@ -13764,6 +15011,9 @@
       <c r="J416" t="n">
         <v>0.304607933907842</v>
       </c>
+      <c r="K416" t="n">
+        <v>129.602455839407</v>
+      </c>
     </row>
     <row r="417">
       <c r="A417" t="n">
@@ -13796,6 +15046,9 @@
       <c r="J417" t="n">
         <v>0.9479737910405239</v>
       </c>
+      <c r="K417" t="n">
+        <v>143.276619163918</v>
+      </c>
     </row>
     <row r="418">
       <c r="A418" t="n">
@@ -13828,6 +15081,9 @@
       <c r="J418" t="n">
         <v>0.4963677800726444</v>
       </c>
+      <c r="K418" t="n">
+        <v>1.20624842171691</v>
+      </c>
     </row>
     <row r="419">
       <c r="A419" t="n">
@@ -13860,6 +15116,9 @@
       <c r="J419" t="n">
         <v>0.4963677800726444</v>
       </c>
+      <c r="K419" t="n">
+        <v>88.12696299526711</v>
+      </c>
     </row>
     <row r="420">
       <c r="A420" t="n">
@@ -13892,6 +15151,9 @@
       <c r="J420" t="n">
         <v>0.1382380172352401</v>
       </c>
+      <c r="K420" t="n">
+        <v>38.7362476016488</v>
+      </c>
     </row>
     <row r="421">
       <c r="A421" t="n">
@@ -13924,6 +15186,9 @@
       <c r="J421" t="n">
         <v>0.5146357097072858</v>
       </c>
+      <c r="K421" t="n">
+        <v>3.16409073465244</v>
+      </c>
     </row>
     <row r="422">
       <c r="A422" t="n">
@@ -13956,6 +15221,9 @@
       <c r="J422" t="n">
         <v>0.6152339576953207</v>
       </c>
+      <c r="K422" t="n">
+        <v>32.9340652628</v>
+      </c>
     </row>
     <row r="423">
       <c r="A423" t="n">
@@ -13988,6 +15256,9 @@
       <c r="J423" t="n">
         <v>0.5146357097072858</v>
       </c>
+      <c r="K423" t="n">
+        <v>89.5540337022711</v>
+      </c>
     </row>
     <row r="424">
       <c r="A424" t="n">
@@ -14020,6 +15291,9 @@
       <c r="J424" t="n">
         <v>0.1382380172352401</v>
       </c>
+      <c r="K424" t="n">
+        <v>212.558817643949</v>
+      </c>
     </row>
     <row r="425">
       <c r="A425" t="n">
@@ -14052,6 +15326,9 @@
       <c r="J425" t="n">
         <v>0.6152339576953207</v>
       </c>
+      <c r="K425" t="n">
+        <v>206.225863699168</v>
+      </c>
     </row>
     <row r="426">
       <c r="A426" t="n">
@@ -14084,6 +15361,9 @@
       <c r="J426" t="n">
         <v>0.605761697884766</v>
       </c>
+      <c r="K426" t="n">
+        <v>158.52425301711</v>
+      </c>
     </row>
     <row r="427">
       <c r="A427" t="n">
@@ -14116,6 +15396,9 @@
       <c r="J427" t="n">
         <v>0.605761697884766</v>
       </c>
+      <c r="K427" t="n">
+        <v>20.0243437698436</v>
+      </c>
     </row>
     <row r="428">
       <c r="A428" t="n">
@@ -14148,6 +15431,9 @@
       <c r="J428" t="n">
         <v>0.584929848301403</v>
       </c>
+      <c r="K428" t="n">
+        <v>142.727233989008</v>
+      </c>
     </row>
     <row r="429">
       <c r="A429" t="n">
@@ -14180,6 +15466,9 @@
       <c r="J429" t="n">
         <v>0.2593832348123359</v>
       </c>
+      <c r="K429" t="n">
+        <v>163.795865265604</v>
+      </c>
     </row>
     <row r="430">
       <c r="A430" t="n">
@@ -14212,6 +15501,9 @@
       <c r="J430" t="n">
         <v>0.3144006837119868</v>
       </c>
+      <c r="K430" t="n">
+        <v>146.715749473933</v>
+      </c>
     </row>
     <row r="431">
       <c r="A431" t="n">
@@ -14244,6 +15536,9 @@
       <c r="J431" t="n">
         <v>0.2593832348123359</v>
       </c>
+      <c r="K431" t="n">
+        <v>23.2440580120014</v>
+      </c>
     </row>
     <row r="432">
       <c r="A432" t="n">
@@ -14276,6 +15571,9 @@
       <c r="J432" t="n">
         <v>0.584929848301403</v>
       </c>
+      <c r="K432" t="n">
+        <v>16.1291802104918</v>
+      </c>
     </row>
     <row r="433">
       <c r="A433" t="n">
@@ -14308,6 +15606,9 @@
       <c r="J433" t="n">
         <v>0.3144006837119868</v>
       </c>
+      <c r="K433" t="n">
+        <v>18.0657976890802</v>
+      </c>
     </row>
     <row r="434">
       <c r="A434" t="n">
@@ -14340,6 +15641,9 @@
       <c r="J434" t="n">
         <v>0.4781354604372908</v>
       </c>
+      <c r="K434" t="n">
+        <v>40.8859603894712</v>
+      </c>
     </row>
     <row r="435">
       <c r="A435" t="n">
@@ -14372,6 +15676,9 @@
       <c r="J435" t="n">
         <v>0.4781354604372908</v>
       </c>
+      <c r="K435" t="n">
+        <v>39.1723820846995</v>
+      </c>
     </row>
     <row r="436">
       <c r="A436" t="n">
@@ -14404,6 +15711,9 @@
       <c r="J436" t="n">
         <v>0.4914892101702157</v>
       </c>
+      <c r="K436" t="n">
+        <v>31.0748188591862</v>
+      </c>
     </row>
     <row r="437">
       <c r="A437" t="n">
@@ -14436,6 +15746,9 @@
       <c r="J437" t="n">
         <v>0.4599387508012249</v>
       </c>
+      <c r="K437" t="n">
+        <v>41.2630007793041</v>
+      </c>
     </row>
     <row r="438">
       <c r="A438" t="n">
@@ -14468,6 +15781,9 @@
       <c r="J438" t="n">
         <v>0.480770600384588</v>
       </c>
+      <c r="K438" t="n">
+        <v>31.3253567512023</v>
+      </c>
     </row>
     <row r="439">
       <c r="A439" t="n">
@@ -14500,6 +15816,9 @@
       <c r="J439" t="n">
         <v>0.4599387508012249</v>
       </c>
+      <c r="K439" t="n">
+        <v>39.3823524880941</v>
+      </c>
     </row>
     <row r="440">
       <c r="A440" t="n">
@@ -14532,6 +15851,9 @@
       <c r="J440" t="n">
         <v>0.4914892101702157</v>
       </c>
+      <c r="K440" t="n">
+        <v>29.5443460231644</v>
+      </c>
     </row>
     <row r="441">
       <c r="A441" t="n">
@@ -14564,6 +15886,9 @@
       <c r="J441" t="n">
         <v>0.480770600384588</v>
       </c>
+      <c r="K441" t="n">
+        <v>29.6278139287423</v>
+      </c>
     </row>
     <row r="442">
       <c r="A442" t="n">
@@ -14596,6 +15921,9 @@
       <c r="J442" t="n">
         <v>0.8792464924150691</v>
       </c>
+      <c r="K442" t="n">
+        <v>29.4881036852005</v>
+      </c>
     </row>
     <row r="443">
       <c r="A443" t="n">
@@ -14628,6 +15956,9 @@
       <c r="J443" t="n">
         <v>0.8792464924150691</v>
       </c>
+      <c r="K443" t="n">
+        <v>29.7194563944507</v>
+      </c>
     </row>
     <row r="444">
       <c r="A444" t="n">
@@ -14660,6 +15991,9 @@
       <c r="J444" t="n">
         <v>0.8242290435154183</v>
       </c>
+      <c r="K444" t="n">
+        <v>29.9861128935293</v>
+      </c>
     </row>
     <row r="445">
       <c r="A445" t="n">
@@ -14692,6 +16026,9 @@
       <c r="J445" t="n">
         <v>0.8291432234171351</v>
       </c>
+      <c r="K445" t="n">
+        <v>28.4579741680105</v>
+      </c>
     </row>
     <row r="446">
       <c r="A446" t="n">
@@ -14724,6 +16061,9 @@
       <c r="J446" t="n">
         <v>0.7816038743679221</v>
       </c>
+      <c r="K446" t="n">
+        <v>29.3354908697895</v>
+      </c>
     </row>
     <row r="447">
       <c r="A447" t="n">
@@ -14756,6 +16096,9 @@
       <c r="J447" t="n">
         <v>0.8291432234171351</v>
       </c>
+      <c r="K447" t="n">
+        <v>29.0167201515662</v>
+      </c>
     </row>
     <row r="448">
       <c r="A448" t="n">
@@ -14788,6 +16131,9 @@
       <c r="J448" t="n">
         <v>0.8242290435154183</v>
       </c>
+      <c r="K448" t="n">
+        <v>30.4005710715296</v>
+      </c>
     </row>
     <row r="449">
       <c r="A449" t="n">
@@ -14820,6 +16166,9 @@
       <c r="J449" t="n">
         <v>0.7816038743679221</v>
       </c>
+      <c r="K449" t="n">
+        <v>30.0773423220952</v>
+      </c>
     </row>
     <row r="450">
       <c r="A450" t="n">
@@ -14852,6 +16201,9 @@
       <c r="J450" t="n">
         <v>0.5014956199700875</v>
       </c>
+      <c r="K450" t="n">
+        <v>41.6081481206627</v>
+      </c>
     </row>
     <row r="451">
       <c r="A451" t="n">
@@ -14884,6 +16236,9 @@
       <c r="J451" t="n">
         <v>0.5014956199700875</v>
       </c>
+      <c r="K451" t="n">
+        <v>9.35508153455463</v>
+      </c>
     </row>
     <row r="452">
       <c r="A452" t="n">
@@ -14916,6 +16271,9 @@
       <c r="J452" t="n">
         <v>0.5063029698739405</v>
       </c>
+      <c r="K452" t="n">
+        <v>45.0574054283377</v>
+      </c>
     </row>
     <row r="453">
       <c r="A453" t="n">
@@ -14948,6 +16306,9 @@
       <c r="J453" t="n">
         <v>0.6171925076561495</v>
       </c>
+      <c r="K453" t="n">
+        <v>45.8603558791404</v>
+      </c>
     </row>
     <row r="454">
       <c r="A454" t="n">
@@ -14980,6 +16341,9 @@
       <c r="J454" t="n">
         <v>0.5611067587778646</v>
       </c>
+      <c r="K454" t="n">
+        <v>47.7644755349115</v>
+      </c>
     </row>
     <row r="455">
       <c r="A455" t="n">
@@ -15012,6 +16376,9 @@
       <c r="J455" t="n">
         <v>0.6171925076561495</v>
       </c>
+      <c r="K455" t="n">
+        <v>12.8136737125997</v>
+      </c>
     </row>
     <row r="456">
       <c r="A456" t="n">
@@ -15044,6 +16411,9 @@
       <c r="J456" t="n">
         <v>0.5063029698739405</v>
       </c>
+      <c r="K456" t="n">
+        <v>7.12806931097968</v>
+      </c>
     </row>
     <row r="457">
       <c r="A457" t="n">
@@ -15076,6 +16446,9 @@
       <c r="J457" t="n">
         <v>0.5611067587778646</v>
       </c>
+      <c r="K457" t="n">
+        <v>9.041523837120859</v>
+      </c>
     </row>
     <row r="458">
       <c r="A458" t="n">
@@ -15108,6 +16481,9 @@
       <c r="J458" t="n">
         <v>0.9026066519478668</v>
       </c>
+      <c r="K458" t="n">
+        <v>71.8915110830723</v>
+      </c>
     </row>
     <row r="459">
       <c r="A459" t="n">
@@ -15140,6 +16516,9 @@
       <c r="J459" t="n">
         <v>0.9026066519478668</v>
       </c>
+      <c r="K459" t="n">
+        <v>160.245393777286</v>
+      </c>
     </row>
     <row r="460">
       <c r="A460" t="n">
@@ -15172,6 +16551,9 @@
       <c r="J460" t="n">
         <v>0.8390428032191438</v>
       </c>
+      <c r="K460" t="n">
+        <v>61.634121996485</v>
+      </c>
     </row>
     <row r="461">
       <c r="A461" t="n">
@@ -15204,6 +16586,9 @@
       <c r="J461" t="n">
         <v>0.4348693113026138</v>
       </c>
+      <c r="K461" t="n">
+        <v>59.985077024257</v>
+      </c>
     </row>
     <row r="462">
       <c r="A462" t="n">
@@ -15236,6 +16621,9 @@
       <c r="J462" t="n">
         <v>0.4471547610569048</v>
       </c>
+      <c r="K462" t="n">
+        <v>51.6523330830238</v>
+      </c>
     </row>
     <row r="463">
       <c r="A463" t="n">
@@ -15268,6 +16656,9 @@
       <c r="J463" t="n">
         <v>0.4348693113026138</v>
       </c>
+      <c r="K463" t="n">
+        <v>147.860645212698</v>
+      </c>
     </row>
     <row r="464">
       <c r="A464" t="n">
@@ -15300,6 +16691,9 @@
       <c r="J464" t="n">
         <v>0.8390428032191438</v>
       </c>
+      <c r="K464" t="n">
+        <v>144.311735159449</v>
+      </c>
     </row>
     <row r="465">
       <c r="A465" t="n">
@@ -15332,6 +16726,9 @@
       <c r="J465" t="n">
         <v>0.4471547610569048</v>
       </c>
+      <c r="K465" t="n">
+        <v>133.851631740215</v>
+      </c>
     </row>
     <row r="466">
       <c r="A466" t="n">
@@ -15364,6 +16761,9 @@
       <c r="J466" t="n">
         <v>0.3533580229328402</v>
       </c>
+      <c r="K466" t="n">
+        <v>123.474721497965</v>
+      </c>
     </row>
     <row r="467">
       <c r="A467" t="n">
@@ -15396,6 +16796,9 @@
       <c r="J467" t="n">
         <v>0.3533580229328402</v>
       </c>
+      <c r="K467" t="n">
+        <v>38.8907949413787</v>
+      </c>
     </row>
     <row r="468">
       <c r="A468" t="n">
@@ -15428,6 +16831,9 @@
       <c r="J468" t="n">
         <v>0.2259810554803802</v>
       </c>
+      <c r="K468" t="n">
+        <v>172.049437084453</v>
+      </c>
     </row>
     <row r="469">
       <c r="A469" t="n">
@@ -15460,6 +16866,9 @@
       <c r="J469" t="n">
         <v>0.3231963535360731</v>
       </c>
+      <c r="K469" t="n">
+        <v>125.061705773284</v>
+      </c>
     </row>
     <row r="470">
       <c r="A470" t="n">
@@ -15492,6 +16901,9 @@
       <c r="J470" t="n">
         <v>0.1713909265721817</v>
       </c>
+      <c r="K470" t="n">
+        <v>174.669525091941</v>
+      </c>
     </row>
     <row r="471">
       <c r="A471" t="n">
@@ -15524,6 +16936,9 @@
       <c r="J471" t="n">
         <v>0.3231963535360731</v>
       </c>
+      <c r="K471" t="n">
+        <v>38.4477013290168</v>
+      </c>
     </row>
     <row r="472">
       <c r="A472" t="n">
@@ -15556,6 +16971,9 @@
       <c r="J472" t="n">
         <v>0.2259810554803802</v>
       </c>
+      <c r="K472" t="n">
+        <v>29.4454909966163</v>
+      </c>
     </row>
     <row r="473">
       <c r="A473" t="n">
@@ -15588,6 +17006,9 @@
       <c r="J473" t="n">
         <v>0.1713909265721817</v>
       </c>
+      <c r="K473" t="n">
+        <v>30.0355011164241</v>
+      </c>
     </row>
     <row r="474">
       <c r="A474" t="n">
@@ -15620,6 +17041,9 @@
       <c r="J474" t="n">
         <v>0.7544690549106181</v>
       </c>
+      <c r="K474" t="n">
+        <v>27.3691361668463</v>
+      </c>
     </row>
     <row r="475">
       <c r="A475" t="n">
@@ -15652,6 +17076,9 @@
       <c r="J475" t="n">
         <v>0.7544690549106181</v>
       </c>
+      <c r="K475" t="n">
+        <v>79.1738213444759</v>
+      </c>
     </row>
     <row r="476">
       <c r="A476" t="n">
@@ -15684,6 +17111,9 @@
       <c r="J476" t="n">
         <v>0.5997436080051275</v>
       </c>
+      <c r="K476" t="n">
+        <v>12.4867540488593</v>
+      </c>
     </row>
     <row r="477">
       <c r="A477" t="n">
@@ -15716,6 +17146,9 @@
       <c r="J477" t="n">
         <v>0.6924008261519833</v>
       </c>
+      <c r="K477" t="n">
+        <v>26.1540211680818</v>
+      </c>
     </row>
     <row r="478">
       <c r="A478" t="n">
@@ -15748,6 +17181,9 @@
       <c r="J478" t="n">
         <v>0.5770600384587992</v>
       </c>
+      <c r="K478" t="n">
+        <v>12.2710087828467</v>
+      </c>
     </row>
     <row r="479">
       <c r="A479" t="n">
@@ -15780,6 +17216,9 @@
       <c r="J479" t="n">
         <v>0.6924008261519833</v>
       </c>
+      <c r="K479" t="n">
+        <v>77.2194996567105</v>
+      </c>
     </row>
     <row r="480">
       <c r="A480" t="n">
@@ -15812,6 +17251,9 @@
       <c r="J480" t="n">
         <v>0.5997436080051275</v>
       </c>
+      <c r="K480" t="n">
+        <v>34.3964196952389</v>
+      </c>
     </row>
     <row r="481">
       <c r="A481" t="n">
@@ -15844,6 +17286,9 @@
       <c r="J481" t="n">
         <v>0.5770600384587992</v>
       </c>
+      <c r="K481" t="n">
+        <v>33.4414677402254</v>
+      </c>
     </row>
     <row r="482">
       <c r="A482" t="n">
@@ -15876,6 +17321,9 @@
       <c r="J482" t="n">
         <v>0.6484936970301259</v>
       </c>
+      <c r="K482" t="n">
+        <v>21.2736684632325</v>
+      </c>
     </row>
     <row r="483">
       <c r="A483" t="n">
@@ -15908,6 +17356,9 @@
       <c r="J483" t="n">
         <v>0.6484936970301259</v>
       </c>
+      <c r="K483" t="n">
+        <v>20.1038520490528</v>
+      </c>
     </row>
     <row r="484">
       <c r="A484" t="n">
@@ -15940,6 +17391,9 @@
       <c r="J484" t="n">
         <v>0.7011608859767819</v>
       </c>
+      <c r="K484" t="n">
+        <v>21.8829820533789</v>
+      </c>
     </row>
     <row r="485">
       <c r="A485" t="n">
@@ -15972,6 +17426,9 @@
       <c r="J485" t="n">
         <v>0.626308667473826</v>
       </c>
+      <c r="K485" t="n">
+        <v>21.3384519593326</v>
+      </c>
     </row>
     <row r="486">
       <c r="A486" t="n">
@@ -16004,6 +17461,9 @@
       <c r="J486" t="n">
         <v>0.6705006765899856</v>
       </c>
+      <c r="K486" t="n">
+        <v>21.5893418056651</v>
+      </c>
     </row>
     <row r="487">
       <c r="A487" t="n">
@@ -16036,6 +17496,9 @@
       <c r="J487" t="n">
         <v>0.626308667473826</v>
       </c>
+      <c r="K487" t="n">
+        <v>19.3895510014374</v>
+      </c>
     </row>
     <row r="488">
       <c r="A488" t="n">
@@ -16068,6 +17531,9 @@
       <c r="J488" t="n">
         <v>0.7011608859767819</v>
       </c>
+      <c r="K488" t="n">
+        <v>27.1462711079493</v>
+      </c>
     </row>
     <row r="489">
       <c r="A489" t="n">
@@ -16100,6 +17566,9 @@
       <c r="J489" t="n">
         <v>0.6705006765899856</v>
       </c>
+      <c r="K489" t="n">
+        <v>26.0735463165199</v>
+      </c>
     </row>
     <row r="490">
       <c r="A490" t="n">
@@ -16132,6 +17601,9 @@
       <c r="J490" t="n">
         <v>0.35221850295563</v>
       </c>
+      <c r="K490" t="n">
+        <v>113.328294016531</v>
+      </c>
     </row>
     <row r="491">
       <c r="A491" t="n">
@@ -16164,6 +17636,9 @@
       <c r="J491" t="n">
         <v>0.35221850295563</v>
       </c>
+      <c r="K491" t="n">
+        <v>44.693603559106</v>
+      </c>
     </row>
     <row r="492">
       <c r="A492" t="n">
@@ -16196,6 +17671,9 @@
       <c r="J492" t="n">
         <v>0.3273983334520334</v>
       </c>
+      <c r="K492" t="n">
+        <v>126.276715194367</v>
+      </c>
     </row>
     <row r="493">
       <c r="A493" t="n">
@@ -16228,6 +17706,9 @@
       <c r="J493" t="n">
         <v>0.2981269140374623</v>
       </c>
+      <c r="K493" t="n">
+        <v>114.164171609577</v>
+      </c>
     </row>
     <row r="494">
       <c r="A494" t="n">
@@ -16260,6 +17741,9 @@
       <c r="J494" t="n">
         <v>0.2648315647033694</v>
       </c>
+      <c r="K494" t="n">
+        <v>127.3276470337</v>
+      </c>
     </row>
     <row r="495">
       <c r="A495" t="n">
@@ -16292,6 +17776,9 @@
       <c r="J495" t="n">
         <v>0.2981269140374623</v>
       </c>
+      <c r="K495" t="n">
+        <v>47.8243941492744</v>
+      </c>
     </row>
     <row r="496">
       <c r="A496" t="n">
@@ -16324,6 +17811,9 @@
       <c r="J496" t="n">
         <v>0.3273983334520334</v>
       </c>
+      <c r="K496" t="n">
+        <v>37.5126302056914</v>
+      </c>
     </row>
     <row r="497">
       <c r="A497" t="n">
@@ -16356,6 +17846,9 @@
       <c r="J497" t="n">
         <v>0.2648315647033694</v>
       </c>
+      <c r="K497" t="n">
+        <v>40.8584750421482</v>
+      </c>
     </row>
     <row r="498">
       <c r="A498" t="n">
@@ -16388,6 +17881,9 @@
       <c r="J498" t="n">
         <v>0.5208674595826507</v>
       </c>
+      <c r="K498" t="n">
+        <v>6.28934211891075</v>
+      </c>
     </row>
     <row r="499">
       <c r="A499" t="n">
@@ -16420,6 +17916,9 @@
       <c r="J499" t="n">
         <v>0.5208674595826507</v>
       </c>
+      <c r="K499" t="n">
+        <v>37.8314600898577</v>
+      </c>
     </row>
     <row r="500">
       <c r="A500" t="n">
@@ -16452,6 +17951,9 @@
       <c r="J500" t="n">
         <v>0.5872088882558221</v>
       </c>
+      <c r="K500" t="n">
+        <v>35.4658469015705</v>
+      </c>
     </row>
     <row r="501">
       <c r="A501" t="n">
@@ -16484,6 +17986,9 @@
       <c r="J501" t="n">
         <v>0.4576597108468057</v>
       </c>
+      <c r="K501" t="n">
+        <v>6.15993093358122</v>
+      </c>
     </row>
     <row r="502">
       <c r="A502" t="n">
@@ -16516,6 +18021,9 @@
       <c r="J502" t="n">
         <v>0.1144149277117015</v>
       </c>
+      <c r="K502" t="n">
+        <v>45.7295195011528</v>
+      </c>
     </row>
     <row r="503">
       <c r="A503" t="n">
@@ -16548,6 +18056,9 @@
       <c r="J503" t="n">
         <v>0.4576597108468057</v>
       </c>
+      <c r="K503" t="n">
+        <v>38.6770428221691</v>
+      </c>
     </row>
     <row r="504">
       <c r="A504" t="n">
@@ -16580,6 +18091,9 @@
       <c r="J504" t="n">
         <v>0.5872088882558221</v>
       </c>
+      <c r="K504" t="n">
+        <v>97.6598203412675</v>
+      </c>
     </row>
     <row r="505">
       <c r="A505" t="n">
@@ -16612,6 +18126,9 @@
       <c r="J505" t="n">
         <v>0.1144149277117015</v>
       </c>
+      <c r="K505" t="n">
+        <v>108.89848685849</v>
+      </c>
     </row>
     <row r="506">
       <c r="A506" t="n">
@@ -16644,6 +18161,9 @@
       <c r="J506" t="n">
         <v>0.2245922655081554</v>
       </c>
+      <c r="K506" t="n">
+        <v>64.8912267796866</v>
+      </c>
     </row>
     <row r="507">
       <c r="A507" t="n">
@@ -16676,6 +18196,9 @@
       <c r="J507" t="n">
         <v>0.2245922655081554</v>
       </c>
+      <c r="K507" t="n">
+        <v>25.7806654954287</v>
+      </c>
     </row>
     <row r="508">
       <c r="A508" t="n">
@@ -16708,6 +18231,9 @@
       <c r="J508" t="n">
         <v>0.400327611993448</v>
       </c>
+      <c r="K508" t="n">
+        <v>80.0371558677695</v>
+      </c>
     </row>
     <row r="509">
       <c r="A509" t="n">
@@ -16740,6 +18266,9 @@
       <c r="J509" t="n">
         <v>0.5351470692970586</v>
       </c>
+      <c r="K509" t="n">
+        <v>56.553489330644</v>
+      </c>
     </row>
     <row r="510">
       <c r="A510" t="n">
@@ -16772,6 +18301,9 @@
       <c r="J510" t="n">
         <v>0.5200840395983192</v>
       </c>
+      <c r="K510" t="n">
+        <v>76.5408497280259</v>
+      </c>
     </row>
     <row r="511">
       <c r="A511" t="n">
@@ -16804,6 +18336,9 @@
       <c r="J511" t="n">
         <v>0.5351470692970586</v>
       </c>
+      <c r="K511" t="n">
+        <v>18.4067113557367</v>
+      </c>
     </row>
     <row r="512">
       <c r="A512" t="n">
@@ -16836,6 +18371,9 @@
       <c r="J512" t="n">
         <v>0.400327611993448</v>
       </c>
+      <c r="K512" t="n">
+        <v>23.1409500522615</v>
+      </c>
     </row>
     <row r="513">
       <c r="A513" t="n">
@@ -16868,6 +18406,9 @@
       <c r="J513" t="n">
         <v>0.5200840395983192</v>
       </c>
+      <c r="K513" t="n">
+        <v>20.6084272218685</v>
+      </c>
     </row>
     <row r="514">
       <c r="A514" t="n">
@@ -16900,6 +18441,9 @@
       <c r="J514" t="n">
         <v>0.5333309593333807</v>
       </c>
+      <c r="K514" t="n">
+        <v>82.8170448551551</v>
+      </c>
     </row>
     <row r="515">
       <c r="A515" t="n">
@@ -16932,6 +18476,9 @@
       <c r="J515" t="n">
         <v>0.5333309593333807</v>
       </c>
+      <c r="K515" t="n">
+        <v>89.70086440988</v>
+      </c>
     </row>
     <row r="516">
       <c r="A516" t="n">
@@ -16964,6 +18511,9 @@
       <c r="J516" t="n">
         <v>0.5395627092087457</v>
       </c>
+      <c r="K516" t="n">
+        <v>79.79059710053809</v>
+      </c>
     </row>
     <row r="517">
       <c r="A517" t="n">
@@ -16996,6 +18546,9 @@
       <c r="J517" t="n">
         <v>0.5968948080621037</v>
       </c>
+      <c r="K517" t="n">
+        <v>83.1402573951202</v>
+      </c>
     </row>
     <row r="518">
       <c r="A518" t="n">
@@ -17028,6 +18581,9 @@
       <c r="J518" t="n">
         <v>0.6205754575884905</v>
       </c>
+      <c r="K518" t="n">
+        <v>80.6672580684513</v>
+      </c>
     </row>
     <row r="519">
       <c r="A519" t="n">
@@ -17060,6 +18616,9 @@
       <c r="J519" t="n">
         <v>0.5968948080621037</v>
       </c>
+      <c r="K519" t="n">
+        <v>92.6384348782795</v>
+      </c>
     </row>
     <row r="520">
       <c r="A520" t="n">
@@ -17092,6 +18651,9 @@
       <c r="J520" t="n">
         <v>0.5395627092087457</v>
       </c>
+      <c r="K520" t="n">
+        <v>96.3301783740131</v>
+      </c>
     </row>
     <row r="521">
       <c r="A521" t="n">
@@ -17124,6 +18686,9 @@
       <c r="J521" t="n">
         <v>0.6205754575884905</v>
       </c>
+      <c r="K521" t="n">
+        <v>99.8211972703606</v>
+      </c>
     </row>
     <row r="522">
       <c r="A522" t="n">
@@ -17156,6 +18721,9 @@
       <c r="J522" t="n">
         <v>0.1823588063528247</v>
       </c>
+      <c r="K522" t="n">
+        <v>39.7647454326571</v>
+      </c>
     </row>
     <row r="523">
       <c r="A523" t="n">
@@ -17188,6 +18756,9 @@
       <c r="J523" t="n">
         <v>0.1823588063528247</v>
       </c>
+      <c r="K523" t="n">
+        <v>26.7113524825308</v>
+      </c>
     </row>
     <row r="524">
       <c r="A524" t="n">
@@ -17220,6 +18791,9 @@
       <c r="J524" t="n">
         <v>0.1566839968663209</v>
       </c>
+      <c r="K524" t="n">
+        <v>42.864860666687</v>
+      </c>
     </row>
     <row r="525">
       <c r="A525" t="n">
@@ -17252,6 +18826,9 @@
       <c r="J525" t="n">
         <v>0.405455451890891</v>
       </c>
+      <c r="K525" t="n">
+        <v>31.9961640012805</v>
+      </c>
     </row>
     <row r="526">
       <c r="A526" t="n">
@@ -17284,6 +18861,9 @@
       <c r="J526" t="n">
         <v>0.3972295420554091</v>
       </c>
+      <c r="K526" t="n">
+        <v>34.469037683636</v>
+      </c>
     </row>
     <row r="527">
       <c r="A527" t="n">
@@ -17316,6 +18896,9 @@
       <c r="J527" t="n">
         <v>0.405455451890891</v>
       </c>
+      <c r="K527" t="n">
+        <v>18.3088459653503</v>
+      </c>
     </row>
     <row r="528">
       <c r="A528" t="n">
@@ -17348,6 +18931,9 @@
       <c r="J528" t="n">
         <v>0.1566839968663209</v>
       </c>
+      <c r="K528" t="n">
+        <v>28.5297294353107</v>
+      </c>
     </row>
     <row r="529">
       <c r="A529" t="n">
@@ -17380,6 +18966,9 @@
       <c r="J529" t="n">
         <v>0.3972295420554091</v>
       </c>
+      <c r="K529" t="n">
+        <v>19.4999813664557</v>
+      </c>
     </row>
     <row r="530">
       <c r="A530" t="n">
@@ -17412,6 +19001,9 @@
       <c r="J530" t="n">
         <v>0.6928637561427247</v>
       </c>
+      <c r="K530" t="n">
+        <v>77.0508412820196</v>
+      </c>
     </row>
     <row r="531">
       <c r="A531" t="n">
@@ -17444,6 +19036,9 @@
       <c r="J531" t="n">
         <v>0.6928637561427247</v>
       </c>
+      <c r="K531" t="n">
+        <v>46.9753249840015</v>
+      </c>
     </row>
     <row r="532">
       <c r="A532" t="n">
@@ -17476,6 +19071,9 @@
       <c r="J532" t="n">
         <v>0.715048785699024</v>
       </c>
+      <c r="K532" t="n">
+        <v>82.708228019106</v>
+      </c>
     </row>
     <row r="533">
       <c r="A533" t="n">
@@ -17508,6 +19106,9 @@
       <c r="J533" t="n">
         <v>0.3120148137597041</v>
       </c>
+      <c r="K533" t="n">
+        <v>76.61050091123001</v>
+      </c>
     </row>
     <row r="534">
       <c r="A534" t="n">
@@ -17540,6 +19141,9 @@
       <c r="J534" t="n">
         <v>0.2878356242432879</v>
       </c>
+      <c r="K534" t="n">
+        <v>82.36592708412439</v>
+      </c>
     </row>
     <row r="535">
       <c r="A535" t="n">
@@ -17572,6 +19176,9 @@
       <c r="J535" t="n">
         <v>0.3120148137597041</v>
       </c>
+      <c r="K535" t="n">
+        <v>45.9068400178712</v>
+      </c>
     </row>
     <row r="536">
       <c r="A536" t="n">
@@ -17604,6 +19211,9 @@
       <c r="J536" t="n">
         <v>0.715048785699024</v>
       </c>
+      <c r="K536" t="n">
+        <v>51.350973439838</v>
+      </c>
     </row>
     <row r="537">
       <c r="A537" t="n">
@@ -17636,6 +19246,9 @@
       <c r="J537" t="n">
         <v>0.2878356242432879</v>
       </c>
+      <c r="K537" t="n">
+        <v>50.3805279095156</v>
+      </c>
     </row>
     <row r="538">
       <c r="A538" t="n">
@@ -17668,6 +19281,9 @@
       <c r="J538" t="n">
         <v>0.3418916031621679</v>
       </c>
+      <c r="K538" t="n">
+        <v>16.0880902087979</v>
+      </c>
     </row>
     <row r="539">
       <c r="A539" t="n">
@@ -17700,6 +19316,9 @@
       <c r="J539" t="n">
         <v>0.3418916031621679</v>
       </c>
+      <c r="K539" t="n">
+        <v>22.1676360088087</v>
+      </c>
     </row>
     <row r="540">
       <c r="A540" t="n">
@@ -17732,6 +19351,9 @@
       <c r="J540" t="n">
         <v>0.5099351898012962</v>
       </c>
+      <c r="K540" t="n">
+        <v>20.1163229133602</v>
+      </c>
     </row>
     <row r="541">
       <c r="A541" t="n">
@@ -17764,6 +19386,9 @@
       <c r="J541" t="n">
         <v>0.644754647104907</v>
       </c>
+      <c r="K541" t="n">
+        <v>16.3166256838534</v>
+      </c>
     </row>
     <row r="542">
       <c r="A542" t="n">
@@ -17796,6 +19421,9 @@
       <c r="J542" t="n">
         <v>0.5111815397763692</v>
       </c>
+      <c r="K542" t="n">
+        <v>20.9826418149082</v>
+      </c>
     </row>
     <row r="543">
       <c r="A543" t="n">
@@ -17828,6 +19456,9 @@
       <c r="J543" t="n">
         <v>0.644754647104907</v>
       </c>
+      <c r="K543" t="n">
+        <v>22.6491651605437</v>
+      </c>
     </row>
     <row r="544">
       <c r="A544" t="n">
@@ -17860,6 +19491,9 @@
       <c r="J544" t="n">
         <v>0.5099351898012962</v>
       </c>
+      <c r="K544" t="n">
+        <v>48.351630432121</v>
+      </c>
     </row>
     <row r="545">
       <c r="A545" t="n">
@@ -17892,6 +19526,9 @@
       <c r="J545" t="n">
         <v>0.5111815397763692</v>
       </c>
+      <c r="K545" t="n">
+        <v>49.4709430103485</v>
+      </c>
     </row>
     <row r="546">
       <c r="A546" t="n">
@@ -17924,6 +19561,9 @@
       <c r="J546" t="n">
         <v>0.405704721885906</v>
       </c>
+      <c r="K546" t="n">
+        <v>10.7023599853838</v>
+      </c>
     </row>
     <row r="547">
       <c r="A547" t="n">
@@ -17956,6 +19596,9 @@
       <c r="J547" t="n">
         <v>0.405704721885906</v>
       </c>
+      <c r="K547" t="n">
+        <v>71.9439947915473</v>
+      </c>
     </row>
     <row r="548">
       <c r="A548" t="n">
@@ -17988,6 +19631,9 @@
       <c r="J548" t="n">
         <v>0.4689124706217507</v>
       </c>
+      <c r="K548" t="n">
+        <v>5.82353680552159</v>
+      </c>
     </row>
     <row r="549">
       <c r="A549" t="n">
@@ -18020,6 +19666,9 @@
       <c r="J549" t="n">
         <v>0.6983120860337581</v>
       </c>
+      <c r="K549" t="n">
+        <v>17.861696012945</v>
+      </c>
     </row>
     <row r="550">
       <c r="A550" t="n">
@@ -18052,6 +19701,9 @@
       <c r="J550" t="n">
         <v>0.5852503382949931</v>
       </c>
+      <c r="K550" t="n">
+        <v>10.3737588156133</v>
+      </c>
     </row>
     <row r="551">
       <c r="A551" t="n">
@@ -18084,6 +19736,9 @@
       <c r="J551" t="n">
         <v>0.6983120860337581</v>
       </c>
+      <c r="K551" t="n">
+        <v>77.6360260730135</v>
+      </c>
     </row>
     <row r="552">
       <c r="A552" t="n">
@@ -18116,6 +19771,9 @@
       <c r="J552" t="n">
         <v>0.4689124706217507</v>
       </c>
+      <c r="K552" t="n">
+        <v>81.408433330435</v>
+      </c>
     </row>
     <row r="553">
       <c r="A553" t="n">
@@ -18148,6 +19806,9 @@
       <c r="J553" t="n">
         <v>0.5852503382949931</v>
       </c>
+      <c r="K553" t="n">
+        <v>84.49135059443179</v>
+      </c>
     </row>
     <row r="554">
       <c r="A554" t="n">
@@ -18180,6 +19841,9 @@
       <c r="J554" t="n">
         <v>0.7247703155045929</v>
       </c>
+      <c r="K554" t="n">
+        <v>164.521602278022</v>
+      </c>
     </row>
     <row r="555">
       <c r="A555" t="n">
@@ -18212,6 +19876,9 @@
       <c r="J555" t="n">
         <v>0.7247703155045929</v>
       </c>
+      <c r="K555" t="n">
+        <v>42.7081576617547</v>
+      </c>
     </row>
     <row r="556">
       <c r="A556" t="n">
@@ -18244,6 +19911,9 @@
       <c r="J556" t="n">
         <v>0.6740260665194781</v>
       </c>
+      <c r="K556" t="n">
+        <v>140.533204090882</v>
+      </c>
     </row>
     <row r="557">
       <c r="A557" t="n">
@@ -18276,6 +19946,9 @@
       <c r="J557" t="n">
         <v>0.5068727298625454</v>
       </c>
+      <c r="K557" t="n">
+        <v>161.224480870488</v>
+      </c>
     </row>
     <row r="558">
       <c r="A558" t="n">
@@ -18308,6 +19981,9 @@
       <c r="J558" t="n">
         <v>0.5077629798447404</v>
       </c>
+      <c r="K558" t="n">
+        <v>138.000368607657</v>
+      </c>
     </row>
     <row r="559">
       <c r="A559" t="n">
@@ -18340,6 +20016,9 @@
       <c r="J559" t="n">
         <v>0.5068727298625454</v>
       </c>
+      <c r="K559" t="n">
+        <v>38.7516302549785</v>
+      </c>
     </row>
     <row r="560">
       <c r="A560" t="n">
@@ -18372,6 +20051,9 @@
       <c r="J560" t="n">
         <v>0.6740260665194781</v>
       </c>
+      <c r="K560" t="n">
+        <v>33.0630211933647</v>
+      </c>
     </row>
     <row r="561">
       <c r="A561" t="n">
@@ -18404,6 +20086,9 @@
       <c r="J561" t="n">
         <v>0.5077629798447404</v>
       </c>
+      <c r="K561" t="n">
+        <v>29.8707797108977</v>
+      </c>
     </row>
     <row r="562">
       <c r="A562" t="n">
@@ -18436,6 +20121,9 @@
       <c r="J562" t="n">
         <v>0.5082615198347696</v>
       </c>
+      <c r="K562" t="n">
+        <v>14.1824632227747</v>
+      </c>
     </row>
     <row r="563">
       <c r="A563" t="n">
@@ -18468,6 +20156,9 @@
       <c r="J563" t="n">
         <v>0.5082615198347696</v>
       </c>
+      <c r="K563" t="n">
+        <v>20.0487699897835</v>
+      </c>
     </row>
     <row r="564">
       <c r="A564" t="n">
@@ -18500,6 +20191,9 @@
       <c r="J564" t="n">
         <v>0.4825867103482658</v>
       </c>
+      <c r="K564" t="n">
+        <v>69.6779655930485</v>
+      </c>
     </row>
     <row r="565">
       <c r="A565" t="n">
@@ -18532,6 +20226,9 @@
       <c r="J565" t="n">
         <v>0.4886404102271918</v>
       </c>
+      <c r="K565" t="n">
+        <v>12.7472512228271</v>
+      </c>
     </row>
     <row r="566">
       <c r="A566" t="n">
@@ -18564,6 +20261,9 @@
       <c r="J566" t="n">
         <v>0.2502314649953717</v>
       </c>
+      <c r="K566" t="n">
+        <v>72.2912853178704</v>
+      </c>
     </row>
     <row r="567">
       <c r="A567" t="n">
@@ -18596,6 +20296,9 @@
       <c r="J567" t="n">
         <v>0.4886404102271918</v>
       </c>
+      <c r="K567" t="n">
+        <v>19.553552923954</v>
+      </c>
     </row>
     <row r="568">
       <c r="A568" t="n">
@@ -18628,6 +20331,9 @@
       <c r="J568" t="n">
         <v>0.4825867103482658</v>
       </c>
+      <c r="K568" t="n">
+        <v>16.4500340788074</v>
+      </c>
     </row>
     <row r="569">
       <c r="A569" t="n">
@@ -18660,6 +20366,9 @@
       <c r="J569" t="n">
         <v>0.2502314649953717</v>
       </c>
+      <c r="K569" t="n">
+        <v>20.0033487377472</v>
+      </c>
     </row>
     <row r="570">
       <c r="A570" t="n">
@@ -18692,6 +20401,9 @@
       <c r="J570" t="n">
         <v>0.8273271134534577</v>
       </c>
+      <c r="K570" t="n">
+        <v>42.3495291131195</v>
+      </c>
     </row>
     <row r="571">
       <c r="A571" t="n">
@@ -18724,6 +20436,9 @@
       <c r="J571" t="n">
         <v>0.8273271134534577</v>
       </c>
+      <c r="K571" t="n">
+        <v>95.1661966282969</v>
+      </c>
     </row>
     <row r="572">
       <c r="A572" t="n">
@@ -18756,6 +20471,9 @@
       <c r="J572" t="n">
         <v>0.7196068656078626</v>
       </c>
+      <c r="K572" t="n">
+        <v>44.9773577579591</v>
+      </c>
     </row>
     <row r="573">
       <c r="A573" t="n">
@@ -18788,6 +20506,9 @@
       <c r="J573" t="n">
         <v>0.6755216864895656</v>
       </c>
+      <c r="K573" t="n">
+        <v>36.4314090015113</v>
+      </c>
     </row>
     <row r="574">
       <c r="A574" t="n">
@@ -18820,6 +20541,9 @@
       <c r="J574" t="n">
         <v>0.6194359376112807</v>
       </c>
+      <c r="K574" t="n">
+        <v>41.570462826224</v>
+      </c>
     </row>
     <row r="575">
       <c r="A575" t="n">
@@ -18852,6 +20576,9 @@
       <c r="J575" t="n">
         <v>0.6755216864895656</v>
       </c>
+      <c r="K575" t="n">
+        <v>88.6717099177805</v>
+      </c>
     </row>
     <row r="576">
       <c r="A576" t="n">
@@ -18884,6 +20611,9 @@
       <c r="J576" t="n">
         <v>0.7196068656078626</v>
       </c>
+      <c r="K576" t="n">
+        <v>73.0747869918865</v>
+      </c>
     </row>
     <row r="577">
       <c r="A577" t="n">
@@ -18916,6 +20646,9 @@
       <c r="J577" t="n">
         <v>0.6194359376112807</v>
       </c>
+      <c r="K577" t="n">
+        <v>69.09152546124319</v>
+      </c>
     </row>
     <row r="578">
       <c r="A578" t="n">
@@ -18948,6 +20681,9 @@
       <c r="J578" t="n">
         <v>0.470087600598248</v>
       </c>
+      <c r="K578" t="n">
+        <v>25.8669493236037</v>
+      </c>
     </row>
     <row r="579">
       <c r="A579" t="n">
@@ -18980,6 +20716,9 @@
       <c r="J579" t="n">
         <v>0.470087600598248</v>
       </c>
+      <c r="K579" t="n">
+        <v>25.8860091781292</v>
+      </c>
     </row>
     <row r="580">
       <c r="A580" t="n">
@@ -19012,6 +20751,9 @@
       <c r="J580" t="n">
         <v>0.425040951499181</v>
       </c>
+      <c r="K580" t="n">
+        <v>18.1513008060424</v>
+      </c>
     </row>
     <row r="581">
       <c r="A581" t="n">
@@ -19044,6 +20786,9 @@
       <c r="J581" t="n">
         <v>0.5370700092585997</v>
       </c>
+      <c r="K581" t="n">
+        <v>27.0531129616007</v>
+      </c>
     </row>
     <row r="582">
       <c r="A582" t="n">
@@ -19076,6 +20821,9 @@
       <c r="J582" t="n">
         <v>0.5664482586710347</v>
       </c>
+      <c r="K582" t="n">
+        <v>19.180089312827</v>
+      </c>
     </row>
     <row r="583">
       <c r="A583" t="n">
@@ -19108,6 +20856,9 @@
       <c r="J583" t="n">
         <v>0.5370700092585997</v>
       </c>
+      <c r="K583" t="n">
+        <v>26.9001415359548</v>
+      </c>
     </row>
     <row r="584">
       <c r="A584" t="n">
@@ -19140,6 +20891,9 @@
       <c r="J584" t="n">
         <v>0.425040951499181</v>
       </c>
+      <c r="K584" t="n">
+        <v>51.0683098793179</v>
+      </c>
     </row>
     <row r="585">
       <c r="A585" t="n">
@@ -19172,6 +20926,9 @@
       <c r="J585" t="n">
         <v>0.5664482586710347</v>
       </c>
+      <c r="K585" t="n">
+        <v>51.9250671059311</v>
+      </c>
     </row>
     <row r="586">
       <c r="A586" t="n">
@@ -19204,6 +20961,9 @@
       <c r="J586" t="n">
         <v>0.9350117512997639</v>
       </c>
+      <c r="K586" t="n">
+        <v>101.323156997161</v>
+      </c>
     </row>
     <row r="587">
       <c r="A587" t="n">
@@ -19236,6 +20996,9 @@
       <c r="J587" t="n">
         <v>0.9350117512997639</v>
       </c>
+      <c r="K587" t="n">
+        <v>41.6751845811158</v>
+      </c>
     </row>
     <row r="588">
       <c r="A588" t="n">
@@ -19268,6 +21031,9 @@
       <c r="J588" t="n">
         <v>0.6620611067587775</v>
       </c>
+      <c r="K588" t="n">
+        <v>47.3208296864974</v>
+      </c>
     </row>
     <row r="589">
       <c r="A589" t="n">
@@ -19300,6 +21066,9 @@
       <c r="J589" t="n">
         <v>0.05391353892173072</v>
       </c>
+      <c r="K589" t="n">
+        <v>103.079556282587</v>
+      </c>
     </row>
     <row r="590">
       <c r="A590" t="n">
@@ -19332,6 +21101,9 @@
       <c r="J590" t="n">
         <v>0.3476604230467921</v>
       </c>
+      <c r="K590" t="n">
+        <v>47.8789190015336</v>
+      </c>
     </row>
     <row r="591">
       <c r="A591" t="n">
@@ -19364,6 +21136,9 @@
       <c r="J591" t="n">
         <v>0.05391353892173072</v>
       </c>
+      <c r="K591" t="n">
+        <v>42.5776274913773</v>
+      </c>
     </row>
     <row r="592">
       <c r="A592" t="n">
@@ -19396,6 +21171,9 @@
       <c r="J592" t="n">
         <v>0.6620611067587775</v>
       </c>
+      <c r="K592" t="n">
+        <v>58.0708064892019</v>
+      </c>
     </row>
     <row r="593">
       <c r="A593" t="n">
@@ -19428,6 +21206,9 @@
       <c r="J593" t="n">
         <v>0.3476604230467921</v>
       </c>
+      <c r="K593" t="n">
+        <v>57.7749394290735</v>
+      </c>
     </row>
     <row r="594">
       <c r="A594" t="n">
@@ -19460,6 +21241,9 @@
       <c r="J594" t="n">
         <v>0.4564133608717328</v>
       </c>
+      <c r="K594" t="n">
+        <v>102.703405810012</v>
+      </c>
     </row>
     <row r="595">
       <c r="A595" t="n">
@@ -19492,6 +21276,9 @@
       <c r="J595" t="n">
         <v>0.4564133608717328</v>
       </c>
+      <c r="K595" t="n">
+        <v>60.9933531055877</v>
+      </c>
     </row>
     <row r="596">
       <c r="A596" t="n">
@@ -19524,6 +21311,9 @@
       <c r="J596" t="n">
         <v>0.4842959903140802</v>
       </c>
+      <c r="K596" t="n">
+        <v>92.822722558244</v>
+      </c>
     </row>
     <row r="597">
       <c r="A597" t="n">
@@ -19556,6 +21346,9 @@
       <c r="J597" t="n">
         <v>0.4800940103981198</v>
       </c>
+      <c r="K597" t="n">
+        <v>100.976531393294</v>
+      </c>
     </row>
     <row r="598">
       <c r="A598" t="n">
@@ -19588,6 +21381,9 @@
       <c r="J598" t="n">
         <v>0.4957980200840396</v>
       </c>
+      <c r="K598" t="n">
+        <v>91.5336371428984</v>
+      </c>
     </row>
     <row r="599">
       <c r="A599" t="n">
@@ -19620,6 +21416,9 @@
       <c r="J599" t="n">
         <v>0.4800940103981198</v>
       </c>
+      <c r="K599" t="n">
+        <v>60.1065805772733</v>
+      </c>
     </row>
     <row r="600">
       <c r="A600" t="n">
@@ -19652,6 +21451,9 @@
       <c r="J600" t="n">
         <v>0.4842959903140802</v>
       </c>
+      <c r="K600" t="n">
+        <v>52.760619072569</v>
+      </c>
     </row>
     <row r="601">
       <c r="A601" t="n">
@@ -19684,6 +21486,9 @@
       <c r="J601" t="n">
         <v>0.4957980200840396</v>
       </c>
+      <c r="K601" t="n">
+        <v>52.3116355456274</v>
+      </c>
     </row>
     <row r="602">
       <c r="A602" t="n">
@@ -19716,6 +21521,9 @@
       <c r="J602" t="n">
         <v>0.6296203974075919</v>
       </c>
+      <c r="K602" t="n">
+        <v>23.5186447749962</v>
+      </c>
     </row>
     <row r="603">
       <c r="A603" t="n">
@@ -19748,6 +21556,9 @@
       <c r="J603" t="n">
         <v>0.6296203974075919</v>
       </c>
+      <c r="K603" t="n">
+        <v>16.4715614983731</v>
+      </c>
     </row>
     <row r="604">
       <c r="A604" t="n">
@@ -19780,6 +21591,9 @@
       <c r="J604" t="n">
         <v>0.6164803076703937</v>
       </c>
+      <c r="K604" t="n">
+        <v>21.1679928003334</v>
+      </c>
     </row>
     <row r="605">
       <c r="A605" t="n">
@@ -19812,6 +21626,9 @@
       <c r="J605" t="n">
         <v>0.7399045652019086</v>
       </c>
+      <c r="K605" t="n">
+        <v>26.3606524493192</v>
+      </c>
     </row>
     <row r="606">
       <c r="A606" t="n">
@@ -19844,6 +21661,9 @@
       <c r="J606" t="n">
         <v>0.7145858557082828</v>
       </c>
+      <c r="K606" t="n">
+        <v>23.6237160616803</v>
+      </c>
     </row>
     <row r="607">
       <c r="A607" t="n">
@@ -19876,6 +21696,9 @@
       <c r="J607" t="n">
         <v>0.7399045652019086</v>
       </c>
+      <c r="K607" t="n">
+        <v>22.0517608032349</v>
+      </c>
     </row>
     <row r="608">
       <c r="A608" t="n">
@@ -19908,6 +21731,9 @@
       <c r="J608" t="n">
         <v>0.6164803076703937</v>
       </c>
+      <c r="K608" t="n">
+        <v>15.7688587424602</v>
+      </c>
     </row>
     <row r="609">
       <c r="A609" t="n">
@@ -19940,6 +21766,9 @@
       <c r="J609" t="n">
         <v>0.7145858557082828</v>
       </c>
+      <c r="K609" t="n">
+        <v>20.9627736343461</v>
+      </c>
     </row>
     <row r="610">
       <c r="A610" t="n">
@@ -19972,6 +21801,9 @@
       <c r="J610" t="n">
         <v>0.5145288797094223</v>
       </c>
+      <c r="K610" t="n">
+        <v>13.3767080455897</v>
+      </c>
     </row>
     <row r="611">
       <c r="A611" t="n">
@@ -20004,6 +21836,9 @@
       <c r="J611" t="n">
         <v>0.5145288797094223</v>
       </c>
+      <c r="K611" t="n">
+        <v>2.23770208146402</v>
+      </c>
     </row>
     <row r="612">
       <c r="A612" t="n">
@@ -20036,6 +21871,9 @@
       <c r="J612" t="n">
         <v>0.740687985186239</v>
       </c>
+      <c r="K612" t="n">
+        <v>22.0947557610116</v>
+      </c>
     </row>
     <row r="613">
       <c r="A613" t="n">
@@ -20068,6 +21906,9 @@
       <c r="J613" t="n">
         <v>0.5131400897371982</v>
       </c>
+      <c r="K613" t="n">
+        <v>11.5631201060706</v>
+      </c>
     </row>
     <row r="614">
       <c r="A614" t="n">
@@ -20100,6 +21941,9 @@
       <c r="J614" t="n">
         <v>0.6587493768250122</v>
       </c>
+      <c r="K614" t="n">
+        <v>17.7262691602303</v>
+      </c>
     </row>
     <row r="615">
       <c r="A615" t="n">
@@ -20132,6 +21976,9 @@
       <c r="J615" t="n">
         <v>0.5131400897371982</v>
       </c>
+      <c r="K615" t="n">
+        <v>2.51484186153639</v>
+      </c>
     </row>
     <row r="616">
       <c r="A616" t="n">
@@ -20164,6 +22011,9 @@
       <c r="J616" t="n">
         <v>0.740687985186239</v>
       </c>
+      <c r="K616" t="n">
+        <v>29.0099490156359</v>
+      </c>
     </row>
     <row r="617">
       <c r="A617" t="n">
@@ -20196,6 +22046,9 @@
       <c r="J617" t="n">
         <v>0.6587493768250122</v>
       </c>
+      <c r="K617" t="n">
+        <v>26.732190134446</v>
+      </c>
     </row>
     <row r="618">
       <c r="A618" t="n">
@@ -20228,6 +22081,9 @@
       <c r="J618" t="n">
         <v>0.3823445623531091</v>
       </c>
+      <c r="K618" t="n">
+        <v>98.54142271060979</v>
+      </c>
     </row>
     <row r="619">
       <c r="A619" t="n">
@@ -20260,6 +22116,9 @@
       <c r="J619" t="n">
         <v>0.3823445623531091</v>
       </c>
+      <c r="K619" t="n">
+        <v>156.363596285843</v>
+      </c>
     </row>
     <row r="620">
       <c r="A620" t="n">
@@ -20292,6 +22151,9 @@
       <c r="J620" t="n">
         <v>0.4626451107470979</v>
       </c>
+      <c r="K620" t="n">
+        <v>63.2907993072083</v>
+      </c>
     </row>
     <row r="621">
       <c r="A621" t="n">
@@ -20324,6 +22186,9 @@
       <c r="J621" t="n">
         <v>0.3217007335659853</v>
       </c>
+      <c r="K621" t="n">
+        <v>102.483499133595</v>
+      </c>
     </row>
     <row r="622">
       <c r="A622" t="n">
@@ -20356,6 +22221,9 @@
       <c r="J622" t="n">
         <v>0.4399615412007692</v>
       </c>
+      <c r="K622" t="n">
+        <v>65.8683053341022</v>
+      </c>
     </row>
     <row r="623">
       <c r="A623" t="n">
@@ -20388,6 +22256,9 @@
       <c r="J623" t="n">
         <v>0.3217007335659853</v>
       </c>
+      <c r="K623" t="n">
+        <v>158.538615270589</v>
+      </c>
     </row>
     <row r="624">
       <c r="A624" t="n">
@@ -20420,6 +22291,9 @@
       <c r="J624" t="n">
         <v>0.4626451107470979</v>
       </c>
+      <c r="K624" t="n">
+        <v>112.604672101191</v>
+      </c>
     </row>
     <row r="625">
       <c r="A625" t="n">
@@ -20452,6 +22326,9 @@
       <c r="J625" t="n">
         <v>0.4399615412007692</v>
       </c>
+      <c r="K625" t="n">
+        <v>113.415120689846</v>
+      </c>
     </row>
     <row r="626">
       <c r="A626" t="n">
@@ -20484,6 +22361,9 @@
       <c r="J626" t="n">
         <v>0.5213659995726799</v>
       </c>
+      <c r="K626" t="n">
+        <v>18.6339130095958</v>
+      </c>
     </row>
     <row r="627">
       <c r="A627" t="n">
@@ -20516,6 +22396,9 @@
       <c r="J627" t="n">
         <v>0.5213659995726799</v>
       </c>
+      <c r="K627" t="n">
+        <v>28.6189037817258</v>
+      </c>
     </row>
     <row r="628">
       <c r="A628" t="n">
@@ -20548,6 +22431,9 @@
       <c r="J628" t="n">
         <v>0.5287372694252545</v>
       </c>
+      <c r="K628" t="n">
+        <v>28.7869463357441</v>
+      </c>
     </row>
     <row r="629">
       <c r="A629" t="n">
@@ -20580,6 +22466,9 @@
       <c r="J629" t="n">
         <v>0.4903496901930062</v>
       </c>
+      <c r="K629" t="n">
+        <v>17.9148190289257</v>
+      </c>
     </row>
     <row r="630">
       <c r="A630" t="n">
@@ -20612,6 +22501,9 @@
       <c r="J630" t="n">
         <v>0.4764261804714764</v>
       </c>
+      <c r="K630" t="n">
+        <v>28.1128812203683</v>
+      </c>
     </row>
     <row r="631">
       <c r="A631" t="n">
@@ -20644,6 +22536,9 @@
       <c r="J631" t="n">
         <v>0.4903496901930062</v>
       </c>
+      <c r="K631" t="n">
+        <v>27.0306687299826</v>
+      </c>
     </row>
     <row r="632">
       <c r="A632" t="n">
@@ -20676,6 +22571,9 @@
       <c r="J632" t="n">
         <v>0.5287372694252545</v>
       </c>
+      <c r="K632" t="n">
+        <v>25.576136326624</v>
+      </c>
     </row>
     <row r="633">
       <c r="A633" t="n">
@@ -20708,6 +22606,9 @@
       <c r="J633" t="n">
         <v>0.4764261804714764</v>
       </c>
+      <c r="K633" t="n">
+        <v>24.0329301401752</v>
+      </c>
     </row>
     <row r="634">
       <c r="A634" t="n">
@@ -20740,6 +22641,9 @@
       <c r="J634" t="n">
         <v>0.09746456805070861</v>
       </c>
+      <c r="K634" t="n">
+        <v>50.2029723007705</v>
+      </c>
     </row>
     <row r="635">
       <c r="A635" t="n">
@@ -20772,6 +22676,9 @@
       <c r="J635" t="n">
         <v>0.09746456805070861</v>
       </c>
+      <c r="K635" t="n">
+        <v>95.43841100147741</v>
+      </c>
     </row>
     <row r="636">
       <c r="A636" t="n">
@@ -20804,6 +22711,9 @@
       <c r="J636" t="n">
         <v>0</v>
       </c>
+      <c r="K636" t="n">
+        <v>45.4353634314544</v>
+      </c>
     </row>
     <row r="637">
       <c r="A637" t="n">
@@ -20836,6 +22746,9 @@
       <c r="J637" t="n">
         <v>0.8960188020796226</v>
       </c>
+      <c r="K637" t="n">
+        <v>47.6762909615816</v>
+      </c>
     </row>
     <row r="638">
       <c r="A638" t="n">
@@ -20868,6 +22781,9 @@
       <c r="J638" t="n">
         <v>0.9869311302613758</v>
       </c>
+      <c r="K638" t="n">
+        <v>42.5103498223546</v>
+      </c>
     </row>
     <row r="639">
       <c r="A639" t="n">
@@ -20900,6 +22816,9 @@
       <c r="J639" t="n">
         <v>0.8960188020796226</v>
       </c>
+      <c r="K639" t="n">
+        <v>94.0266083219156</v>
+      </c>
     </row>
     <row r="640">
       <c r="A640" t="n">
@@ -20932,6 +22851,9 @@
       <c r="J640" t="n">
         <v>0</v>
       </c>
+      <c r="K640" t="n">
+        <v>113.412501350911</v>
+      </c>
     </row>
     <row r="641">
       <c r="A641" t="n">
@@ -20964,6 +22886,9 @@
       <c r="J641" t="n">
         <v>0.9869311302613758</v>
       </c>
+      <c r="K641" t="n">
+        <v>111.602366401438</v>
+      </c>
     </row>
     <row r="642">
       <c r="A642" t="n">
@@ -20996,6 +22921,9 @@
       <c r="J642" t="n">
         <v>0.6401609571967806</v>
       </c>
+      <c r="K642" t="n">
+        <v>53.7970227625725</v>
+      </c>
     </row>
     <row r="643">
       <c r="A643" t="n">
@@ -21028,6 +22956,9 @@
       <c r="J643" t="n">
         <v>0.6401609571967806</v>
       </c>
+      <c r="K643" t="n">
+        <v>18.2166415658492</v>
+      </c>
     </row>
     <row r="644">
       <c r="A644" t="n">
@@ -21060,6 +22991,9 @@
       <c r="J644" t="n">
         <v>0.5261733494765329</v>
       </c>
+      <c r="K644" t="n">
+        <v>60.5021900010702</v>
+      </c>
     </row>
     <row r="645">
       <c r="A645" t="n">
@@ -21092,6 +23026,9 @@
       <c r="J645" t="n">
         <v>0.3917812121643758</v>
       </c>
+      <c r="K645" t="n">
+        <v>50.4837326641277</v>
+      </c>
     </row>
     <row r="646">
       <c r="A646" t="n">
@@ -21124,6 +23061,9 @@
       <c r="J646" t="n">
         <v>0.4963677800726444</v>
       </c>
+      <c r="K646" t="n">
+        <v>57.6510858142914</v>
+      </c>
     </row>
     <row r="647">
       <c r="A647" t="n">
@@ -21156,6 +23096,9 @@
       <c r="J647" t="n">
         <v>0.3917812121643758</v>
       </c>
+      <c r="K647" t="n">
+        <v>16.649783156013</v>
+      </c>
     </row>
     <row r="648">
       <c r="A648" t="n">
@@ -21188,6 +23131,9 @@
       <c r="J648" t="n">
         <v>0.5261733494765329</v>
       </c>
+      <c r="K648" t="n">
+        <v>14.8510080230969</v>
+      </c>
     </row>
     <row r="649">
       <c r="A649" t="n">
@@ -21220,6 +23166,9 @@
       <c r="J649" t="n">
         <v>0.4963677800726444</v>
       </c>
+      <c r="K649" t="n">
+        <v>13.7463355249267</v>
+      </c>
     </row>
     <row r="650">
       <c r="A650" t="n">
@@ -21252,6 +23201,9 @@
       <c r="J650" t="n">
         <v>0.3985827220283455</v>
       </c>
+      <c r="K650" t="n">
+        <v>54.8936446226505</v>
+      </c>
     </row>
     <row r="651">
       <c r="A651" t="n">
@@ -21284,6 +23236,9 @@
       <c r="J651" t="n">
         <v>0.3985827220283455</v>
       </c>
+      <c r="K651" t="n">
+        <v>118.963899430413</v>
+      </c>
     </row>
     <row r="652">
       <c r="A652" t="n">
@@ -21316,6 +23271,9 @@
       <c r="J652" t="n">
         <v>0.4350117512997649</v>
       </c>
+      <c r="K652" t="n">
+        <v>38.4415851015746</v>
+      </c>
     </row>
     <row r="653">
       <c r="A653" t="n">
@@ -21348,6 +23306,9 @@
       <c r="J653" t="n">
         <v>0.6515917669681646</v>
       </c>
+      <c r="K653" t="n">
+        <v>56.5253058971085</v>
+      </c>
     </row>
     <row r="654">
       <c r="A654" t="n">
@@ -21380,6 +23341,9 @@
       <c r="J654" t="n">
         <v>0.605761697884766</v>
       </c>
+      <c r="K654" t="n">
+        <v>39.8993054415346</v>
+      </c>
     </row>
     <row r="655">
       <c r="A655" t="n">
@@ -21412,6 +23376,9 @@
       <c r="J655" t="n">
         <v>0.6515917669681646</v>
       </c>
+      <c r="K655" t="n">
+        <v>121.952860194128</v>
+      </c>
     </row>
     <row r="656">
       <c r="A656" t="n">
@@ -21444,6 +23411,9 @@
       <c r="J656" t="n">
         <v>0.4350117512997649</v>
       </c>
+      <c r="K656" t="n">
+        <v>92.44103912808789</v>
+      </c>
     </row>
     <row r="657">
       <c r="A657" t="n">
@@ -21476,6 +23446,9 @@
       <c r="J657" t="n">
         <v>0.605761697884766</v>
       </c>
+      <c r="K657" t="n">
+        <v>95.2560589573045</v>
+      </c>
     </row>
     <row r="658">
       <c r="A658" t="n">
@@ -21508,6 +23481,9 @@
       <c r="J658" t="n">
         <v>0.5170927996581439</v>
       </c>
+      <c r="K658" t="n">
+        <v>59.3322903651056</v>
+      </c>
     </row>
     <row r="659">
       <c r="A659" t="n">
@@ -21540,6 +23516,9 @@
       <c r="J659" t="n">
         <v>0.5170927996581439</v>
       </c>
+      <c r="K659" t="n">
+        <v>77.288882259367</v>
+      </c>
     </row>
     <row r="660">
       <c r="A660" t="n">
@@ -21572,6 +23551,9 @@
       <c r="J660" t="n">
         <v>0.6287301474253969</v>
       </c>
+      <c r="K660" t="n">
+        <v>143.918109536357</v>
+      </c>
     </row>
     <row r="661">
       <c r="A661" t="n">
@@ -21604,6 +23586,9 @@
       <c r="J661" t="n">
         <v>0.5308026493839469</v>
       </c>
+      <c r="K661" t="n">
+        <v>59.6410660283641</v>
+      </c>
     </row>
     <row r="662">
       <c r="A662" t="n">
@@ -21636,6 +23621,9 @@
       <c r="J662" t="n">
         <v>0.8792464924150691</v>
       </c>
+      <c r="K662" t="n">
+        <v>152.739449115198</v>
+      </c>
     </row>
     <row r="663">
       <c r="A663" t="n">
@@ -21668,6 +23656,9 @@
       <c r="J663" t="n">
         <v>0.5308026493839469</v>
       </c>
+      <c r="K663" t="n">
+        <v>76.0390050116596</v>
+      </c>
     </row>
     <row r="664">
       <c r="A664" t="n">
@@ -21700,6 +23691,9 @@
       <c r="J664" t="n">
         <v>0.6287301474253969</v>
       </c>
+      <c r="K664" t="n">
+        <v>42.428900649369</v>
+      </c>
     </row>
     <row r="665">
       <c r="A665" t="n">
@@ -21732,6 +23726,9 @@
       <c r="J665" t="n">
         <v>0.8792464924150691</v>
       </c>
+      <c r="K665" t="n">
+        <v>49.6915873172435</v>
+      </c>
     </row>
     <row r="666">
       <c r="A666" t="n">
@@ -21764,6 +23761,9 @@
       <c r="J666" t="n">
         <v>0.2755145644897091</v>
       </c>
+      <c r="K666" t="n">
+        <v>20.5240427571343</v>
+      </c>
     </row>
     <row r="667">
       <c r="A667" t="n">
@@ -21796,6 +23796,9 @@
       <c r="J667" t="n">
         <v>0.2755145644897091</v>
       </c>
+      <c r="K667" t="n">
+        <v>33.7170681903324</v>
+      </c>
     </row>
     <row r="668">
       <c r="A668" t="n">
@@ -21828,6 +23831,9 @@
       <c r="J668" t="n">
         <v>0.3871519122569619</v>
       </c>
+      <c r="K668" t="n">
+        <v>14.4578587792877</v>
+      </c>
     </row>
     <row r="669">
       <c r="A669" t="n">
@@ -21860,6 +23866,9 @@
       <c r="J669" t="n">
         <v>0.4487572110248557</v>
       </c>
+      <c r="K669" t="n">
+        <v>14.0750061745047</v>
+      </c>
     </row>
     <row r="670">
       <c r="A670" t="n">
@@ -21892,6 +23901,9 @@
       <c r="J670" t="n">
         <v>0.4781354604372908</v>
       </c>
+      <c r="K670" t="n">
+        <v>10.6179362141275</v>
+      </c>
     </row>
     <row r="671">
       <c r="A671" t="n">
@@ -21924,6 +23936,9 @@
       <c r="J671" t="n">
         <v>0.4487572110248557</v>
       </c>
+      <c r="K671" t="n">
+        <v>30.0404279806509</v>
+      </c>
     </row>
     <row r="672">
       <c r="A672" t="n">
@@ -21956,6 +23971,9 @@
       <c r="J672" t="n">
         <v>0.3871519122569619</v>
       </c>
+      <c r="K672" t="n">
+        <v>17.5800834312359</v>
+      </c>
     </row>
     <row r="673">
       <c r="A673" t="n">
@@ -21988,6 +24006,9 @@
       <c r="J673" t="n">
         <v>0.4781354604372908</v>
       </c>
+      <c r="K673" t="n">
+        <v>16.5125572390237</v>
+      </c>
     </row>
     <row r="674">
       <c r="A674" t="n">
@@ -22020,6 +24041,9 @@
       <c r="J674" t="n">
         <v>0.4623958407520833</v>
       </c>
+      <c r="K674" t="n">
+        <v>7.11854571633919</v>
+      </c>
     </row>
     <row r="675">
       <c r="A675" t="n">
@@ -22052,6 +24076,9 @@
       <c r="J675" t="n">
         <v>0.4623958407520833</v>
       </c>
+      <c r="K675" t="n">
+        <v>26.994707230265</v>
+      </c>
     </row>
     <row r="676">
       <c r="A676" t="n">
@@ -22084,6 +24111,9 @@
       <c r="J676" t="n">
         <v>0.3928495121430102</v>
       </c>
+      <c r="K676" t="n">
+        <v>17.3965095986954</v>
+      </c>
     </row>
     <row r="677">
       <c r="A677" t="n">
@@ -22116,6 +24146,9 @@
       <c r="J677" t="n">
         <v>0.4179901716401965</v>
       </c>
+      <c r="K677" t="n">
+        <v>9.939273540208831</v>
+      </c>
     </row>
     <row r="678">
       <c r="A678" t="n">
@@ -22148,6 +24181,9 @@
       <c r="J678" t="n">
         <v>0.2844170643116588</v>
       </c>
+      <c r="K678" t="n">
+        <v>23.3311566456078</v>
+      </c>
     </row>
     <row r="679">
       <c r="A679" t="n">
@@ -22180,6 +24216,9 @@
       <c r="J679" t="n">
         <v>0.4179901716401965</v>
       </c>
+      <c r="K679" t="n">
+        <v>29.0701390718162</v>
+      </c>
     </row>
     <row r="680">
       <c r="A680" t="n">
@@ -22212,6 +24251,9 @@
       <c r="J680" t="n">
         <v>0.3928495121430102</v>
       </c>
+      <c r="K680" t="n">
+        <v>46.7331203313713</v>
+      </c>
     </row>
     <row r="681">
       <c r="A681" t="n">
@@ -22244,6 +24286,9 @@
       <c r="J681" t="n">
         <v>0.2844170643116588</v>
       </c>
+      <c r="K681" t="n">
+        <v>51.9224713959651</v>
+      </c>
     </row>
     <row r="682">
       <c r="A682" t="n">
@@ -22276,6 +24321,9 @@
       <c r="J682" t="n">
         <v>0.708532155829356</v>
       </c>
+      <c r="K682" t="n">
+        <v>190.725552335739</v>
+      </c>
     </row>
     <row r="683">
       <c r="A683" t="n">
@@ -22308,6 +24356,9 @@
       <c r="J683" t="n">
         <v>0.708532155829356</v>
       </c>
+      <c r="K683" t="n">
+        <v>28.1104587559894</v>
+      </c>
     </row>
     <row r="684">
       <c r="A684" t="n">
@@ -22340,6 +24391,9 @@
       <c r="J684" t="n">
         <v>0.7802863043942727</v>
       </c>
+      <c r="K684" t="n">
+        <v>225.296962931092</v>
+      </c>
     </row>
     <row r="685">
       <c r="A685" t="n">
@@ -22372,6 +24426,9 @@
       <c r="J685" t="n">
         <v>0.5319421693611565</v>
       </c>
+      <c r="K685" t="n">
+        <v>187.421108841415</v>
+      </c>
     </row>
     <row r="686">
       <c r="A686" t="n">
@@ -22404,6 +24461,9 @@
       <c r="J686" t="n">
         <v>0.539669539206609</v>
       </c>
+      <c r="K686" t="n">
+        <v>220.774029306012</v>
+      </c>
     </row>
     <row r="687">
       <c r="A687" t="n">
@@ -22436,6 +24496,9 @@
       <c r="J687" t="n">
         <v>0.5319421693611565</v>
       </c>
+      <c r="K687" t="n">
+        <v>25.1693718852318</v>
+      </c>
     </row>
     <row r="688">
       <c r="A688" t="n">
@@ -22468,6 +24531,9 @@
       <c r="J688" t="n">
         <v>0.7802863043942727</v>
       </c>
+      <c r="K688" t="n">
+        <v>23.7048185700922</v>
+      </c>
     </row>
     <row r="689">
       <c r="A689" t="n">
@@ -22500,6 +24566,9 @@
       <c r="J689" t="n">
         <v>0.539669539206609</v>
       </c>
+      <c r="K689" t="n">
+        <v>19.5452415685788</v>
+      </c>
     </row>
     <row r="690">
       <c r="A690" t="n">
@@ -22532,6 +24601,9 @@
       <c r="J690" t="n">
         <v>0.2686774446264513</v>
       </c>
+      <c r="K690" t="n">
+        <v>66.78865977547891</v>
+      </c>
     </row>
     <row r="691">
       <c r="A691" t="n">
@@ -22564,6 +24636,9 @@
       <c r="J691" t="n">
         <v>0.2686774446264513</v>
       </c>
+      <c r="K691" t="n">
+        <v>135.941997833808</v>
+      </c>
     </row>
     <row r="692">
       <c r="A692" t="n">
@@ -22596,6 +24671,9 @@
       <c r="J692" t="n">
         <v>0.1284808774303828</v>
       </c>
+      <c r="K692" t="n">
+        <v>92.72409252517009</v>
+      </c>
     </row>
     <row r="693">
       <c r="A693" t="n">
@@ -22628,6 +24706,9 @@
       <c r="J693" t="n">
         <v>0.645894167082116</v>
       </c>
+      <c r="K693" t="n">
+        <v>62.4369805543107</v>
+      </c>
     </row>
     <row r="694">
       <c r="A694" t="n">
@@ -22660,6 +24741,9 @@
       <c r="J694" t="n">
         <v>0.7242717755145633</v>
       </c>
+      <c r="K694" t="n">
+        <v>85.13711192234</v>
+      </c>
     </row>
     <row r="695">
       <c r="A695" t="n">
@@ -22692,6 +24776,9 @@
       <c r="J695" t="n">
         <v>0.645894167082116</v>
       </c>
+      <c r="K695" t="n">
+        <v>130.862231657966</v>
+      </c>
     </row>
     <row r="696">
       <c r="A696" t="n">
@@ -22724,6 +24811,9 @@
       <c r="J696" t="n">
         <v>0.1284808774303828</v>
       </c>
+      <c r="K696" t="n">
+        <v>171.337879802249</v>
+      </c>
     </row>
     <row r="697">
       <c r="A697" t="n">
@@ -22756,6 +24846,9 @@
       <c r="J697" t="n">
         <v>0.7242717755145633</v>
       </c>
+      <c r="K697" t="n">
+        <v>163.022812244745</v>
+      </c>
     </row>
     <row r="698">
       <c r="A698" t="n">
@@ -22788,6 +24881,9 @@
       <c r="J698" t="n">
         <v>0.5148137597037247</v>
       </c>
+      <c r="K698" t="n">
+        <v>17.084911026104</v>
+      </c>
     </row>
     <row r="699">
       <c r="A699" t="n">
@@ -22820,6 +24916,9 @@
       <c r="J699" t="n">
         <v>0.5148137597037247</v>
       </c>
+      <c r="K699" t="n">
+        <v>27.3160095006747</v>
+      </c>
     </row>
     <row r="700">
       <c r="A700" t="n">
@@ -22852,6 +24951,9 @@
       <c r="J700" t="n">
         <v>0.5113595897728082</v>
       </c>
+      <c r="K700" t="n">
+        <v>26.4382460713206</v>
+      </c>
     </row>
     <row r="701">
       <c r="A701" t="n">
@@ -22884,6 +24986,9 @@
       <c r="J701" t="n">
         <v>0.2721316145573685</v>
       </c>
+      <c r="K701" t="n">
+        <v>19.1819943838538</v>
+      </c>
     </row>
     <row r="702">
       <c r="A702" t="n">
@@ -22916,6 +25021,9 @@
       <c r="J702" t="n">
         <v>0.4690193006196141</v>
       </c>
+      <c r="K702" t="n">
+        <v>25.5699000427507</v>
+      </c>
     </row>
     <row r="703">
       <c r="A703" t="n">
@@ -22948,6 +25056,9 @@
       <c r="J703" t="n">
         <v>0.2721316145573685</v>
       </c>
+      <c r="K703" t="n">
+        <v>28.6155613374714</v>
+      </c>
     </row>
     <row r="704">
       <c r="A704" t="n">
@@ -22980,6 +25091,9 @@
       <c r="J704" t="n">
         <v>0.5113595897728082</v>
       </c>
+      <c r="K704" t="n">
+        <v>7.06729376464142</v>
+      </c>
     </row>
     <row r="705">
       <c r="A705" t="n">
@@ -23012,6 +25126,9 @@
       <c r="J705" t="n">
         <v>0.4690193006196141</v>
       </c>
+      <c r="K705" t="n">
+        <v>5.40141621511839</v>
+      </c>
     </row>
     <row r="706">
       <c r="A706" t="n">
@@ -23044,6 +25161,9 @@
       <c r="J706" t="n">
         <v>0.4572680008546401</v>
       </c>
+      <c r="K706" t="n">
+        <v>40.9645966261942</v>
+      </c>
     </row>
     <row r="707">
       <c r="A707" t="n">
@@ -23076,6 +25196,9 @@
       <c r="J707" t="n">
         <v>0.4572680008546401</v>
       </c>
+      <c r="K707" t="n">
+        <v>26.108604521348</v>
+      </c>
     </row>
     <row r="708">
       <c r="A708" t="n">
@@ -23108,6 +25231,9 @@
       <c r="J708" t="n">
         <v>0.2082472758350554</v>
       </c>
+      <c r="K708" t="n">
+        <v>36.042925652442</v>
+      </c>
     </row>
     <row r="709">
       <c r="A709" t="n">
@@ -23140,6 +25266,9 @@
       <c r="J709" t="n">
         <v>0.5063029698739405</v>
       </c>
+      <c r="K709" t="n">
+        <v>39.3560710469154</v>
+      </c>
     </row>
     <row r="710">
       <c r="A710" t="n">
@@ -23172,6 +25301,9 @@
       <c r="J710" t="n">
         <v>0.486112100277758</v>
       </c>
+      <c r="K710" t="n">
+        <v>27.1763192609302</v>
+      </c>
     </row>
     <row r="711">
       <c r="A711" t="n">
@@ -23204,6 +25336,9 @@
       <c r="J711" t="n">
         <v>0.5063029698739405</v>
       </c>
+      <c r="K711" t="n">
+        <v>24.8755902819207</v>
+      </c>
     </row>
     <row r="712">
       <c r="A712" t="n">
@@ -23236,6 +25371,9 @@
       <c r="J712" t="n">
         <v>0.2082472758350554</v>
       </c>
+      <c r="K712" t="n">
+        <v>28.1083202663458</v>
+      </c>
     </row>
     <row r="713">
       <c r="A713" t="n">
@@ -23268,6 +25406,9 @@
       <c r="J713" t="n">
         <v>0.486112100277758</v>
       </c>
+      <c r="K713" t="n">
+        <v>19.6172252146855</v>
+      </c>
     </row>
     <row r="714">
       <c r="A714" t="n">
@@ -23300,6 +25441,9 @@
       <c r="J714" t="n">
         <v>0.5575457588490847</v>
       </c>
+      <c r="K714" t="n">
+        <v>58.584175377697</v>
+      </c>
     </row>
     <row r="715">
       <c r="A715" t="n">
@@ -23332,6 +25476,9 @@
       <c r="J715" t="n">
         <v>0.5575457588490847</v>
       </c>
+      <c r="K715" t="n">
+        <v>78.3957947710941</v>
+      </c>
     </row>
     <row r="716">
       <c r="A716" t="n">
@@ -23364,6 +25511,9 @@
       <c r="J716" t="n">
         <v>0.5181967096360658</v>
       </c>
+      <c r="K716" t="n">
+        <v>20.2420804616637</v>
+      </c>
     </row>
     <row r="717">
       <c r="A717" t="n">
@@ -23396,6 +25546,9 @@
       <c r="J717" t="n">
         <v>0.8390428032191438</v>
       </c>
+      <c r="K717" t="n">
+        <v>67.74836798829671</v>
+      </c>
     </row>
     <row r="718">
       <c r="A718" t="n">
@@ -23428,6 +25581,9 @@
       <c r="J718" t="n">
         <v>0.5635994587280108</v>
       </c>
+      <c r="K718" t="n">
+        <v>20.9193108526683</v>
+      </c>
     </row>
     <row r="719">
       <c r="A719" t="n">
@@ -23460,6 +25616,9 @@
       <c r="J719" t="n">
         <v>0.8390428032191438</v>
       </c>
+      <c r="K719" t="n">
+        <v>88.55709835083439</v>
+      </c>
     </row>
     <row r="720">
       <c r="A720" t="n">
@@ -23492,6 +25651,9 @@
       <c r="J720" t="n">
         <v>0.5181967096360658</v>
       </c>
+      <c r="K720" t="n">
+        <v>32.9125865738108</v>
+      </c>
     </row>
     <row r="721">
       <c r="A721" t="n">
@@ -23524,6 +25686,9 @@
       <c r="J721" t="n">
         <v>0.5635994587280108</v>
       </c>
+      <c r="K721" t="n">
+        <v>34.586927933956</v>
+      </c>
     </row>
     <row r="722">
       <c r="A722" t="n">
@@ -23556,6 +25721,9 @@
       <c r="J722" t="n">
         <v>0.434477601310448</v>
       </c>
+      <c r="K722" t="n">
+        <v>116.115166661917</v>
+      </c>
     </row>
     <row r="723">
       <c r="A723" t="n">
@@ -23588,6 +25756,9 @@
       <c r="J723" t="n">
         <v>0.434477601310448</v>
       </c>
+      <c r="K723" t="n">
+        <v>14.9749100508292</v>
+      </c>
     </row>
     <row r="724">
       <c r="A724" t="n">
@@ -23620,6 +25791,9 @@
       <c r="J724" t="n">
         <v>0.4361512712769747</v>
       </c>
+      <c r="K724" t="n">
+        <v>115.116591493191</v>
+      </c>
     </row>
     <row r="725">
       <c r="A725" t="n">
@@ -23652,6 +25826,9 @@
       <c r="J725" t="n">
         <v>0.5997436080051275</v>
       </c>
+      <c r="K725" t="n">
+        <v>119.755361785919</v>
+      </c>
     </row>
     <row r="726">
       <c r="A726" t="n">
@@ -23684,6 +25861,9 @@
       <c r="J726" t="n">
         <v>0.5977850580442986</v>
       </c>
+      <c r="K726" t="n">
+        <v>118.749106108397</v>
+      </c>
     </row>
     <row r="727">
       <c r="A727" t="n">
@@ -23716,6 +25896,9 @@
       <c r="J727" t="n">
         <v>0.5997436080051275</v>
       </c>
+      <c r="K727" t="n">
+        <v>17.2127873918988</v>
+      </c>
     </row>
     <row r="728">
       <c r="A728" t="n">
@@ -23748,6 +25931,9 @@
       <c r="J728" t="n">
         <v>0.4361512712769747</v>
       </c>
+      <c r="K728" t="n">
+        <v>14.6477216008533</v>
+      </c>
     </row>
     <row r="729">
       <c r="A729" t="n">
@@ -23780,6 +25966,9 @@
       <c r="J729" t="n">
         <v>0.5977850580442986</v>
       </c>
+      <c r="K729" t="n">
+        <v>16.8779184331269</v>
+      </c>
     </row>
     <row r="730">
       <c r="A730" t="n">
@@ -23812,6 +26001,9 @@
       <c r="J730" t="n">
         <v>0.8264724734705502</v>
       </c>
+      <c r="K730" t="n">
+        <v>30.4182107187159</v>
+      </c>
     </row>
     <row r="731">
       <c r="A731" t="n">
@@ -23844,6 +26036,9 @@
       <c r="J731" t="n">
         <v>0.8264724734705502</v>
       </c>
+      <c r="K731" t="n">
+        <v>225.85783868677</v>
+      </c>
     </row>
     <row r="732">
       <c r="A732" t="n">
@@ -23876,6 +26071,9 @@
       <c r="J732" t="n">
         <v>0.8235880635282385</v>
       </c>
+      <c r="K732" t="n">
+        <v>30.1599228364112</v>
+      </c>
     </row>
     <row r="733">
       <c r="A733" t="n">
@@ -23908,6 +26106,9 @@
       <c r="J733" t="n">
         <v>0.2259810554803802</v>
       </c>
+      <c r="K733" t="n">
+        <v>27.3543764940339</v>
+      </c>
     </row>
     <row r="734">
       <c r="A734" t="n">
@@ -23940,6 +26141,9 @@
       <c r="J734" t="n">
         <v>0.2285805854283896</v>
       </c>
+      <c r="K734" t="n">
+        <v>27.1076846740291</v>
+      </c>
     </row>
     <row r="735">
       <c r="A735" t="n">
@@ -23972,6 +26176,9 @@
       <c r="J735" t="n">
         <v>0.2259810554803802</v>
       </c>
+      <c r="K735" t="n">
+        <v>222.535370178183</v>
+      </c>
     </row>
     <row r="736">
       <c r="A736" t="n">
@@ -24004,6 +26211,9 @@
       <c r="J736" t="n">
         <v>0.8235880635282385</v>
       </c>
+      <c r="K736" t="n">
+        <v>224.708437523216</v>
+      </c>
     </row>
     <row r="737">
       <c r="A737" t="n">
@@ -24036,6 +26246,9 @@
       <c r="J737" t="n">
         <v>0.2285805854283896</v>
       </c>
+      <c r="K737" t="n">
+        <v>221.397565076928</v>
+      </c>
     </row>
     <row r="738">
       <c r="A738" t="n">
@@ -24068,6 +26281,9 @@
       <c r="J738" t="n">
         <v>0.6179403176411933</v>
       </c>
+      <c r="K738" t="n">
+        <v>18.3524577026561</v>
+      </c>
     </row>
     <row r="739">
       <c r="A739" t="n">
@@ -24100,6 +26316,9 @@
       <c r="J739" t="n">
         <v>0.6179403176411933</v>
       </c>
+      <c r="K739" t="n">
+        <v>111.407512358229</v>
+      </c>
     </row>
     <row r="740">
       <c r="A740" t="n">
@@ -24132,6 +26351,9 @@
       <c r="J740" t="n">
         <v>0.7278683854426318</v>
       </c>
+      <c r="K740" t="n">
+        <v>19.8531080804275</v>
+      </c>
     </row>
     <row r="741">
       <c r="A741" t="n">
@@ -24164,6 +26386,9 @@
       <c r="J741" t="n">
         <v>0.4208389715832205</v>
       </c>
+      <c r="K741" t="n">
+        <v>15.4320619868523</v>
+      </c>
     </row>
     <row r="742">
       <c r="A742" t="n">
@@ -24196,6 +26421,9 @@
       <c r="J742" t="n">
         <v>0.3288583434228332</v>
       </c>
+      <c r="K742" t="n">
+        <v>16.5057664344923</v>
+      </c>
     </row>
     <row r="743">
       <c r="A743" t="n">
@@ -24228,6 +26456,9 @@
       <c r="J743" t="n">
         <v>0.4208389715832205</v>
       </c>
+      <c r="K743" t="n">
+        <v>110.466923372686</v>
+      </c>
     </row>
     <row r="744">
       <c r="A744" t="n">
@@ -24260,6 +26491,9 @@
       <c r="J744" t="n">
         <v>0.7278683854426318</v>
       </c>
+      <c r="K744" t="n">
+        <v>169.04829945475</v>
+      </c>
     </row>
     <row r="745">
       <c r="A745" t="n">
@@ -24292,6 +26526,9 @@
       <c r="J745" t="n">
         <v>0.3288583434228332</v>
       </c>
+      <c r="K745" t="n">
+        <v>167.680764539076</v>
+      </c>
     </row>
     <row r="746">
       <c r="A746" t="n">
@@ -24324,6 +26561,9 @@
       <c r="J746" t="n">
         <v>0.1575742468485151</v>
       </c>
+      <c r="K746" t="n">
+        <v>141.446791602187</v>
+      </c>
     </row>
     <row r="747">
       <c r="A747" t="n">
@@ -24356,6 +26596,9 @@
       <c r="J747" t="n">
         <v>0.1575742468485151</v>
       </c>
+      <c r="K747" t="n">
+        <v>27.3095552061791</v>
+      </c>
     </row>
     <row r="748">
       <c r="A748" t="n">
@@ -24388,6 +26631,9 @@
       <c r="J748" t="n">
         <v>0.3404315931913681</v>
       </c>
+      <c r="K748" t="n">
+        <v>86.7679194275731</v>
+      </c>
     </row>
     <row r="749">
       <c r="A749" t="n">
@@ -24420,6 +26666,9 @@
       <c r="J749" t="n">
         <v>0.8994373620112524</v>
       </c>
+      <c r="K749" t="n">
+        <v>145.134974041406</v>
+      </c>
     </row>
     <row r="750">
       <c r="A750" t="n">
@@ -24452,6 +26701,9 @@
       <c r="J750" t="n">
         <v>0.6980628160387434</v>
       </c>
+      <c r="K750" t="n">
+        <v>89.64362451474391</v>
+      </c>
     </row>
     <row r="751">
       <c r="A751" t="n">
@@ -24484,6 +26736,9 @@
       <c r="J751" t="n">
         <v>0.8994373620112524</v>
       </c>
+      <c r="K751" t="n">
+        <v>31.0857793516333</v>
+      </c>
     </row>
     <row r="752">
       <c r="A752" t="n">
@@ -24516,6 +26771,9 @@
       <c r="J752" t="n">
         <v>0.3404315931913681</v>
       </c>
+      <c r="K752" t="n">
+        <v>16.2708197503153</v>
+      </c>
     </row>
     <row r="753">
       <c r="A753" t="n">
@@ -24548,6 +26806,9 @@
       <c r="J753" t="n">
         <v>0.6980628160387434</v>
       </c>
+      <c r="K753" t="n">
+        <v>19.2345665437205</v>
+      </c>
     </row>
     <row r="754">
       <c r="A754" t="n">
@@ -24580,6 +26841,9 @@
       <c r="J754" t="n">
         <v>0.6293355174132892</v>
       </c>
+      <c r="K754" t="n">
+        <v>15.5486395372842</v>
+      </c>
     </row>
     <row r="755">
       <c r="A755" t="n">
@@ -24612,6 +26876,9 @@
       <c r="J755" t="n">
         <v>0.6293355174132892</v>
       </c>
+      <c r="K755" t="n">
+        <v>25.478701970746</v>
+      </c>
     </row>
     <row r="756">
       <c r="A756" t="n">
@@ -24644,6 +26911,9 @@
       <c r="J756" t="n">
         <v>0.6253115874937678</v>
       </c>
+      <c r="K756" t="n">
+        <v>15.0366070488451</v>
+      </c>
     </row>
     <row r="757">
       <c r="A757" t="n">
@@ -24676,6 +26946,9 @@
       <c r="J757" t="n">
         <v>0.5347909693041805</v>
       </c>
+      <c r="K757" t="n">
+        <v>14.1129269019783</v>
+      </c>
     </row>
     <row r="758">
       <c r="A758" t="n">
@@ -24708,6 +26981,9 @@
       <c r="J758" t="n">
         <v>0.5339719393205611</v>
       </c>
+      <c r="K758" t="n">
+        <v>13.7161020454794</v>
+      </c>
     </row>
     <row r="759">
       <c r="A759" t="n">
@@ -24740,6 +27016,9 @@
       <c r="J759" t="n">
         <v>0.5347909693041805</v>
       </c>
+      <c r="K759" t="n">
+        <v>21.5500076815056</v>
+      </c>
     </row>
     <row r="760">
       <c r="A760" t="n">
@@ -24772,6 +27051,9 @@
       <c r="J760" t="n">
         <v>0.6253115874937678</v>
       </c>
+      <c r="K760" t="n">
+        <v>24.8568062010569</v>
+      </c>
     </row>
     <row r="761">
       <c r="A761" t="n">
@@ -24804,6 +27086,9 @@
       <c r="J761" t="n">
         <v>0.5339719393205611</v>
       </c>
+      <c r="K761" t="n">
+        <v>21.0433195437567</v>
+      </c>
     </row>
     <row r="762">
       <c r="A762" t="n">
@@ -24836,6 +27121,9 @@
       <c r="J762" t="n">
         <v>0.4606865607862688</v>
       </c>
+      <c r="K762" t="n">
+        <v>43.1615656823456</v>
+      </c>
     </row>
     <row r="763">
       <c r="A763" t="n">
@@ -24868,6 +27156,9 @@
       <c r="J763" t="n">
         <v>0.4606865607862688</v>
       </c>
+      <c r="K763" t="n">
+        <v>30.1902111823023</v>
+      </c>
     </row>
     <row r="764">
       <c r="A764" t="n">
@@ -24900,6 +27191,9 @@
       <c r="J764" t="n">
         <v>0.4612207107755859</v>
       </c>
+      <c r="K764" t="n">
+        <v>43.5488521918688</v>
+      </c>
     </row>
     <row r="765">
       <c r="A765" t="n">
@@ -24932,6 +27226,9 @@
       <c r="J765" t="n">
         <v>0.1610284167794326</v>
       </c>
+      <c r="K765" t="n">
+        <v>53.0801755466219</v>
+      </c>
     </row>
     <row r="766">
       <c r="A766" t="n">
@@ -24964,6 +27261,9 @@
       <c r="J766" t="n">
         <v>0.1647674667046515</v>
       </c>
+      <c r="K766" t="n">
+        <v>53.3658082632567</v>
+      </c>
     </row>
     <row r="767">
       <c r="A767" t="n">
@@ -24996,6 +27296,9 @@
       <c r="J767" t="n">
         <v>0.1610284167794326</v>
       </c>
+      <c r="K767" t="n">
+        <v>41.236151028348</v>
+      </c>
     </row>
     <row r="768">
       <c r="A768" t="n">
@@ -25028,6 +27331,9 @@
       <c r="J768" t="n">
         <v>0.4612207107755859</v>
       </c>
+      <c r="K768" t="n">
+        <v>30.4676344105754</v>
+      </c>
     </row>
     <row r="769">
       <c r="A769" t="n">
@@ -25060,6 +27366,9 @@
       <c r="J769" t="n">
         <v>0.1647674667046515</v>
       </c>
+      <c r="K769" t="n">
+        <v>41.4119204637328</v>
+      </c>
     </row>
     <row r="770">
       <c r="A770" t="n">
@@ -25092,6 +27401,9 @@
       <c r="J770" t="n">
         <v>0.334769603304608</v>
       </c>
+      <c r="K770" t="n">
+        <v>65.7705742142626</v>
+      </c>
     </row>
     <row r="771">
       <c r="A771" t="n">
@@ -25124,6 +27436,9 @@
       <c r="J771" t="n">
         <v>0.334769603304608</v>
       </c>
+      <c r="K771" t="n">
+        <v>15.6439753179311</v>
+      </c>
     </row>
     <row r="772">
       <c r="A772" t="n">
@@ -25156,6 +27471,9 @@
       <c r="J772" t="n">
         <v>0.3613702727725946</v>
       </c>
+      <c r="K772" t="n">
+        <v>68.91136196596401</v>
+      </c>
     </row>
     <row r="773">
       <c r="A773" t="n">
@@ -25188,6 +27506,9 @@
       <c r="J773" t="n">
         <v>0.3474823730503525</v>
       </c>
+      <c r="K773" t="n">
+        <v>64.467604282991</v>
+      </c>
     </row>
     <row r="774">
       <c r="A774" t="n">
@@ -25220,6 +27541,9 @@
       <c r="J774" t="n">
         <v>0.3721601025567979</v>
       </c>
+      <c r="K774" t="n">
+        <v>67.6897150690031</v>
+      </c>
     </row>
     <row r="775">
       <c r="A775" t="n">
@@ -25252,6 +27576,9 @@
       <c r="J775" t="n">
         <v>0.3474823730503525</v>
       </c>
+      <c r="K775" t="n">
+        <v>15.0308311766534</v>
+      </c>
     </row>
     <row r="776">
       <c r="A776" t="n">
@@ -25284,6 +27611,9 @@
       <c r="J776" t="n">
         <v>0.3613702727725946</v>
       </c>
+      <c r="K776" t="n">
+        <v>13.4014622883825</v>
+      </c>
     </row>
     <row r="777">
       <c r="A777" t="n">
@@ -25316,6 +27646,9 @@
       <c r="J777" t="n">
         <v>0.3721601025567979</v>
       </c>
+      <c r="K777" t="n">
+        <v>12.8696411814156</v>
+      </c>
     </row>
     <row r="778">
       <c r="A778" t="n">
@@ -25348,6 +27681,9 @@
       <c r="J778" t="n">
         <v>0.7085321558293566</v>
       </c>
+      <c r="K778" t="n">
+        <v>49.8326534771272</v>
+      </c>
     </row>
     <row r="779">
       <c r="A779" t="n">
@@ -25380,6 +27716,9 @@
       <c r="J779" t="n">
         <v>0.7085321558293566</v>
       </c>
+      <c r="K779" t="n">
+        <v>191.393353030446</v>
+      </c>
     </row>
     <row r="780">
       <c r="A780" t="n">
@@ -25412,6 +27751,9 @@
       <c r="J780" t="n">
         <v>0.6941101061177976</v>
       </c>
+      <c r="K780" t="n">
+        <v>46.354227936003</v>
+      </c>
     </row>
     <row r="781">
       <c r="A781" t="n">
@@ -25444,6 +27786,9 @@
       <c r="J781" t="n">
         <v>0.7349191653016162</v>
       </c>
+      <c r="K781" t="n">
+        <v>50.4822583665491</v>
+      </c>
     </row>
     <row r="782">
       <c r="A782" t="n">
@@ -25476,6 +27821,9 @@
       <c r="J782" t="n">
         <v>0.718574175628516</v>
       </c>
+      <c r="K782" t="n">
+        <v>46.9550390048385</v>
+      </c>
     </row>
     <row r="783">
       <c r="A783" t="n">
@@ -25508,6 +27856,9 @@
       <c r="J783" t="n">
         <v>0.7349191653016162</v>
       </c>
+      <c r="K783" t="n">
+        <v>192.593637572048</v>
+      </c>
     </row>
     <row r="784">
       <c r="A784" t="n">
@@ -25540,6 +27891,9 @@
       <c r="J784" t="n">
         <v>0.6941101061177976</v>
       </c>
+      <c r="K784" t="n">
+        <v>182.531626708072</v>
+      </c>
     </row>
     <row r="785">
       <c r="A785" t="n">
@@ -25572,6 +27926,9 @@
       <c r="J785" t="n">
         <v>0.718574175628516</v>
       </c>
+      <c r="K785" t="n">
+        <v>183.683117429088</v>
+      </c>
     </row>
     <row r="786">
       <c r="A786" t="n">
@@ -25604,6 +27961,9 @@
       <c r="J786" t="n">
         <v>0.4920233601595327</v>
       </c>
+      <c r="K786" t="n">
+        <v>52.1299777302317</v>
+      </c>
     </row>
     <row r="787">
       <c r="A787" t="n">
@@ -25636,6 +27996,9 @@
       <c r="J787" t="n">
         <v>0.4920233601595327</v>
       </c>
+      <c r="K787" t="n">
+        <v>37.0695192136247</v>
+      </c>
     </row>
     <row r="788">
       <c r="A788" t="n">
@@ -25668,6 +28031,9 @@
       <c r="J788" t="n">
         <v>0.4548109109037817</v>
       </c>
+      <c r="K788" t="n">
+        <v>94.00997593292151</v>
+      </c>
     </row>
     <row r="789">
       <c r="A789" t="n">
@@ -25700,6 +28066,9 @@
       <c r="J789" t="n">
         <v>0.6232462075350759</v>
       </c>
+      <c r="K789" t="n">
+        <v>56.1838472254217</v>
+      </c>
     </row>
     <row r="790">
       <c r="A790" t="n">
@@ -25732,6 +28101,9 @@
       <c r="J790" t="n">
         <v>0.8484794530304109</v>
       </c>
+      <c r="K790" t="n">
+        <v>104.72329834889</v>
+      </c>
     </row>
     <row r="791">
       <c r="A791" t="n">
@@ -25764,6 +28136,9 @@
       <c r="J791" t="n">
         <v>0.6232462075350759</v>
       </c>
+      <c r="K791" t="n">
+        <v>43.1558953938931</v>
+      </c>
     </row>
     <row r="792">
       <c r="A792" t="n">
@@ -25796,6 +28171,9 @@
       <c r="J792" t="n">
         <v>0.4548109109037817</v>
       </c>
+      <c r="K792" t="n">
+        <v>25.9099666350645</v>
+      </c>
     </row>
     <row r="793">
       <c r="A793" t="n">
@@ -25828,6 +28206,9 @@
       <c r="J793" t="n">
         <v>0.8484794530304109</v>
       </c>
+      <c r="K793" t="n">
+        <v>38.6557957361119</v>
+      </c>
     </row>
     <row r="794">
       <c r="A794" t="n">
@@ -25860,6 +28241,9 @@
       <c r="J794" t="n">
         <v>0.8657859126842806</v>
       </c>
+      <c r="K794" t="n">
+        <v>27.5020263882146</v>
+      </c>
     </row>
     <row r="795">
       <c r="A795" t="n">
@@ -25892,6 +28276,9 @@
       <c r="J795" t="n">
         <v>0.8657859126842806</v>
       </c>
+      <c r="K795" t="n">
+        <v>73.6695745716046</v>
+      </c>
     </row>
     <row r="796">
       <c r="A796" t="n">
@@ -25924,6 +28311,9 @@
       <c r="J796" t="n">
         <v>0.5824371483512568</v>
       </c>
+      <c r="K796" t="n">
+        <v>21.0316549493089</v>
+      </c>
     </row>
     <row r="797">
       <c r="A797" t="n">
@@ -25956,6 +28346,9 @@
       <c r="J797" t="n">
         <v>0.4682714906345702</v>
       </c>
+      <c r="K797" t="n">
+        <v>16.3712833990975</v>
+      </c>
     </row>
     <row r="798">
       <c r="A798" t="n">
@@ -25988,6 +28381,9 @@
       <c r="J798" t="n">
         <v>0.5020653799586924</v>
       </c>
+      <c r="K798" t="n">
+        <v>17.9482779998739</v>
+      </c>
     </row>
     <row r="799">
       <c r="A799" t="n">
@@ -26020,6 +28416,9 @@
       <c r="J799" t="n">
         <v>0.4682714906345702</v>
       </c>
+      <c r="K799" t="n">
+        <v>64.2037831795276</v>
+      </c>
     </row>
     <row r="800">
       <c r="A800" t="n">
@@ -26052,6 +28451,9 @@
       <c r="J800" t="n">
         <v>0.5824371483512568</v>
       </c>
+      <c r="K800" t="n">
+        <v>23.5346523514488</v>
+      </c>
     </row>
     <row r="801">
       <c r="A801" t="n">
@@ -26083,6 +28485,9 @@
       </c>
       <c r="J801" t="n">
         <v>0.5020653799586924</v>
+      </c>
+      <c r="K801" t="n">
+        <v>22.116226999054</v>
       </c>
     </row>
   </sheetData>
